--- a/data/db/properties.xlsx
+++ b/data/db/properties.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nburmeister\Documents\_Development\AssetManagementPortal\app\data\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nburmeister\Documents\_Development\AssetManagementPortal\data\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35CE24A-F3D5-486E-A1FF-694767DB29C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BF98F6-4D80-43D1-A99B-5BD82A2CCD9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{65CCAB74-0CA2-4D5F-9FC7-1AACCFC26E43}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15525" xr2:uid="{65CCAB74-0CA2-4D5F-9FC7-1AACCFC26E43}"/>
   </bookViews>
   <sheets>
     <sheet name="PropertyData" sheetId="1" r:id="rId1"/>
@@ -4285,9 +4285,6 @@
     <t>m017cc</t>
   </si>
   <si>
-    <t>m019g</t>
-  </si>
-  <si>
     <t>m020cs</t>
   </si>
   <si>
@@ -4409,6 +4406,9 @@
   </si>
   <si>
     <t>latitude</t>
+  </si>
+  <si>
+    <t>m019cg</t>
   </si>
 </sst>
 </file>
@@ -59867,10 +59867,10 @@
   <dimension ref="A1:U77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:A1048576"/>
+      <selection pane="bottomRight" activeCell="S70" sqref="S70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59909,7 +59909,7 @@
         <v>206</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>192</v>
@@ -59957,10 +59957,10 @@
         <v>225</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -60045,7 +60045,7 @@
         <v>98</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I3" s="1">
         <v>85281</v>
@@ -60069,7 +60069,7 @@
         <v>-1</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q3" s="10">
         <v>6</v>
@@ -60128,7 +60128,7 @@
         <v>15</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q4" s="10">
         <v>1</v>
@@ -60187,7 +60187,7 @@
         <v>-1</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q5" s="10">
         <v>1</v>
@@ -60249,7 +60249,7 @@
         <v>-1</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q6" s="10">
         <v>1</v>
@@ -60258,7 +60258,7 @@
         <v>43640</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="T6" s="1">
         <v>28.001814</v>
@@ -60311,7 +60311,7 @@
         <v>-1</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q7" s="10">
         <v>3</v>
@@ -60370,7 +60370,7 @@
         <v>-1</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q8" s="10">
         <v>2</v>
@@ -60429,7 +60429,7 @@
         <v>1</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q9" s="10">
         <v>1</v>
@@ -60488,7 +60488,7 @@
         <v>-1</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q10" s="10">
         <v>7</v>
@@ -60547,7 +60547,7 @@
         <v>1</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q11" s="10">
         <v>12</v>
@@ -60594,7 +60594,7 @@
         <v>7</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q12" s="10">
         <v>8</v>
@@ -60641,7 +60641,7 @@
         <v>3</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q13" s="10">
         <v>9</v>
@@ -60688,7 +60688,7 @@
         <v>7</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q14" s="10">
         <v>5</v>
@@ -60747,7 +60747,7 @@
         <v>2</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q15" s="10">
         <v>5</v>
@@ -60779,7 +60779,7 @@
         <v>55</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H16" s="18" t="s">
         <v>212</v>
@@ -60806,7 +60806,7 @@
         <v>1</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q16" s="10">
         <v>8</v>
@@ -60865,7 +60865,7 @@
         <v>1</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Q17" s="10">
         <v>9</v>
@@ -60924,7 +60924,7 @@
         <v>-1</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q18" s="10">
         <v>6</v>
@@ -60983,7 +60983,7 @@
         <v>-1</v>
       </c>
       <c r="P19" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q19" s="10">
         <v>1</v>
@@ -61018,7 +61018,7 @@
         <v>50</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I20" s="1">
         <v>85014</v>
@@ -61042,7 +61042,7 @@
         <v>-1</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q20" s="10">
         <v>4</v>
@@ -61101,7 +61101,7 @@
         <v>-1</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q21" s="10">
         <v>3</v>
@@ -61160,7 +61160,7 @@
         <v>-1</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q22" s="10">
         <v>11</v>
@@ -61219,7 +61219,7 @@
         <v>-1</v>
       </c>
       <c r="P23" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q23" s="10">
         <v>1</v>
@@ -61281,7 +61281,7 @@
         <v>-1</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q24" s="10">
         <v>1</v>
@@ -61343,7 +61343,7 @@
         <v>-1</v>
       </c>
       <c r="P25" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q25" s="10">
         <v>1</v>
@@ -61405,7 +61405,7 @@
         <v>-1</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q26" s="10">
         <v>1</v>
@@ -61467,7 +61467,7 @@
         <v>-1</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q27" s="10">
         <v>1</v>
@@ -61529,7 +61529,7 @@
         <v>-1</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q28" s="10">
         <v>1</v>
@@ -61588,7 +61588,7 @@
         <v>-1</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q29" s="10">
         <v>1</v>
@@ -61650,7 +61650,7 @@
         <v>-1</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q30" s="10">
         <v>1</v>
@@ -61682,7 +61682,7 @@
         <v>5</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>100</v>
@@ -61712,7 +61712,7 @@
         <v>-1</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q31" s="10">
         <v>1</v>
@@ -61721,7 +61721,7 @@
         <v>43348</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="T31" s="1">
         <v>33.118155999999999</v>
@@ -61774,7 +61774,7 @@
         <v>-1</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q32" s="10">
         <v>1</v>
@@ -61836,7 +61836,7 @@
         <v>-1</v>
       </c>
       <c r="P33" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q33" s="10">
         <v>1</v>
@@ -61889,7 +61889,7 @@
         <v>3</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q34" s="10">
         <v>1</v>
@@ -61912,7 +61912,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E35" s="1">
         <v>5</v>
@@ -61948,7 +61948,7 @@
         <v>-1</v>
       </c>
       <c r="P35" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q35" s="10">
         <v>1</v>
@@ -62001,7 +62001,7 @@
         <v>12</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q36" s="10">
         <v>10</v>
@@ -62045,7 +62045,7 @@
         <v>-1</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q37" s="10">
         <v>1</v>
@@ -62263,7 +62263,7 @@
         <v>-1</v>
       </c>
       <c r="P41" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q41" s="10">
         <v>10</v>
@@ -62322,7 +62322,7 @@
         <v>-1</v>
       </c>
       <c r="P42" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q42" s="10">
         <v>9</v>
@@ -62381,7 +62381,7 @@
         <v>-1</v>
       </c>
       <c r="P43" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q43" s="10">
         <v>8</v>
@@ -62440,7 +62440,7 @@
         <v>-1</v>
       </c>
       <c r="P44" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q44" s="10">
         <v>5</v>
@@ -62499,7 +62499,7 @@
         <v>1</v>
       </c>
       <c r="P45" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q45" s="10">
         <v>8</v>
@@ -62552,7 +62552,7 @@
         <v>-1</v>
       </c>
       <c r="P46" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q46" s="10">
         <v>10</v>
@@ -62611,7 +62611,7 @@
         <v>-1</v>
       </c>
       <c r="P47" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q47" s="10">
         <v>5</v>
@@ -62670,7 +62670,7 @@
         <v>-1</v>
       </c>
       <c r="P48" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q48" s="10">
         <v>10</v>
@@ -62729,7 +62729,7 @@
         <v>-1</v>
       </c>
       <c r="P49" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q49" s="10">
         <v>10</v>
@@ -62788,7 +62788,7 @@
         <v>-1</v>
       </c>
       <c r="P50" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q50" s="10">
         <v>8</v>
@@ -62847,7 +62847,7 @@
         <v>-1</v>
       </c>
       <c r="P51" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q51" s="10">
         <v>10</v>
@@ -62906,7 +62906,7 @@
         <v>-1</v>
       </c>
       <c r="P52" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q52" s="10">
         <v>9</v>
@@ -63499,7 +63499,7 @@
         <v>-1</v>
       </c>
       <c r="P62" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q62" s="10">
         <v>1</v>
@@ -63564,7 +63564,7 @@
         <v>-1</v>
       </c>
       <c r="P63" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q63" s="10">
         <v>1</v>
@@ -63629,7 +63629,7 @@
         <v>-1</v>
       </c>
       <c r="P64" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q64" s="10">
         <v>1</v>
@@ -63694,7 +63694,7 @@
         <v>-1</v>
       </c>
       <c r="P65" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q65" s="10">
         <v>1</v>
@@ -63759,7 +63759,7 @@
         <v>-1</v>
       </c>
       <c r="P66" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q66" s="10">
         <v>1</v>
@@ -63824,7 +63824,7 @@
         <v>-1</v>
       </c>
       <c r="P67" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q67" s="10">
         <v>1</v>
@@ -63889,7 +63889,7 @@
         <v>-1</v>
       </c>
       <c r="P68" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q68" s="10">
         <v>1</v>
@@ -63954,7 +63954,7 @@
         <v>-1</v>
       </c>
       <c r="P69" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q69" s="10">
         <v>1</v>
@@ -63963,7 +63963,7 @@
         <v>43817</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>253</v>
+        <v>294</v>
       </c>
       <c r="T69" s="1">
         <v>29.981292</v>
@@ -64019,7 +64019,7 @@
         <v>-1</v>
       </c>
       <c r="P70" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q70" s="10">
         <v>1</v>
@@ -64028,7 +64028,7 @@
         <v>43817</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="T70" s="1">
         <v>30.027327</v>
@@ -64084,7 +64084,7 @@
         <v>-1</v>
       </c>
       <c r="P71" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q71" s="10">
         <v>1</v>
@@ -64093,7 +64093,7 @@
         <v>43817</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="T71" s="1">
         <v>29.777594000000001</v>
@@ -64146,7 +64146,7 @@
         <v>-1</v>
       </c>
       <c r="P72" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q72" s="10">
         <v>1</v>
@@ -64199,7 +64199,7 @@
         <v>-1</v>
       </c>
       <c r="P73" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q73" s="10">
         <v>1</v>
@@ -64252,7 +64252,7 @@
         <v>-1</v>
       </c>
       <c r="P74" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q74" s="10">
         <v>1</v>
@@ -64311,7 +64311,7 @@
         <v>-1</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q75" s="10">
         <v>1</v>
@@ -64346,7 +64346,7 @@
         <v>212</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K76" s="1">
         <v>1</v>
@@ -64364,7 +64364,7 @@
         <v>5</v>
       </c>
       <c r="P76" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q76" s="10">
         <v>10</v>
@@ -64392,6 +64392,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E56802FC-3B1B-4D31-8C62-9C0B3DCFEC39}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:C76"/>
   <sheetViews>
     <sheetView topLeftCell="A45" workbookViewId="0">

--- a/data/db/properties.xlsx
+++ b/data/db/properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nburmeister\Documents\_Development\AssetManagementPortal\data\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B90BDD-A0D8-4D59-9D0B-1F813CB4FDEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0AD85B-F66D-4C7D-8BA2-E4F73A8308E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27360" yWindow="2730" windowWidth="21600" windowHeight="10905" xr2:uid="{65CCAB74-0CA2-4D5F-9FC7-1AACCFC26E43}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{65CCAB74-0CA2-4D5F-9FC7-1AACCFC26E43}"/>
   </bookViews>
   <sheets>
     <sheet name="PropertyData" sheetId="1" r:id="rId1"/>
@@ -4144,9 +4144,6 @@
     <t>acquisition_date</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
@@ -4617,6 +4614,9 @@
   <si>
     <t>Associated Bank</t>
   </si>
+  <si>
+    <t>property_name</t>
+  </si>
 </sst>
 </file>
 
@@ -60075,49 +60075,49 @@
       <pane xSplit="4" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P31" sqref="P31"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="18" customWidth="1"/>
     <col min="9" max="9" width="14" style="1" customWidth="1"/>
-    <col min="10" max="10" width="43.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="1" customWidth="1"/>
-    <col min="14" max="15" width="20.33203125" style="7" customWidth="1"/>
-    <col min="16" max="16" width="20.33203125" style="12" customWidth="1"/>
-    <col min="17" max="17" width="12.44140625" style="13" customWidth="1"/>
-    <col min="18" max="18" width="27.5546875" style="10" customWidth="1"/>
-    <col min="19" max="19" width="14.33203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="35.88671875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="26.5546875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="19.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.33203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.44140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.44140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.33203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="22.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="24.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.88671875" style="19" customWidth="1"/>
-    <col min="33" max="33" width="18.33203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="43.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="1" customWidth="1"/>
+    <col min="14" max="15" width="20.28515625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="20.28515625" style="12" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" style="13" customWidth="1"/>
+    <col min="18" max="18" width="27.5703125" style="10" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="35.85546875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="26.5703125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="19.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.85546875" style="19" customWidth="1"/>
+    <col min="33" max="33" width="18.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>190</v>
       </c>
@@ -60125,10 +60125,10 @@
         <v>191</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>206</v>
+        <v>363</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>192</v>
@@ -60173,58 +60173,58 @@
         <v>205</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V1" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="W1" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="X1" s="19" t="s">
         <v>296</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="Y1" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="Z1" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="Z1" s="19" t="s">
+      <c r="AA1" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="AA1" s="19" t="s">
+      <c r="AB1" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="AB1" s="19" t="s">
+      <c r="AC1" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="AC1" s="19" t="s">
+      <c r="AD1" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="AD1" s="19" t="s">
+      <c r="AE1" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="AF1" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="AG1" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="AE1" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="AF1" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="AG1" s="19" t="s">
+      <c r="AH1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="AI1" s="19" t="s">
-        <v>306</v>
-      </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -60244,7 +60244,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I2" s="1">
         <v>43228</v>
@@ -60323,7 +60323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -60343,7 +60343,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I3" s="1">
         <v>43228</v>
@@ -60415,14 +60415,14 @@
         <v>0</v>
       </c>
       <c r="AG3" s="19">
-        <f t="shared" ref="AG3:AG66" si="0">+SUM(Y3:AF3)</f>
+        <f t="shared" ref="AG3:AG13" si="0">+SUM(Y3:AF3)</f>
         <v>0</v>
       </c>
       <c r="AI3" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -60442,7 +60442,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I4" s="1">
         <v>45246</v>
@@ -60521,7 +60521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -60541,7 +60541,7 @@
         <v>8</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I5" s="1">
         <v>45246</v>
@@ -60620,7 +60620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -60640,7 +60640,7 @@
         <v>8</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I6" s="1">
         <v>45246</v>
@@ -60719,7 +60719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -60739,7 +60739,7 @@
         <v>8</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I7" s="1">
         <v>45246</v>
@@ -60818,7 +60818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -60838,7 +60838,7 @@
         <v>124</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I8" s="1">
         <v>55318</v>
@@ -60862,7 +60862,7 @@
         <v>-1</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q8" s="9">
         <v>10</v>
@@ -60917,7 +60917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -60937,7 +60937,7 @@
         <v>64</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I9" s="1">
         <v>53207</v>
@@ -60961,7 +60961,7 @@
         <v>-1</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q9" s="9">
         <v>1</v>
@@ -61010,7 +61010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -61030,7 +61030,7 @@
         <v>64</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I10" s="1">
         <v>53221</v>
@@ -61054,7 +61054,7 @@
         <v>-1</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q10" s="9">
         <v>1</v>
@@ -61103,7 +61103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -61123,7 +61123,7 @@
         <v>19</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I11" s="1">
         <v>60803</v>
@@ -61202,7 +61202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -61222,7 +61222,7 @@
         <v>23</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I12" s="1">
         <v>41042</v>
@@ -61295,7 +61295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -61315,7 +61315,7 @@
         <v>23</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I13" s="1">
         <v>41042</v>
@@ -61388,7 +61388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -61402,7 +61402,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>180</v>
@@ -61423,7 +61423,7 @@
         <v>-1</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q14" s="9">
         <v>1</v>
@@ -61466,17 +61466,17 @@
         <v>0</v>
       </c>
       <c r="AG14" s="19">
-        <f>+SUM(Y14:AF14)</f>
+        <f t="shared" ref="AG14:AG45" si="1">+SUM(Y14:AF14)</f>
         <v>71500000</v>
       </c>
       <c r="AH14" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AI14" s="19">
         <v>163743000</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -61496,7 +61496,7 @@
         <v>54</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I15" s="1">
         <v>75214</v>
@@ -61520,7 +61520,7 @@
         <v>-1</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q15" s="9">
         <v>1</v>
@@ -61568,17 +61568,17 @@
         <v>0</v>
       </c>
       <c r="AG15" s="19">
-        <f>+SUM(Y15:AF15)</f>
+        <f t="shared" si="1"/>
         <v>32779330.879999999</v>
       </c>
       <c r="AH15" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AI15" s="19">
         <v>37800000</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -61598,7 +61598,7 @@
         <v>83</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I16" s="1">
         <v>75234</v>
@@ -61622,7 +61622,7 @@
         <v>-1</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q16" s="9">
         <v>1</v>
@@ -61631,7 +61631,7 @@
         <v>42915</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="T16" s="1">
         <v>32.902931000000002</v>
@@ -61673,17 +61673,17 @@
         <v>0</v>
       </c>
       <c r="AG16" s="19">
-        <f>+SUM(Y16:AF16)</f>
+        <f t="shared" si="1"/>
         <v>32400000</v>
       </c>
       <c r="AH16" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AI16" s="19">
         <v>55200000</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -61697,13 +61697,13 @@
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>100</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I17" s="1">
         <v>75013</v>
@@ -61727,7 +61727,7 @@
         <v>-1</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q17" s="9">
         <v>1</v>
@@ -61736,7 +61736,7 @@
         <v>43348</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="T17" s="1">
         <v>33.118155999999999</v>
@@ -61778,17 +61778,17 @@
         <v>0</v>
       </c>
       <c r="AG17" s="19">
-        <f>+SUM(Y17:AF17)</f>
+        <f t="shared" si="1"/>
         <v>29200000</v>
       </c>
       <c r="AH17" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AI17" s="19">
         <v>47000000</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -61808,7 +61808,7 @@
         <v>181</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I18" s="1">
         <v>87121</v>
@@ -61832,7 +61832,7 @@
         <v>-1</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q18" s="9">
         <v>1</v>
@@ -61880,17 +61880,17 @@
         <v>15769000</v>
       </c>
       <c r="AG18" s="19">
-        <f>+SUM(Y18:AF18)</f>
+        <f t="shared" si="1"/>
         <v>26194000</v>
       </c>
       <c r="AH18" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AI18" s="19">
         <v>43575000</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -61910,7 +61910,7 @@
         <v>98</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I19" s="1">
         <v>85281</v>
@@ -61934,7 +61934,7 @@
         <v>-1</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q19" s="9">
         <v>6</v>
@@ -61982,17 +61982,17 @@
         <v>0</v>
       </c>
       <c r="AG19" s="19">
-        <f>+SUM(Y19:AF19)</f>
+        <f t="shared" si="1"/>
         <v>25750000</v>
       </c>
       <c r="AH19" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AI19" s="19">
         <v>33329000</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -62000,19 +62000,19 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I20" s="1">
         <v>75126</v>
@@ -62036,7 +62036,7 @@
         <v>-1</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q20" s="9">
         <v>1</v>
@@ -62045,7 +62045,7 @@
         <v>43908</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="T20" s="1">
         <v>32.750933000000003</v>
@@ -62087,11 +62087,11 @@
         <v>23058734</v>
       </c>
       <c r="AG20" s="19">
-        <f>+SUM(Y20:AF20)</f>
+        <f t="shared" si="1"/>
         <v>23058734</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -62105,7 +62105,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>174</v>
@@ -62126,7 +62126,7 @@
         <v>12</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q21" s="9">
         <v>10</v>
@@ -62168,17 +62168,17 @@
         <v>0</v>
       </c>
       <c r="AG21" s="19">
-        <f>+SUM(Y21:AF21)</f>
+        <f t="shared" si="1"/>
         <v>20700000</v>
       </c>
       <c r="AH21" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AI21" s="19">
         <v>38998100</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -62198,7 +62198,7 @@
         <v>139</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I22" s="1">
         <v>55425</v>
@@ -62222,7 +62222,7 @@
         <v>-1</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q22" s="9">
         <v>9</v>
@@ -62270,14 +62270,14 @@
         <v>0</v>
       </c>
       <c r="AG22" s="19">
-        <f>+SUM(Y22:AF22)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AI22" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -62297,7 +62297,7 @@
         <v>118</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I23" s="1">
         <v>55423</v>
@@ -62321,7 +62321,7 @@
         <v>-1</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q23" s="9">
         <v>8</v>
@@ -62369,14 +62369,14 @@
         <v>0</v>
       </c>
       <c r="AG23" s="19">
-        <f>+SUM(Y23:AF23)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AI23" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -62396,7 +62396,7 @@
         <v>146</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I24" s="1">
         <v>55441</v>
@@ -62420,7 +62420,7 @@
         <v>-1</v>
       </c>
       <c r="P24" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q24" s="9">
         <v>5</v>
@@ -62468,14 +62468,14 @@
         <v>0</v>
       </c>
       <c r="AG24" s="19">
-        <f>+SUM(Y24:AF24)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AI24" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -62495,7 +62495,7 @@
         <v>179</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I25" s="1">
         <v>77389</v>
@@ -62519,7 +62519,7 @@
         <v>-1</v>
       </c>
       <c r="P25" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q25" s="9">
         <v>1</v>
@@ -62528,7 +62528,7 @@
         <v>43922</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T25" s="1">
         <v>30.091379</v>
@@ -62570,14 +62570,14 @@
         <v>15055000</v>
       </c>
       <c r="AG25" s="19">
-        <f>+SUM(Y25:AF25)</f>
+        <f t="shared" si="1"/>
         <v>20465000</v>
       </c>
       <c r="AI25" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -62597,7 +62597,7 @@
         <v>86</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I26" s="1">
         <v>15212</v>
@@ -62621,7 +62621,7 @@
         <v>-1</v>
       </c>
       <c r="P26" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q26" s="9">
         <v>11</v>
@@ -62669,17 +62669,17 @@
         <v>0</v>
       </c>
       <c r="AG26" s="19">
-        <f>+SUM(Y26:AF26)</f>
+        <f t="shared" si="1"/>
         <v>20100000</v>
       </c>
       <c r="AH26" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AI26" s="19">
         <v>40500000</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -62699,7 +62699,7 @@
         <v>89</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I27" s="1">
         <v>32606</v>
@@ -62723,7 +62723,7 @@
         <v>-1</v>
       </c>
       <c r="P27" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q27" s="9">
         <v>1</v>
@@ -62732,7 +62732,7 @@
         <v>43763</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T27" s="1">
         <v>29.68797</v>
@@ -62774,17 +62774,17 @@
         <v>0</v>
       </c>
       <c r="AG27" s="19">
-        <f>+SUM(Y27:AF27)</f>
+        <f t="shared" si="1"/>
         <v>19700000</v>
       </c>
       <c r="AH27" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AI27" s="19">
         <v>40000000</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -62804,7 +62804,7 @@
         <v>102</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I28" s="1">
         <v>33763</v>
@@ -62828,7 +62828,7 @@
         <v>-1</v>
       </c>
       <c r="P28" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q28" s="9">
         <v>1</v>
@@ -62837,7 +62837,7 @@
         <v>43640</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="T28" s="1">
         <v>28.001814</v>
@@ -62879,17 +62879,17 @@
         <v>0</v>
       </c>
       <c r="AG28" s="19">
-        <f>+SUM(Y28:AF28)</f>
+        <f t="shared" si="1"/>
         <v>18200000</v>
       </c>
       <c r="AH28" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AI28" s="19">
         <v>28312000</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -62909,7 +62909,7 @@
         <v>50</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I29" s="1">
         <v>85014</v>
@@ -62933,7 +62933,7 @@
         <v>-1</v>
       </c>
       <c r="P29" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q29" s="9">
         <v>4</v>
@@ -62981,17 +62981,17 @@
         <v>0</v>
       </c>
       <c r="AG29" s="19">
-        <f>+SUM(Y29:AF29)</f>
+        <f t="shared" si="1"/>
         <v>17250000</v>
       </c>
       <c r="AH29" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AI29" s="19">
         <v>19975000</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -63011,7 +63011,7 @@
         <v>8</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I30" s="1">
         <v>45246</v>
@@ -63083,14 +63083,14 @@
         <v>0</v>
       </c>
       <c r="AG30" s="19">
-        <f>+SUM(Y30:AF30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AI30" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -63098,7 +63098,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E31" s="1">
         <v>2</v>
@@ -63107,10 +63107,10 @@
         <v>41</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K31" s="1">
         <v>1</v>
@@ -63128,7 +63128,7 @@
         <v>5</v>
       </c>
       <c r="P31" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Q31" s="9">
         <v>10</v>
@@ -63170,17 +63170,17 @@
         <v>0</v>
       </c>
       <c r="AG31" s="19">
-        <f>+SUM(Y31:AF31)</f>
+        <f t="shared" si="1"/>
         <v>16140000</v>
       </c>
       <c r="AH31" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AI31" s="19">
         <v>25879374.989999998</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -63200,7 +63200,7 @@
         <v>37</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I32" s="1">
         <v>50266</v>
@@ -63224,7 +63224,7 @@
         <v>-1</v>
       </c>
       <c r="P32" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q32" s="9">
         <v>7</v>
@@ -63272,17 +63272,17 @@
         <v>0</v>
       </c>
       <c r="AG32" s="19">
-        <f>+SUM(Y32:AF32)</f>
+        <f t="shared" si="1"/>
         <v>15488628</v>
       </c>
       <c r="AH32" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AI32" s="19">
         <v>28175000</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -63302,7 +63302,7 @@
         <v>67</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I33" s="1">
         <v>75126</v>
@@ -63326,7 +63326,7 @@
         <v>-1</v>
       </c>
       <c r="P33" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q33" s="9">
         <v>1</v>
@@ -63335,7 +63335,7 @@
         <v>43006</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="T33" s="1">
         <v>32.753647999999998</v>
@@ -63377,17 +63377,17 @@
         <v>3555000</v>
       </c>
       <c r="AG33" s="19">
-        <f>+SUM(Y33:AF33)</f>
+        <f t="shared" si="1"/>
         <v>15000000</v>
       </c>
       <c r="AH33" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AI33" s="19">
         <v>25350000</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -63395,7 +63395,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E34" s="1">
         <v>5</v>
@@ -63407,7 +63407,7 @@
         <v>107</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I34" s="1">
         <v>53188</v>
@@ -63431,7 +63431,7 @@
         <v>-1</v>
       </c>
       <c r="P34" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q34" s="9">
         <v>1</v>
@@ -63440,7 +63440,7 @@
         <v>42765</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="T34" s="1">
         <v>43.000940999999997</v>
@@ -63482,11 +63482,11 @@
         <v>0</v>
       </c>
       <c r="AG34" s="19">
-        <f>+SUM(Y34:AF34)</f>
+        <f t="shared" si="1"/>
         <v>14650000</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -63506,7 +63506,7 @@
         <v>127</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I35" s="1">
         <v>55337</v>
@@ -63530,7 +63530,7 @@
         <v>-1</v>
       </c>
       <c r="P35" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q35" s="9">
         <v>10</v>
@@ -63578,14 +63578,14 @@
         <v>0</v>
       </c>
       <c r="AG35" s="19">
-        <f>+SUM(Y35:AF35)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AI35" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -63605,7 +63605,7 @@
         <v>3</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I36" s="1">
         <v>43217</v>
@@ -63677,14 +63677,14 @@
         <v>0</v>
       </c>
       <c r="AG36" s="19">
-        <f>+SUM(Y36:AF36)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AI36" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -63704,7 +63704,7 @@
         <v>76</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I37" s="1">
         <v>75051</v>
@@ -63728,7 +63728,7 @@
         <v>-1</v>
       </c>
       <c r="P37" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q37" s="9">
         <v>1</v>
@@ -63737,7 +63737,7 @@
         <v>43221</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="T37" s="1">
         <v>32.733854000000001</v>
@@ -63779,17 +63779,17 @@
         <v>0</v>
       </c>
       <c r="AG37" s="19">
-        <f>+SUM(Y37:AF37)</f>
+        <f t="shared" si="1"/>
         <v>14600000</v>
       </c>
       <c r="AH37" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AI37" s="19">
         <v>18995000</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -63809,7 +63809,7 @@
         <v>59</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I38" s="1">
         <v>77505</v>
@@ -63833,7 +63833,7 @@
         <v>-1</v>
       </c>
       <c r="P38" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q38" s="9">
         <v>1</v>
@@ -63842,7 +63842,7 @@
         <v>43417</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="T38" s="1">
         <v>29.638172999999998</v>
@@ -63884,17 +63884,17 @@
         <v>0</v>
       </c>
       <c r="AG38" s="19">
-        <f>+SUM(Y38:AF38)</f>
+        <f t="shared" si="1"/>
         <v>14150000</v>
       </c>
       <c r="AH38" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AI38" s="19">
         <v>23120000</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -63914,7 +63914,7 @@
         <v>54</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I39" s="1">
         <v>75252</v>
@@ -63938,7 +63938,7 @@
         <v>-1</v>
       </c>
       <c r="P39" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q39" s="9">
         <v>1</v>
@@ -63947,7 +63947,7 @@
         <v>42491</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="T39" s="1">
         <v>32.989317</v>
@@ -63989,17 +63989,17 @@
         <v>0</v>
       </c>
       <c r="AG39" s="19">
-        <f>+SUM(Y39:AF39)</f>
+        <f t="shared" si="1"/>
         <v>13500000</v>
       </c>
       <c r="AH39" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AI39" s="19">
         <v>27580524.309999999</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -64019,7 +64019,7 @@
         <v>79</v>
       </c>
       <c r="H40" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I40" s="1">
         <v>64083</v>
@@ -64043,7 +64043,7 @@
         <v>-1</v>
       </c>
       <c r="P40" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q40" s="9">
         <v>6</v>
@@ -64091,17 +64091,17 @@
         <v>0</v>
       </c>
       <c r="AG40" s="19">
-        <f>+SUM(Y40:AF40)</f>
+        <f t="shared" si="1"/>
         <v>13360000</v>
       </c>
       <c r="AH40" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AI40" s="19">
         <v>24518000</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -64121,7 +64121,7 @@
         <v>43</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I41" s="1">
         <v>19468</v>
@@ -64145,7 +64145,7 @@
         <v>-1</v>
       </c>
       <c r="P41" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q41" s="9">
         <v>3</v>
@@ -64193,17 +64193,17 @@
         <v>0</v>
       </c>
       <c r="AG41" s="19">
-        <f>+SUM(Y41:AF41)</f>
+        <f t="shared" si="1"/>
         <v>13098000</v>
       </c>
       <c r="AH41" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AI41" s="19">
         <v>29002000</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -64223,7 +64223,7 @@
         <v>92</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I42" s="1">
         <v>30047</v>
@@ -64247,7 +64247,7 @@
         <v>-1</v>
       </c>
       <c r="P42" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q42" s="9">
         <v>2</v>
@@ -64295,17 +64295,17 @@
         <v>0</v>
       </c>
       <c r="AG42" s="19">
-        <f>+SUM(Y42:AF42)</f>
+        <f t="shared" si="1"/>
         <v>12796000</v>
       </c>
       <c r="AH42" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AI42" s="19">
         <v>21657000</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -64325,7 +64325,7 @@
         <v>57</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I43" s="1">
         <v>76132</v>
@@ -64349,7 +64349,7 @@
         <v>-1</v>
       </c>
       <c r="P43" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q43" s="9">
         <v>1</v>
@@ -64358,7 +64358,7 @@
         <v>43529</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="T43" s="1">
         <v>32.989317</v>
@@ -64400,17 +64400,17 @@
         <v>0</v>
       </c>
       <c r="AG43" s="19">
-        <f>+SUM(Y43:AF43)</f>
+        <f t="shared" si="1"/>
         <v>12550000</v>
       </c>
       <c r="AH43" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AI43" s="19">
         <v>17387000</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -64430,7 +64430,7 @@
         <v>47</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I44" s="1">
         <v>33610</v>
@@ -64454,7 +64454,7 @@
         <v>15</v>
       </c>
       <c r="P44" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q44" s="9">
         <v>1</v>
@@ -64502,17 +64502,17 @@
         <v>0</v>
       </c>
       <c r="AG44" s="19">
-        <f>+SUM(Y44:AF44)</f>
+        <f t="shared" si="1"/>
         <v>11900000</v>
       </c>
       <c r="AH44" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AI44" s="19">
         <v>21300000</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -64532,7 +64532,7 @@
         <v>70</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I45" s="1">
         <v>30087</v>
@@ -64556,7 +64556,7 @@
         <v>-1</v>
       </c>
       <c r="P45" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q45" s="9">
         <v>3</v>
@@ -64604,17 +64604,17 @@
         <v>0</v>
       </c>
       <c r="AG45" s="19">
-        <f>+SUM(Y45:AF45)</f>
+        <f t="shared" si="1"/>
         <v>11050000</v>
       </c>
       <c r="AH45" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AI45" s="19">
         <v>24950000</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -64622,19 +64622,19 @@
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H46" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I46" s="1">
         <v>53213</v>
@@ -64658,7 +64658,7 @@
         <v>-1</v>
       </c>
       <c r="P46" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Q46" s="13">
         <v>1</v>
@@ -64667,7 +64667,7 @@
         <v>43556</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="T46" s="1">
         <v>43.041727999999999</v>
@@ -64709,11 +64709,11 @@
         <v>10000000</v>
       </c>
       <c r="AG46" s="19">
-        <f>+SUM(Y46:AF46)</f>
+        <f t="shared" ref="AG46:AG77" si="2">+SUM(Y46:AF46)</f>
         <v>10000000</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -64733,7 +64733,7 @@
         <v>146</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I47" s="1">
         <v>55441</v>
@@ -64757,7 +64757,7 @@
         <v>-1</v>
       </c>
       <c r="P47" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q47" s="9">
         <v>5</v>
@@ -64805,14 +64805,14 @@
         <v>0</v>
       </c>
       <c r="AG47" s="19">
-        <f>+SUM(Y47:AF47)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI47" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -64820,19 +64820,19 @@
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H48" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I48" s="1">
         <v>53402</v>
@@ -64856,7 +64856,7 @@
         <v>-1</v>
       </c>
       <c r="P48" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q48" s="13">
         <v>1</v>
@@ -64865,7 +64865,7 @@
         <v>43874</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="T48" s="1">
         <v>42.765991</v>
@@ -64907,11 +64907,11 @@
         <v>8179995.3200000003</v>
       </c>
       <c r="AG48" s="19">
-        <f>+SUM(Y48:AF48)</f>
+        <f t="shared" si="2"/>
         <v>8179995.3200000003</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
@@ -64928,7 +64928,7 @@
         <v>41</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>41</v>
@@ -64949,7 +64949,7 @@
         <v>7</v>
       </c>
       <c r="P49" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q49" s="9">
         <v>8</v>
@@ -64991,17 +64991,17 @@
         <v>0</v>
       </c>
       <c r="AG49" s="19">
-        <f>+SUM(Y49:AF49)</f>
+        <f t="shared" si="2"/>
         <v>7720000</v>
       </c>
       <c r="AH49" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AI49" s="19">
         <v>7578250</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -65009,16 +65009,16 @@
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E50" s="1">
         <v>5</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H50" s="17">
         <v>55</v>
@@ -65054,7 +65054,7 @@
         <v>43556</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="T50" s="1">
         <v>42.988776000000001</v>
@@ -65096,14 +65096,14 @@
         <v>7500000</v>
       </c>
       <c r="AG50" s="19">
-        <f>+SUM(Y50:AF50)</f>
+        <f t="shared" si="2"/>
         <v>7500000</v>
       </c>
       <c r="AI50" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -65123,7 +65123,7 @@
         <v>130</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I51" s="1">
         <v>55344</v>
@@ -65147,7 +65147,7 @@
         <v>-1</v>
       </c>
       <c r="P51" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q51" s="9">
         <v>10</v>
@@ -65195,14 +65195,14 @@
         <v>0</v>
       </c>
       <c r="AG51" s="19">
-        <f>+SUM(Y51:AF51)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI51" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -65219,7 +65219,7 @@
         <v>41</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>41</v>
@@ -65240,7 +65240,7 @@
         <v>3</v>
       </c>
       <c r="P52" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q52" s="9">
         <v>9</v>
@@ -65282,17 +65282,17 @@
         <v>0</v>
       </c>
       <c r="AG52" s="19">
-        <f>+SUM(Y52:AF52)</f>
+        <f t="shared" si="2"/>
         <v>6555945.9800000004</v>
       </c>
       <c r="AH52" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AI52" s="19">
         <v>5094679</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -65312,7 +65312,7 @@
         <v>130</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I53" s="1">
         <v>55344</v>
@@ -65336,7 +65336,7 @@
         <v>-1</v>
       </c>
       <c r="P53" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q53" s="9">
         <v>10</v>
@@ -65384,14 +65384,14 @@
         <v>0</v>
       </c>
       <c r="AG53" s="19">
-        <f>+SUM(Y53:AF53)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI53" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -65411,7 +65411,7 @@
         <v>63</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I54" s="1">
         <v>53233</v>
@@ -65435,7 +65435,7 @@
         <v>-1</v>
       </c>
       <c r="P54" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q54" s="9">
         <v>1</v>
@@ -65444,7 +65444,7 @@
         <v>43545</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="T54" s="1">
         <v>43.045977000000001</v>
@@ -65486,17 +65486,17 @@
         <v>0</v>
       </c>
       <c r="AG54" s="19">
-        <f>+SUM(Y54:AF54)</f>
+        <f t="shared" si="2"/>
         <v>6087942</v>
       </c>
       <c r="AH54" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AI54" s="19">
         <v>6250000</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -65513,7 +65513,7 @@
         <v>64</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>64</v>
@@ -65534,7 +65534,7 @@
         <v>3</v>
       </c>
       <c r="P55" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q55" s="9">
         <v>1</v>
@@ -65582,17 +65582,17 @@
         <v>0</v>
       </c>
       <c r="AG55" s="19">
-        <f>+SUM(Y55:AF55)</f>
+        <f t="shared" si="2"/>
         <v>4720000</v>
       </c>
       <c r="AH55" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AI55" s="19">
         <v>3709430</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
@@ -65609,7 +65609,7 @@
         <v>41</v>
       </c>
       <c r="H56" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>41</v>
@@ -65630,7 +65630,7 @@
         <v>7</v>
       </c>
       <c r="P56" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q56" s="9">
         <v>5</v>
@@ -65678,17 +65678,17 @@
         <v>0</v>
       </c>
       <c r="AG56" s="19">
-        <f>+SUM(Y56:AF56)</f>
+        <f t="shared" si="2"/>
         <v>3950000</v>
       </c>
       <c r="AH56" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AI56" s="19">
         <v>6115285</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -65696,7 +65696,7 @@
         <v>0</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>165</v>
@@ -65711,7 +65711,7 @@
         <v>60</v>
       </c>
       <c r="H57" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I57" s="1">
         <v>77090</v>
@@ -65735,7 +65735,7 @@
         <v>-1</v>
       </c>
       <c r="P57" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q57" s="9">
         <v>1</v>
@@ -65744,7 +65744,7 @@
         <v>43817</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="T57" s="1">
         <v>30.027327</v>
@@ -65786,17 +65786,17 @@
         <v>0</v>
       </c>
       <c r="AG57" s="19">
-        <f>+SUM(Y57:AF57)</f>
+        <f t="shared" si="2"/>
         <v>9705882.3529411759</v>
       </c>
       <c r="AH57" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AI57" s="19">
         <v>24336000</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
@@ -65804,7 +65804,7 @@
         <v>0</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>163</v>
@@ -65819,7 +65819,7 @@
         <v>60</v>
       </c>
       <c r="H58" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I58" s="1">
         <v>77066</v>
@@ -65843,7 +65843,7 @@
         <v>-1</v>
       </c>
       <c r="P58" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q58" s="9">
         <v>1</v>
@@ -65852,7 +65852,7 @@
         <v>43817</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="T58" s="1">
         <v>29.981292</v>
@@ -65894,17 +65894,17 @@
         <v>0</v>
       </c>
       <c r="AG58" s="19">
-        <f>+SUM(Y58:AF58)</f>
+        <f t="shared" si="2"/>
         <v>7683823.5294117648</v>
       </c>
       <c r="AH58" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AI58" s="19">
         <v>18000000</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
@@ -65912,7 +65912,7 @@
         <v>0</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>157</v>
@@ -65927,7 +65927,7 @@
         <v>154</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I59" s="1">
         <v>74136</v>
@@ -65951,7 +65951,7 @@
         <v>-1</v>
       </c>
       <c r="P59" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q59" s="9">
         <v>1</v>
@@ -65960,7 +65960,7 @@
         <v>43817</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T59" s="1">
         <v>36.065963000000004</v>
@@ -66002,17 +66002,17 @@
         <v>0</v>
       </c>
       <c r="AG59" s="19">
-        <f>+SUM(Y59:AF59)</f>
+        <f t="shared" si="2"/>
         <v>2992647.0588235292</v>
       </c>
       <c r="AH59" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AI59" s="19">
         <v>6162000</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
@@ -66020,7 +66020,7 @@
         <v>0</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>149</v>
@@ -66035,7 +66035,7 @@
         <v>151</v>
       </c>
       <c r="H60" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I60" s="1">
         <v>73120</v>
@@ -66059,7 +66059,7 @@
         <v>-1</v>
       </c>
       <c r="P60" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q60" s="9">
         <v>1</v>
@@ -66068,7 +66068,7 @@
         <v>43817</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="T60" s="1">
         <v>35.597188000000003</v>
@@ -66110,17 +66110,17 @@
         <v>0</v>
       </c>
       <c r="AG60" s="19">
-        <f>+SUM(Y60:AF60)</f>
+        <f t="shared" si="2"/>
         <v>10838235.294117648</v>
       </c>
       <c r="AH60" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AI60" s="19">
         <v>24535000</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
@@ -66128,7 +66128,7 @@
         <v>0</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>152</v>
@@ -66143,7 +66143,7 @@
         <v>154</v>
       </c>
       <c r="H61" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I61" s="1">
         <v>74132</v>
@@ -66167,7 +66167,7 @@
         <v>-1</v>
       </c>
       <c r="P61" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q61" s="9">
         <v>1</v>
@@ -66176,7 +66176,7 @@
         <v>43817</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="T61" s="1">
         <v>36.071460999999999</v>
@@ -66218,17 +66218,17 @@
         <v>0</v>
       </c>
       <c r="AG61" s="19">
-        <f>+SUM(Y61:AF61)</f>
+        <f t="shared" si="2"/>
         <v>5985294.1176470583</v>
       </c>
       <c r="AH61" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AI61" s="19">
         <v>13486000</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
@@ -66236,7 +66236,7 @@
         <v>0</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>155</v>
@@ -66251,7 +66251,7 @@
         <v>151</v>
       </c>
       <c r="H62" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I62" s="1">
         <v>73114</v>
@@ -66275,7 +66275,7 @@
         <v>-1</v>
       </c>
       <c r="P62" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q62" s="9">
         <v>1</v>
@@ -66284,7 +66284,7 @@
         <v>43817</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T62" s="1">
         <v>35.581014000000003</v>
@@ -66326,17 +66326,17 @@
         <v>0</v>
       </c>
       <c r="AG62" s="19">
-        <f>+SUM(Y62:AF62)</f>
+        <f t="shared" si="2"/>
         <v>3720588.2352941176</v>
       </c>
       <c r="AH62" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AI62" s="19">
         <v>8408000</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
@@ -66344,7 +66344,7 @@
         <v>0</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>167</v>
@@ -66359,7 +66359,7 @@
         <v>60</v>
       </c>
       <c r="H63" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I63" s="1">
         <v>77079</v>
@@ -66383,7 +66383,7 @@
         <v>-1</v>
       </c>
       <c r="P63" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q63" s="9">
         <v>1</v>
@@ -66392,7 +66392,7 @@
         <v>43817</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="T63" s="1">
         <v>29.777594000000001</v>
@@ -66434,17 +66434,17 @@
         <v>0</v>
       </c>
       <c r="AG63" s="19">
-        <f>+SUM(Y63:AF63)</f>
+        <f t="shared" si="2"/>
         <v>4852941.176470588</v>
       </c>
       <c r="AH63" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AI63" s="19">
         <v>11330000</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -66452,7 +66452,7 @@
         <v>0</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>159</v>
@@ -66467,7 +66467,7 @@
         <v>151</v>
       </c>
       <c r="H64" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I64" s="1">
         <v>73142</v>
@@ -66491,7 +66491,7 @@
         <v>-1</v>
       </c>
       <c r="P64" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q64" s="9">
         <v>1</v>
@@ -66500,7 +66500,7 @@
         <v>43817</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T64" s="1">
         <v>35.595573000000002</v>
@@ -66542,17 +66542,17 @@
         <v>0</v>
       </c>
       <c r="AG64" s="19">
-        <f>+SUM(Y64:AF64)</f>
+        <f t="shared" si="2"/>
         <v>2102941.1764705884</v>
       </c>
       <c r="AH64" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AI64" s="19">
         <v>4859000</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>0</v>
       </c>
@@ -66560,7 +66560,7 @@
         <v>0</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>161</v>
@@ -66575,7 +66575,7 @@
         <v>60</v>
       </c>
       <c r="H65" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I65" s="1">
         <v>77077</v>
@@ -66599,7 +66599,7 @@
         <v>-1</v>
       </c>
       <c r="P65" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q65" s="9">
         <v>1</v>
@@ -66608,7 +66608,7 @@
         <v>43817</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T65" s="1">
         <v>29.738977999999999</v>
@@ -66650,17 +66650,17 @@
         <v>0</v>
       </c>
       <c r="AG65" s="19">
-        <f>+SUM(Y65:AF65)</f>
+        <f t="shared" si="2"/>
         <v>10352941.176470589</v>
       </c>
       <c r="AH65" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AI65" s="19">
         <v>22470000</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
@@ -66680,7 +66680,7 @@
         <v>121</v>
       </c>
       <c r="H66" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I66" s="1">
         <v>55369</v>
@@ -66704,7 +66704,7 @@
         <v>-1</v>
       </c>
       <c r="P66" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q66" s="9">
         <v>8</v>
@@ -66752,14 +66752,14 @@
         <v>0</v>
       </c>
       <c r="AG66" s="19">
-        <f>+SUM(Y66:AF66)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI66" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
@@ -66779,7 +66779,7 @@
         <v>40</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I67" s="1">
         <v>55427</v>
@@ -66803,7 +66803,7 @@
         <v>1</v>
       </c>
       <c r="P67" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q67" s="9">
         <v>12</v>
@@ -66845,17 +66845,17 @@
         <v>0</v>
       </c>
       <c r="AG67" s="19">
-        <f>+SUM(Y67:AF67)</f>
+        <f t="shared" si="2"/>
         <v>3683000</v>
       </c>
       <c r="AH67" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AI67" s="19">
         <v>5309009</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
@@ -66878,7 +66878,7 @@
         <v>151</v>
       </c>
       <c r="H68" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I68" s="1">
         <v>73112</v>
@@ -66902,7 +66902,7 @@
         <v>-1</v>
       </c>
       <c r="P68" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q68" s="9">
         <v>1</v>
@@ -66911,7 +66911,7 @@
         <v>43817</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T68" s="1">
         <v>35.527355</v>
@@ -66953,17 +66953,17 @@
         <v>0</v>
       </c>
       <c r="AG68" s="19">
-        <f>+SUM(Y68:AF68)</f>
+        <f t="shared" si="2"/>
         <v>13264705.882352943</v>
       </c>
       <c r="AH68" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AI68" s="19">
         <v>30157000</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
@@ -66983,7 +66983,7 @@
         <v>139</v>
       </c>
       <c r="H69" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I69" s="1">
         <v>55431</v>
@@ -67007,7 +67007,7 @@
         <v>1</v>
       </c>
       <c r="P69" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q69" s="9">
         <v>9</v>
@@ -67055,17 +67055,17 @@
         <v>0</v>
       </c>
       <c r="AG69" s="19">
-        <f>+SUM(Y69:AF69)</f>
+        <f t="shared" si="2"/>
         <v>3250000</v>
       </c>
       <c r="AH69" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AI69" s="19">
         <v>3900000</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
@@ -67073,19 +67073,19 @@
         <v>1</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E70" s="1">
         <v>1</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>107</v>
       </c>
       <c r="H70" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I70" s="1">
         <v>53186</v>
@@ -67109,7 +67109,7 @@
         <v>-1</v>
       </c>
       <c r="P70" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q70" s="13">
         <v>1</v>
@@ -67118,7 +67118,7 @@
         <v>43908</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="T70" s="1">
         <v>43.012256999999998</v>
@@ -67160,11 +67160,11 @@
         <v>3056134.61</v>
       </c>
       <c r="AG70" s="19">
-        <f>+SUM(Y70:AF70)</f>
+        <f t="shared" si="2"/>
         <v>3056134.61</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
@@ -67172,25 +67172,25 @@
         <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E71" s="1">
         <v>1</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H71" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I71" s="1">
         <v>76051</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K71" s="1">
         <v>2</v>
@@ -67217,7 +67217,7 @@
         <v>36972</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="T71" s="1">
         <v>32.957152000000001</v>
@@ -67259,11 +67259,11 @@
         <v>0</v>
       </c>
       <c r="AG71" s="19">
-        <f>+SUM(Y71:AF71)</f>
+        <f t="shared" si="2"/>
         <v>2850000</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
@@ -67283,7 +67283,7 @@
         <v>135</v>
       </c>
       <c r="H72" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I72" s="1">
         <v>55379</v>
@@ -67307,7 +67307,7 @@
         <v>-1</v>
       </c>
       <c r="P72" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q72" s="9">
         <v>10</v>
@@ -67355,14 +67355,14 @@
         <v>0</v>
       </c>
       <c r="AG72" s="19">
-        <f>+SUM(Y72:AF72)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI72" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -67382,7 +67382,7 @@
         <v>139</v>
       </c>
       <c r="H73" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I73" s="1">
         <v>55437</v>
@@ -67406,7 +67406,7 @@
         <v>-1</v>
       </c>
       <c r="P73" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q73" s="9">
         <v>9</v>
@@ -67454,14 +67454,14 @@
         <v>0</v>
       </c>
       <c r="AG73" s="19">
-        <f>+SUM(Y73:AF73)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI73" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
@@ -67481,7 +67481,7 @@
         <v>64</v>
       </c>
       <c r="H74" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I74" s="1">
         <v>53207</v>
@@ -67505,7 +67505,7 @@
         <v>-1</v>
       </c>
       <c r="P74" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q74" s="9">
         <v>1</v>
@@ -67553,14 +67553,14 @@
         <v>0</v>
       </c>
       <c r="AG74" s="19">
-        <f>+SUM(Y74:AF74)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI74" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>0</v>
       </c>
@@ -67580,7 +67580,7 @@
         <v>41</v>
       </c>
       <c r="H75" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I75" s="1">
         <v>55404</v>
@@ -67604,7 +67604,7 @@
         <v>1</v>
       </c>
       <c r="P75" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q75" s="9">
         <v>8</v>
@@ -67646,14 +67646,14 @@
         <v>0</v>
       </c>
       <c r="AG75" s="19">
-        <f>+SUM(Y75:AF75)</f>
+        <f t="shared" si="2"/>
         <v>2500000</v>
       </c>
       <c r="AI75" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
@@ -67673,7 +67673,7 @@
         <v>3</v>
       </c>
       <c r="H76" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I76" s="1">
         <v>43228</v>
@@ -67745,14 +67745,14 @@
         <v>0</v>
       </c>
       <c r="AG76" s="19">
-        <f>+SUM(Y76:AF76)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI76" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
@@ -67763,7 +67763,7 @@
         <v>186</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E77" s="1">
         <v>5</v>
@@ -67772,10 +67772,10 @@
         <v>55</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H77" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I77" s="1">
         <v>55430</v>
@@ -67799,7 +67799,7 @@
         <v>1</v>
       </c>
       <c r="P77" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q77" s="9">
         <v>8</v>
@@ -67847,17 +67847,17 @@
         <v>0</v>
       </c>
       <c r="AG77" s="19">
-        <f>+SUM(Y77:AF77)</f>
+        <f t="shared" si="2"/>
         <v>2418931</v>
       </c>
       <c r="AH77" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AI77" s="19">
         <v>5282430</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
@@ -67871,13 +67871,13 @@
         <v>9</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>136</v>
       </c>
       <c r="H78" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I78" s="1">
         <v>53130</v>
@@ -67901,7 +67901,7 @@
         <v>-1</v>
       </c>
       <c r="P78" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q78" s="9">
         <v>1</v>
@@ -67949,11 +67949,11 @@
         <v>0</v>
       </c>
       <c r="AG78" s="19">
-        <f>+SUM(Y78:AF78)</f>
+        <f t="shared" ref="AG78:AG109" si="3">+SUM(Y78:AF78)</f>
         <v>2200001</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>0</v>
       </c>
@@ -67973,7 +67973,7 @@
         <v>95</v>
       </c>
       <c r="H79" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I79" s="1">
         <v>55112</v>
@@ -67997,7 +67997,7 @@
         <v>2</v>
       </c>
       <c r="P79" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q79" s="9">
         <v>5</v>
@@ -68045,17 +68045,17 @@
         <v>0</v>
       </c>
       <c r="AG79" s="19">
-        <f>+SUM(Y79:AF79)</f>
+        <f t="shared" si="3"/>
         <v>2154904</v>
       </c>
       <c r="AH79" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AI79" s="19">
         <v>3487500</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>0</v>
       </c>
@@ -68075,7 +68075,7 @@
         <v>33</v>
       </c>
       <c r="H80" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I80" s="1">
         <v>60173</v>
@@ -68099,7 +68099,7 @@
         <v>1</v>
       </c>
       <c r="P80" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q80" s="9">
         <v>1</v>
@@ -68147,17 +68147,17 @@
         <v>0</v>
       </c>
       <c r="AG80" s="19">
-        <f>+SUM(Y80:AF80)</f>
+        <f t="shared" si="3"/>
         <v>1900000</v>
       </c>
       <c r="AH80" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AI80" s="19">
         <v>2179345</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>0</v>
       </c>
@@ -68165,22 +68165,22 @@
         <v>1</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E81" s="1">
         <v>1</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H81" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I81" s="1">
         <v>53151</v>
@@ -68204,7 +68204,7 @@
         <v>-1</v>
       </c>
       <c r="P81" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Q81" s="13">
         <v>1</v>
@@ -68252,11 +68252,11 @@
         <v>1693242.59</v>
       </c>
       <c r="AG81" s="19">
-        <f>+SUM(Y81:AF81)</f>
+        <f t="shared" si="3"/>
         <v>1693242.59</v>
       </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>0</v>
       </c>
@@ -68276,7 +68276,7 @@
         <v>105</v>
       </c>
       <c r="H82" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I82" s="1">
         <v>53029</v>
@@ -68300,7 +68300,7 @@
         <v>-1</v>
       </c>
       <c r="P82" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q82" s="9">
         <v>1</v>
@@ -68348,14 +68348,14 @@
         <v>0</v>
       </c>
       <c r="AG82" s="19">
-        <f>+SUM(Y82:AF82)</f>
+        <f t="shared" si="3"/>
         <v>870699</v>
       </c>
       <c r="AI82" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>0</v>
       </c>
@@ -68363,25 +68363,25 @@
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E83" s="1">
         <v>1</v>
       </c>
       <c r="F83" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G83" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="G83" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="H83" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I83" s="1">
         <v>75087</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K83" s="1">
         <v>2</v>
@@ -68408,7 +68408,7 @@
         <v>33938</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="T83" s="1">
         <v>32.913938000000002</v>
@@ -68450,11 +68450,11 @@
         <v>0</v>
       </c>
       <c r="AG83" s="19">
-        <f>+SUM(Y83:AF83)</f>
+        <f t="shared" si="3"/>
         <v>825000</v>
       </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
@@ -68462,25 +68462,25 @@
         <v>1</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E84" s="1">
         <v>1</v>
       </c>
       <c r="F84" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G84" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="G84" s="1" t="s">
-        <v>353</v>
-      </c>
       <c r="H84" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I84" s="1">
         <v>75043</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K84" s="1">
         <v>2</v>
@@ -68507,7 +68507,7 @@
         <v>33324</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="T84" s="1">
         <v>32.848539000000002</v>
@@ -68549,28 +68549,28 @@
         <v>0</v>
       </c>
       <c r="AG84" s="19">
-        <f>+SUM(Y84:AF84)</f>
+        <f t="shared" si="3"/>
         <v>731616</v>
       </c>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B85" s="16">
         <v>1</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E85" s="1">
         <v>1</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H85" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M85" s="1">
         <v>0</v>
@@ -68579,7 +68579,7 @@
         <v>0</v>
       </c>
       <c r="P85" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="R85" s="10">
         <v>41791</v>
@@ -68618,7 +68618,7 @@
         <v>0</v>
       </c>
       <c r="AG85" s="19">
-        <f>+SUM(Y85:AF85)</f>
+        <f t="shared" si="3"/>
         <v>600000</v>
       </c>
     </row>
@@ -68641,7 +68641,7 @@
       <selection sqref="A1:A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/db/properties.xlsx
+++ b/data/db/properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nburmeister\Documents\_Development\AssetManagementPortal\data\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0AD85B-F66D-4C7D-8BA2-E4F73A8308E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181B677F-FA64-461A-B1EC-A5750AD3AC74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{65CCAB74-0CA2-4D5F-9FC7-1AACCFC26E43}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{65CCAB74-0CA2-4D5F-9FC7-1AACCFC26E43}"/>
   </bookViews>
   <sheets>
     <sheet name="PropertyData" sheetId="1" r:id="rId1"/>
@@ -4492,9 +4492,6 @@
     <t>mlg_historical_equity</t>
   </si>
   <si>
-    <t>managed_account</t>
-  </si>
-  <si>
     <t>Gateway Pines</t>
   </si>
   <si>
@@ -4616,6 +4613,9 @@
   </si>
   <si>
     <t>property_name</t>
+  </si>
+  <si>
+    <t>managed_account_equity</t>
   </si>
 </sst>
 </file>
@@ -60072,10 +60072,10 @@
   <dimension ref="A1:AI85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60125,7 +60125,7 @@
         <v>191</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>258</v>
@@ -60212,7 +60212,7 @@
         <v>321</v>
       </c>
       <c r="AF1" s="19" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="AG1" s="19" t="s">
         <v>303</v>
@@ -62000,13 +62000,13 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>67</v>
@@ -62036,7 +62036,7 @@
         <v>-1</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q20" s="9">
         <v>1</v>
@@ -62045,7 +62045,7 @@
         <v>43908</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="T20" s="1">
         <v>32.750933000000003</v>
@@ -64622,16 +64622,16 @@
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H46" s="20" t="s">
         <v>218</v>
@@ -64658,7 +64658,7 @@
         <v>-1</v>
       </c>
       <c r="P46" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q46" s="13">
         <v>1</v>
@@ -64667,7 +64667,7 @@
         <v>43556</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="T46" s="1">
         <v>43.041727999999999</v>
@@ -64820,16 +64820,16 @@
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H48" s="20" t="s">
         <v>218</v>
@@ -64856,7 +64856,7 @@
         <v>-1</v>
       </c>
       <c r="P48" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q48" s="13">
         <v>1</v>
@@ -64865,7 +64865,7 @@
         <v>43874</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="T48" s="1">
         <v>42.765991</v>
@@ -67073,13 +67073,13 @@
         <v>1</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E70" s="1">
         <v>1</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>107</v>
@@ -67109,7 +67109,7 @@
         <v>-1</v>
       </c>
       <c r="P70" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q70" s="13">
         <v>1</v>
@@ -67118,7 +67118,7 @@
         <v>43908</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="T70" s="1">
         <v>43.012256999999998</v>
@@ -67172,16 +67172,16 @@
         <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E71" s="1">
         <v>1</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H71" s="20" t="s">
         <v>217</v>
@@ -67190,7 +67190,7 @@
         <v>76051</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K71" s="1">
         <v>2</v>
@@ -67217,7 +67217,7 @@
         <v>36972</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="T71" s="1">
         <v>32.957152000000001</v>
@@ -67763,7 +67763,7 @@
         <v>186</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E77" s="1">
         <v>5</v>
@@ -67949,7 +67949,7 @@
         <v>0</v>
       </c>
       <c r="AG78" s="19">
-        <f t="shared" ref="AG78:AG109" si="3">+SUM(Y78:AF78)</f>
+        <f t="shared" ref="AG78:AG85" si="3">+SUM(Y78:AF78)</f>
         <v>2200001</v>
       </c>
     </row>
@@ -68049,7 +68049,7 @@
         <v>2154904</v>
       </c>
       <c r="AH79" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AI79" s="19">
         <v>3487500</v>
@@ -68165,16 +68165,16 @@
         <v>1</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E81" s="1">
         <v>1</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>222</v>
@@ -68204,7 +68204,7 @@
         <v>-1</v>
       </c>
       <c r="P81" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Q81" s="13">
         <v>1</v>
@@ -68363,16 +68363,16 @@
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E83" s="1">
         <v>1</v>
       </c>
       <c r="F83" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G83" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="H83" s="20" t="s">
         <v>217</v>
@@ -68381,7 +68381,7 @@
         <v>75087</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K83" s="1">
         <v>2</v>
@@ -68408,7 +68408,7 @@
         <v>33938</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="T83" s="1">
         <v>32.913938000000002</v>
@@ -68462,16 +68462,16 @@
         <v>1</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E84" s="1">
         <v>1</v>
       </c>
       <c r="F84" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G84" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="H84" s="20" t="s">
         <v>217</v>
@@ -68480,7 +68480,7 @@
         <v>75043</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K84" s="1">
         <v>2</v>
@@ -68507,7 +68507,7 @@
         <v>33324</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="T84" s="1">
         <v>32.848539000000002</v>
@@ -68555,19 +68555,19 @@
     </row>
     <row r="85" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B85" s="16">
         <v>1</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E85" s="1">
         <v>1</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H85" s="20" t="s">
         <v>218</v>
@@ -68579,7 +68579,7 @@
         <v>0</v>
       </c>
       <c r="P85" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R85" s="10">
         <v>41791</v>

--- a/data/db/properties.xlsx
+++ b/data/db/properties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nburmeister\Documents\_Development\AssetManagementPortal\data\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181B677F-FA64-461A-B1EC-A5750AD3AC74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9968646F-04C7-4F10-8255-4A81FCE20DB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{65CCAB74-0CA2-4D5F-9FC7-1AACCFC26E43}"/>
   </bookViews>
@@ -60071,53 +60071,53 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AI85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF2" sqref="AF2"/>
+      <selection pane="bottomRight" activeCell="J88" sqref="J88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" style="18" customWidth="1"/>
     <col min="9" max="9" width="14" style="1" customWidth="1"/>
-    <col min="10" max="10" width="43.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="1" customWidth="1"/>
-    <col min="14" max="15" width="20.28515625" style="7" customWidth="1"/>
-    <col min="16" max="16" width="20.28515625" style="12" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" style="13" customWidth="1"/>
-    <col min="18" max="18" width="27.5703125" style="10" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="35.85546875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="26.5703125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="19.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="22.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="24.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.85546875" style="19" customWidth="1"/>
-    <col min="33" max="33" width="18.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="8.85546875" style="1"/>
+    <col min="10" max="10" width="43.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="1" customWidth="1"/>
+    <col min="14" max="15" width="20.33203125" style="7" customWidth="1"/>
+    <col min="16" max="16" width="20.33203125" style="12" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" style="13" customWidth="1"/>
+    <col min="18" max="18" width="27.5546875" style="10" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="35.88671875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="26.5546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="19.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.88671875" style="19" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.88671875" style="19" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.88671875" style="19" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.88671875" style="19" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.88671875" style="19" customWidth="1"/>
+    <col min="33" max="33" width="18.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.88671875" style="19" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>190</v>
       </c>
@@ -60224,7 +60224,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -60323,7 +60323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -60422,7 +60422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -60521,7 +60521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -60620,7 +60620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -60719,7 +60719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -60818,7 +60818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -60917,7 +60917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -61010,7 +61010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -61103,7 +61103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -61202,7 +61202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -61295,7 +61295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -61388,7 +61388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -61476,7 +61476,7 @@
         <v>163743000</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -61578,7 +61578,7 @@
         <v>37800000</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -61683,7 +61683,7 @@
         <v>55200000</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -61788,7 +61788,7 @@
         <v>47000000</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -61890,7 +61890,7 @@
         <v>43575000</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -61992,7 +61992,7 @@
         <v>33329000</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -62003,7 +62003,7 @@
         <v>322</v>
       </c>
       <c r="E20" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>323</v>
@@ -62091,7 +62091,7 @@
         <v>23058734</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -62178,7 +62178,7 @@
         <v>38998100</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -62277,7 +62277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -62376,7 +62376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -62475,7 +62475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -62577,7 +62577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -62679,7 +62679,7 @@
         <v>40500000</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -62784,7 +62784,7 @@
         <v>40000000</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -62889,7 +62889,7 @@
         <v>28312000</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -62991,7 +62991,7 @@
         <v>19975000</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -63090,7 +63090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -63180,7 +63180,7 @@
         <v>25879374.989999998</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -63282,7 +63282,7 @@
         <v>28175000</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -63387,7 +63387,7 @@
         <v>25350000</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -63486,7 +63486,7 @@
         <v>14650000</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -63585,7 +63585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -63684,7 +63684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -63789,7 +63789,7 @@
         <v>18995000</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -63894,7 +63894,7 @@
         <v>23120000</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -63999,7 +63999,7 @@
         <v>27580524.309999999</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -64101,7 +64101,7 @@
         <v>24518000</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -64203,7 +64203,7 @@
         <v>29002000</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -64305,7 +64305,7 @@
         <v>21657000</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -64410,7 +64410,7 @@
         <v>17387000</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -64512,7 +64512,7 @@
         <v>21300000</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -64614,7 +64614,7 @@
         <v>24950000</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -64625,7 +64625,7 @@
         <v>333</v>
       </c>
       <c r="E46" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>337</v>
@@ -64713,7 +64713,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -64812,7 +64812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -64823,7 +64823,7 @@
         <v>336</v>
       </c>
       <c r="E48" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>340</v>
@@ -64911,7 +64911,7 @@
         <v>8179995.3200000003</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
@@ -65001,7 +65001,7 @@
         <v>7578250</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -65103,7 +65103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -65202,7 +65202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -65292,7 +65292,7 @@
         <v>5094679</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -65391,7 +65391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -65496,7 +65496,7 @@
         <v>6250000</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -65592,7 +65592,7 @@
         <v>3709430</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
@@ -65688,7 +65688,7 @@
         <v>6115285</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -65796,7 +65796,7 @@
         <v>24336000</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
@@ -65904,7 +65904,7 @@
         <v>18000000</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
@@ -66012,7 +66012,7 @@
         <v>6162000</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
@@ -66120,7 +66120,7 @@
         <v>24535000</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
@@ -66228,7 +66228,7 @@
         <v>13486000</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
@@ -66336,7 +66336,7 @@
         <v>8408000</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
@@ -66444,7 +66444,7 @@
         <v>11330000</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -66552,7 +66552,7 @@
         <v>4859000</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>0</v>
       </c>
@@ -66660,7 +66660,7 @@
         <v>22470000</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
@@ -66759,7 +66759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
@@ -66855,7 +66855,7 @@
         <v>5309009</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
@@ -66963,7 +66963,7 @@
         <v>30157000</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
@@ -67065,7 +67065,7 @@
         <v>3900000</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
@@ -67076,7 +67076,7 @@
         <v>326</v>
       </c>
       <c r="E70" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>327</v>
@@ -67164,7 +67164,7 @@
         <v>3056134.61</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
@@ -67175,7 +67175,7 @@
         <v>346</v>
       </c>
       <c r="E71" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>348</v>
@@ -67263,7 +67263,7 @@
         <v>2850000</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
@@ -67362,7 +67362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -67461,7 +67461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
@@ -67560,7 +67560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>0</v>
       </c>
@@ -67592,7 +67592,7 @@
         <v>3</v>
       </c>
       <c r="L75" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M75" s="1">
         <v>0</v>
@@ -67653,7 +67653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
@@ -67664,7 +67664,7 @@
         <v>30</v>
       </c>
       <c r="E76" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>31</v>
@@ -67752,7 +67752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
@@ -67857,7 +67857,7 @@
         <v>5282430</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
@@ -67953,7 +67953,7 @@
         <v>2200001</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>0</v>
       </c>
@@ -68055,7 +68055,7 @@
         <v>3487500</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>0</v>
       </c>
@@ -68157,7 +68157,7 @@
         <v>2179345</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>0</v>
       </c>
@@ -68171,7 +68171,7 @@
         <v>341</v>
       </c>
       <c r="E81" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>343</v>
@@ -68256,7 +68256,7 @@
         <v>1693242.59</v>
       </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>0</v>
       </c>
@@ -68355,7 +68355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>0</v>
       </c>
@@ -68366,7 +68366,7 @@
         <v>344</v>
       </c>
       <c r="E83" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>352</v>
@@ -68454,7 +68454,7 @@
         <v>825000</v>
       </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
@@ -68465,7 +68465,7 @@
         <v>345</v>
       </c>
       <c r="E84" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>350</v>
@@ -68553,7 +68553,7 @@
         <v>731616</v>
       </c>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>330</v>
       </c>
@@ -68564,7 +68564,7 @@
         <v>331</v>
       </c>
       <c r="E85" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>332</v>
@@ -68641,7 +68641,7 @@
       <selection sqref="A1:A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/db/properties.xlsx
+++ b/data/db/properties.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nburmeister\Documents\_Development\AssetManagementPortal\data\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9968646F-04C7-4F10-8255-4A81FCE20DB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA34DD06-ECEE-4530-ACFC-986F4F9D86ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{65CCAB74-0CA2-4D5F-9FC7-1AACCFC26E43}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{65CCAB74-0CA2-4D5F-9FC7-1AACCFC26E43}"/>
   </bookViews>
   <sheets>
     <sheet name="PropertyData" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
@@ -30,7 +30,6 @@
     <externalReference r:id="rId13"/>
     <externalReference r:id="rId14"/>
     <externalReference r:id="rId15"/>
-    <externalReference r:id="rId16"/>
   </externalReferences>
   <definedNames>
     <definedName name="______wrn1" hidden="1">{"schedule1",#N/A,FALSE,"Sheet1";"schedule2",#N/A,FALSE,"Sheet1";"schedule3",#N/A,FALSE,"Sheet1";"schedule4",#N/A,FALSE,"Sheet1";"schedule5",#N/A,FALSE,"Sheet1";"schedule6",#N/A,FALSE,"Sheet1"}</definedName>
@@ -42,7 +41,7 @@
     <definedName name="_a1" hidden="1">{"Assump",#N/A,TRUE,"Proforma";"first",#N/A,TRUE,"Proforma";"second",#N/A,TRUE,"Proforma";"lease1",#N/A,TRUE,"Proforma";"lease2",#N/A,TRUE,"Proforma"}</definedName>
     <definedName name="_e4" hidden="1">{"new",#N/A,FALSE,"D";"PROFORMA",#N/A,FALSE,"A";"partial 1",#N/A,FALSE,"B";"partial 2",#N/A,FALSE,"B";"partial 3",#N/A,FALSE,"B";"SMALL CF 1",#N/A,FALSE,"C"}</definedName>
     <definedName name="_Fill" hidden="1">[1]Avian!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PropertyData!$A$1:$AI$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PropertyData!$A$1:$AI$86</definedName>
     <definedName name="_Key1" hidden="1">#REF!</definedName>
     <definedName name="_Key2" hidden="1">#REF!</definedName>
     <definedName name="_Order1" hidden="1">255</definedName>
@@ -3524,7 +3523,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="370">
   <si>
     <t>ACTIVE</t>
   </si>
@@ -3778,25 +3777,16 @@
     <t>Farmers Branch</t>
   </si>
   <si>
-    <t>Morgan At Northshore</t>
-  </si>
-  <si>
     <t>100 Anderson St</t>
   </si>
   <si>
     <t>Pittsburgh</t>
   </si>
   <si>
-    <t>Park Avenue</t>
-  </si>
-  <si>
     <t>3800 NW 79th Terrace</t>
   </si>
   <si>
     <t>Gainesville</t>
-  </si>
-  <si>
-    <t>Park Crossing</t>
   </si>
   <si>
     <t>2700 Park Crossing Way Northwest</t>
@@ -3851,9 +3841,6 @@
   </si>
   <si>
     <t>4921 2nd</t>
-  </si>
-  <si>
-    <t>MKE Airport</t>
   </si>
   <si>
     <t>4921 S 2nd St</t>
@@ -4048,9 +4035,6 @@
     <t>9555 James Avenue S</t>
   </si>
   <si>
-    <t>Cincinatti and Columbus, OH, Chicago, IL</t>
-  </si>
-  <si>
     <t>Belvedere at Springwoods Village</t>
   </si>
   <si>
@@ -4064,9 +4048,6 @@
   </si>
   <si>
     <t>Spring</t>
-  </si>
-  <si>
-    <t>Oklahoma City and Tulsa, OK; Houston, Tx</t>
   </si>
   <si>
     <t>Albuquerque</t>
@@ -4181,12 +4162,6 @@
   </si>
   <si>
     <t>55</t>
-  </si>
-  <si>
-    <t>MSP SW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apple Glen </t>
   </si>
   <si>
     <t>5321 S 108th St</t>
@@ -4558,12 +4533,6 @@
     <t>2622 S 162nd St</t>
   </si>
   <si>
-    <t>Pebblebrook</t>
-  </si>
-  <si>
-    <t>Saddletree</t>
-  </si>
-  <si>
     <t>Marina Del Rey</t>
   </si>
   <si>
@@ -4616,6 +4585,54 @@
   </si>
   <si>
     <t>managed_account_equity</t>
+  </si>
+  <si>
+    <t>Hales Corners Plaza</t>
+  </si>
+  <si>
+    <t>MSP Southwest Industrial Portfolio</t>
+  </si>
+  <si>
+    <t>Oklahoma City &amp; Tulsa, OK; Houston, TX</t>
+  </si>
+  <si>
+    <t>Cincinatti &amp; Columbus, OH, Chicago, IL</t>
+  </si>
+  <si>
+    <t>Pewaukee Plaza</t>
+  </si>
+  <si>
+    <t>Pewaukee</t>
+  </si>
+  <si>
+    <t>1268 Capitol Dr</t>
+  </si>
+  <si>
+    <t>1983/1989</t>
+  </si>
+  <si>
+    <t>Apple Glen Apartments</t>
+  </si>
+  <si>
+    <t>The Aurora at Twenty Seven Hundred</t>
+  </si>
+  <si>
+    <t>Park Crossing Apartments</t>
+  </si>
+  <si>
+    <t>Pebblebrook Apartments</t>
+  </si>
+  <si>
+    <t>Saddletree Apartments</t>
+  </si>
+  <si>
+    <t>Park Avenue Apartments</t>
+  </si>
+  <si>
+    <t>Milwaukee Airport Industrial</t>
+  </si>
+  <si>
+    <t>Morgan at North Shore</t>
   </si>
 </sst>
 </file>
@@ -60068,163 +60085,163 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7710D90B-EE59-4300-997E-0C7673234710}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AI85"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
+  <dimension ref="A1:AI86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J88" sqref="J88"/>
+      <selection pane="bottomRight" activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="18" customWidth="1"/>
     <col min="9" max="9" width="14" style="1" customWidth="1"/>
-    <col min="10" max="10" width="43.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="1" customWidth="1"/>
-    <col min="14" max="15" width="20.33203125" style="7" customWidth="1"/>
-    <col min="16" max="16" width="20.33203125" style="12" customWidth="1"/>
-    <col min="17" max="17" width="12.44140625" style="13" customWidth="1"/>
-    <col min="18" max="18" width="27.5546875" style="10" customWidth="1"/>
-    <col min="19" max="19" width="14.33203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="35.88671875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="26.5546875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="19.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.33203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.44140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.44140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.33203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="22.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="24.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.88671875" style="19" customWidth="1"/>
-    <col min="33" max="33" width="18.33203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="43.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="1" customWidth="1"/>
+    <col min="14" max="15" width="20.28515625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="20.28515625" style="12" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" style="13" customWidth="1"/>
+    <col min="18" max="18" width="27.5703125" style="10" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="35.85546875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="26.5703125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="19.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.85546875" style="19" customWidth="1"/>
+    <col min="33" max="33" width="18.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="N1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="O1" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="P1" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="Q1" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="R1" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="M1" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>205</v>
-      </c>
       <c r="S1" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="V1" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="W1" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="X1" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y1" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA1" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="AB1" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="V1" s="19" t="s">
+      <c r="AC1" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="AD1" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="AE1" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF1" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="AG1" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="AH1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="AI1" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="Z1" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="AA1" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="AB1" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="AC1" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="AD1" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="AE1" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="AF1" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="AG1" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AI1" s="19" t="s">
-        <v>305</v>
-      </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -60244,7 +60261,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I2" s="1">
         <v>43228</v>
@@ -60323,7 +60340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -60343,7 +60360,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I3" s="1">
         <v>43228</v>
@@ -60422,7 +60439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -60442,7 +60459,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I4" s="1">
         <v>45246</v>
@@ -60521,7 +60538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -60541,7 +60558,7 @@
         <v>8</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I5" s="1">
         <v>45246</v>
@@ -60620,7 +60637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -60640,7 +60657,7 @@
         <v>8</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I6" s="1">
         <v>45246</v>
@@ -60719,7 +60736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -60739,7 +60756,7 @@
         <v>8</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I7" s="1">
         <v>45246</v>
@@ -60818,7 +60835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -60826,19 +60843,19 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="I8" s="1">
         <v>55318</v>
@@ -60862,7 +60879,7 @@
         <v>-1</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="Q8" s="9">
         <v>10</v>
@@ -60917,7 +60934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -60925,19 +60942,19 @@
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="I9" s="1">
         <v>53207</v>
@@ -60961,7 +60978,7 @@
         <v>-1</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="Q9" s="9">
         <v>1</v>
@@ -61010,7 +61027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -61018,19 +61035,19 @@
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E10" s="1">
         <v>3</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="I10" s="1">
         <v>53221</v>
@@ -61054,7 +61071,7 @@
         <v>-1</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="Q10" s="9">
         <v>1</v>
@@ -61103,7 +61120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -61123,7 +61140,7 @@
         <v>19</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="I11" s="1">
         <v>60803</v>
@@ -61202,7 +61219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -61222,7 +61239,7 @@
         <v>23</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I12" s="1">
         <v>41042</v>
@@ -61295,7 +61312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -61315,7 +61332,7 @@
         <v>23</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I13" s="1">
         <v>41042</v>
@@ -61388,7 +61405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -61396,16 +61413,25 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>189</v>
+        <v>362</v>
       </c>
       <c r="E14" s="1">
-        <v>4</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>217</v>
+        <v>5</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H14" s="17">
+        <v>55</v>
+      </c>
+      <c r="I14" s="1">
+        <v>53151</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>180</v>
+        <v>64</v>
       </c>
       <c r="K14" s="1">
         <v>2</v>
@@ -61414,31 +61440,40 @@
         <v>3</v>
       </c>
       <c r="M14" s="1">
-        <v>2761</v>
+        <v>80</v>
       </c>
       <c r="N14" s="6">
-        <v>2347605</v>
+        <v>76960</v>
       </c>
       <c r="O14" s="7">
         <v>-1</v>
       </c>
-      <c r="P14" s="8" t="s">
-        <v>290</v>
+      <c r="P14" s="8">
+        <v>1986</v>
       </c>
       <c r="Q14" s="9">
         <v>1</v>
       </c>
       <c r="R14" s="10">
-        <v>43817</v>
+        <v>43556</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="T14" s="1">
+        <v>42.988776000000001</v>
+      </c>
+      <c r="U14" s="1">
+        <v>-88.071715999999995</v>
       </c>
       <c r="V14" s="19">
-        <v>221000000</v>
+        <v>7500000</v>
       </c>
       <c r="W14" s="19">
-        <v>80043.462513582039</v>
+        <v>93750</v>
       </c>
       <c r="X14" s="19">
-        <v>94.138494337846438</v>
+        <v>97.453222453222452</v>
       </c>
       <c r="Y14" s="19">
         <v>0</v>
@@ -61447,36 +61482,32 @@
         <v>0</v>
       </c>
       <c r="AA14" s="19">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="19">
-        <v>38890000</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="19">
-        <v>30610000.000000004</v>
+        <v>0</v>
       </c>
       <c r="AD14" s="19">
-        <f>+AD13+AD10+AD9+AD8+AD7+AD6+AD5+AD4+AD3+AD2</f>
         <v>0</v>
       </c>
       <c r="AE14" s="19">
         <v>0</v>
       </c>
       <c r="AF14" s="19">
-        <v>0</v>
+        <v>7500000</v>
       </c>
       <c r="AG14" s="19">
         <f t="shared" ref="AG14:AG45" si="1">+SUM(Y14:AF14)</f>
-        <v>71500000</v>
-      </c>
-      <c r="AH14" s="1" t="s">
-        <v>306</v>
+        <v>7500000</v>
       </c>
       <c r="AI14" s="19">
-        <v>163743000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -61484,25 +61515,25 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="E15" s="1">
         <v>5</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="I15" s="1">
-        <v>75214</v>
+        <v>50266</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="K15" s="1">
         <v>2</v>
@@ -61511,55 +61542,55 @@
         <v>3</v>
       </c>
       <c r="M15" s="1">
-        <v>435</v>
+        <v>222</v>
       </c>
       <c r="N15" s="6">
-        <v>338649</v>
+        <v>332180</v>
       </c>
       <c r="O15" s="7">
         <v>-1</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q15" s="9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R15" s="11">
-        <v>42598</v>
+        <v>43448</v>
       </c>
       <c r="T15" s="1">
-        <v>32.807751000000003</v>
+        <v>41.553176999999998</v>
       </c>
       <c r="U15" s="1">
-        <v>-96.731745000000004</v>
+        <v>-93.801728999999995</v>
       </c>
       <c r="V15" s="19">
-        <v>68750000</v>
+        <v>40250000</v>
       </c>
       <c r="W15" s="19">
-        <v>158045.97701149425</v>
+        <v>181306.3063063063</v>
       </c>
       <c r="X15" s="19">
-        <v>203.01255872599654</v>
+        <v>121.1692455897405</v>
       </c>
       <c r="Y15" s="19">
         <v>0</v>
       </c>
       <c r="Z15" s="19">
-        <v>3277933.0900000003</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="19">
-        <v>0</v>
+        <v>7616471</v>
       </c>
       <c r="AB15" s="19">
-        <v>0</v>
+        <v>4000000</v>
       </c>
       <c r="AC15" s="19">
         <v>0</v>
       </c>
       <c r="AD15" s="19">
-        <v>29501397.789999999</v>
+        <v>3872157</v>
       </c>
       <c r="AE15" s="19">
         <v>0</v>
@@ -61569,16 +61600,16 @@
       </c>
       <c r="AG15" s="19">
         <f t="shared" si="1"/>
-        <v>32779330.879999999</v>
+        <v>15488628</v>
       </c>
       <c r="AH15" s="1" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="AI15" s="19">
-        <v>37800000</v>
+        <v>28175000</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -61586,25 +61617,25 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="E16" s="1">
         <v>5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="I16" s="1">
-        <v>75234</v>
+        <v>77389</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K16" s="1">
         <v>2</v>
@@ -61613,77 +61644,74 @@
         <v>3</v>
       </c>
       <c r="M16" s="1">
-        <v>509</v>
+        <v>342</v>
       </c>
       <c r="N16" s="6">
-        <v>476792</v>
+        <v>323522</v>
       </c>
       <c r="O16" s="7">
         <v>-1</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Q16" s="9">
         <v>1</v>
       </c>
-      <c r="R16" s="11">
-        <v>42915</v>
+      <c r="R16" s="10">
+        <v>43922</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T16" s="1">
-        <v>32.902931000000002</v>
+        <v>30.091379</v>
       </c>
       <c r="U16" s="1">
-        <v>-96.916843999999998</v>
+        <v>-95.450539000000006</v>
       </c>
       <c r="V16" s="19">
-        <v>85698000</v>
+        <v>54150000</v>
       </c>
       <c r="W16" s="19">
-        <v>168365.42239685659</v>
+        <v>158333.33333333334</v>
       </c>
       <c r="X16" s="19">
-        <v>179.73875400593971</v>
+        <v>167.37656171759571</v>
       </c>
       <c r="Y16" s="19">
         <v>0</v>
       </c>
       <c r="Z16" s="19">
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="19">
-        <v>8925000</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="19">
-        <v>0</v>
+        <v>5410000</v>
       </c>
       <c r="AC16" s="19">
-        <v>5775000</v>
+        <v>0</v>
       </c>
       <c r="AD16" s="19">
-        <v>16200000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="19">
         <v>0</v>
       </c>
       <c r="AF16" s="19">
-        <v>0</v>
+        <v>15055000</v>
       </c>
       <c r="AG16" s="19">
         <f t="shared" si="1"/>
-        <v>32400000</v>
-      </c>
-      <c r="AH16" s="1" t="s">
-        <v>308</v>
+        <v>20465000</v>
       </c>
       <c r="AI16" s="19">
-        <v>55200000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -61691,85 +61719,76 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="E17" s="1">
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>256</v>
+        <v>39</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="I17" s="1">
-        <v>75013</v>
+        <v>55427</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
         <v>2</v>
       </c>
-      <c r="L17" s="1">
-        <v>3</v>
-      </c>
       <c r="M17" s="1">
-        <v>444</v>
+        <v>0</v>
       </c>
       <c r="N17" s="6">
-        <v>419822</v>
+        <v>124068</v>
       </c>
       <c r="O17" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Q17" s="9">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="R17" s="11">
-        <v>43348</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="T17" s="1">
-        <v>33.118155999999999</v>
-      </c>
-      <c r="U17" s="1">
-        <v>-96.732322999999994</v>
+        <v>43281</v>
       </c>
       <c r="V17" s="19">
-        <v>73500000</v>
+        <v>8500000</v>
       </c>
       <c r="W17" s="19">
-        <v>165540.54054054053</v>
+        <v>0</v>
       </c>
       <c r="X17" s="19">
-        <v>175.0741981125334</v>
+        <v>68.510816648934451</v>
       </c>
       <c r="Y17" s="19">
         <v>0</v>
       </c>
       <c r="Z17" s="19">
-        <v>6340000</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="19">
-        <v>9000000</v>
+        <v>3314700</v>
       </c>
       <c r="AB17" s="19">
         <v>0</v>
       </c>
       <c r="AC17" s="19">
-        <v>13860000</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="19">
-        <v>0</v>
+        <v>368300</v>
       </c>
       <c r="AE17" s="19">
         <v>0</v>
@@ -61779,16 +61798,16 @@
       </c>
       <c r="AG17" s="19">
         <f t="shared" si="1"/>
-        <v>29200000</v>
+        <v>3683000</v>
       </c>
       <c r="AH17" s="1" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="AI17" s="19">
-        <v>47000000</v>
+        <v>5309009</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -61796,25 +61815,25 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="E18" s="1">
         <v>5</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>182</v>
+        <v>42</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>181</v>
+        <v>43</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I18" s="1">
-        <v>87121</v>
+        <v>19468</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>181</v>
+        <v>44</v>
       </c>
       <c r="K18" s="1">
         <v>2</v>
@@ -61823,37 +61842,37 @@
         <v>3</v>
       </c>
       <c r="M18" s="1">
-        <v>456</v>
+        <v>198</v>
       </c>
       <c r="N18" s="6">
-        <v>493096</v>
+        <v>216254</v>
       </c>
       <c r="O18" s="7">
         <v>-1</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q18" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R18" s="11">
-        <v>43964</v>
+        <v>43553</v>
       </c>
       <c r="T18" s="1">
-        <v>35.041150000000002</v>
+        <v>40.234037999999998</v>
       </c>
       <c r="U18" s="1">
-        <v>-106.736149</v>
+        <v>-75.534552000000005</v>
       </c>
       <c r="V18" s="19">
-        <v>73000000</v>
+        <v>38250000</v>
       </c>
       <c r="W18" s="19">
-        <v>160087.71929824562</v>
+        <v>193181.81818181818</v>
       </c>
       <c r="X18" s="19">
-        <v>148.04419423398284</v>
+        <v>176.87534103415427</v>
       </c>
       <c r="Y18" s="19">
         <v>0</v>
@@ -61862,35 +61881,35 @@
         <v>0</v>
       </c>
       <c r="AA18" s="19">
-        <v>0</v>
+        <v>4045714</v>
       </c>
       <c r="AB18" s="19">
-        <v>8075000</v>
+        <v>6432686</v>
       </c>
       <c r="AC18" s="19">
         <v>0</v>
       </c>
       <c r="AD18" s="19">
-        <v>2350000</v>
+        <v>2619600</v>
       </c>
       <c r="AE18" s="19">
         <v>0</v>
       </c>
       <c r="AF18" s="19">
-        <v>15769000</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="19">
         <f t="shared" si="1"/>
-        <v>26194000</v>
+        <v>13098000</v>
       </c>
       <c r="AH18" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="AI18" s="19">
-        <v>43575000</v>
+        <v>29002000</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -61898,82 +61917,82 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="E19" s="1">
         <v>5</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>259</v>
+        <v>200</v>
       </c>
       <c r="I19" s="1">
-        <v>85281</v>
+        <v>33610</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M19" s="1">
-        <v>408</v>
+        <v>0</v>
       </c>
       <c r="N19" s="6">
-        <v>265021</v>
+        <v>334279</v>
       </c>
       <c r="O19" s="7">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="Q19" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R19" s="11">
-        <v>43403</v>
+        <v>42985</v>
       </c>
       <c r="T19" s="1">
-        <v>33.413958999999998</v>
+        <v>28.001159000000001</v>
       </c>
       <c r="U19" s="1">
-        <v>-111.90848099999999</v>
+        <v>-82.359121999999999</v>
       </c>
       <c r="V19" s="19">
-        <v>53500000</v>
+        <v>22500000</v>
       </c>
       <c r="W19" s="19">
-        <v>131127.45098039217</v>
+        <v>0</v>
       </c>
       <c r="X19" s="19">
-        <v>201.87079514453572</v>
+        <v>67.309044241486902</v>
       </c>
       <c r="Y19" s="19">
         <v>0</v>
       </c>
       <c r="Z19" s="19">
-        <v>5000000</v>
+        <v>2000000</v>
       </c>
       <c r="AA19" s="19">
-        <v>9800000</v>
+        <v>5900000</v>
       </c>
       <c r="AB19" s="19">
-        <v>5542500</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="19">
-        <v>0</v>
+        <v>4000000</v>
       </c>
       <c r="AD19" s="19">
-        <v>5407500</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="19">
         <v>0</v>
@@ -61983,16 +62002,16 @@
       </c>
       <c r="AG19" s="19">
         <f t="shared" si="1"/>
-        <v>25750000</v>
+        <v>11900000</v>
       </c>
       <c r="AH19" s="1" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="AI19" s="19">
-        <v>33329000</v>
+        <v>21300000</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -62000,25 +62019,25 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>322</v>
+        <v>48</v>
       </c>
       <c r="E20" s="1">
         <v>5</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>323</v>
+        <v>49</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>217</v>
+        <v>50</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>251</v>
       </c>
       <c r="I20" s="1">
-        <v>75126</v>
+        <v>85014</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K20" s="1">
         <v>2</v>
@@ -62027,49 +62046,46 @@
         <v>3</v>
       </c>
       <c r="M20" s="1">
-        <v>337</v>
+        <v>395</v>
       </c>
       <c r="N20" s="6">
-        <v>272856</v>
-      </c>
-      <c r="O20" s="6">
+        <v>201298</v>
+      </c>
+      <c r="O20" s="7">
         <v>-1</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>324</v>
+        <v>256</v>
       </c>
       <c r="Q20" s="9">
-        <v>1</v>
-      </c>
-      <c r="R20" s="10">
-        <v>43908</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>325</v>
+        <v>4</v>
+      </c>
+      <c r="R20" s="11">
+        <v>43191</v>
       </c>
       <c r="T20" s="1">
-        <v>32.750933000000003</v>
+        <v>33.511786999999998</v>
       </c>
       <c r="U20" s="1">
-        <v>-96.432614999999998</v>
+        <v>-112.05092</v>
       </c>
       <c r="V20" s="19">
-        <v>46700000</v>
+        <v>29000000</v>
       </c>
       <c r="W20" s="19">
-        <v>138575.66765578635</v>
+        <v>73417.721518987339</v>
       </c>
       <c r="X20" s="19">
-        <v>171.15254933004954</v>
+        <v>144.06501803296604</v>
       </c>
       <c r="Y20" s="19">
         <v>0</v>
       </c>
       <c r="Z20" s="19">
-        <v>0</v>
+        <v>2500000</v>
       </c>
       <c r="AA20" s="19">
-        <v>0</v>
+        <v>7850000</v>
       </c>
       <c r="AB20" s="19">
         <v>0</v>
@@ -62078,20 +62094,26 @@
         <v>0</v>
       </c>
       <c r="AD20" s="19">
-        <v>0</v>
+        <v>6900000</v>
       </c>
       <c r="AE20" s="19">
         <v>0</v>
       </c>
       <c r="AF20" s="19">
-        <v>23058734</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="19">
         <f t="shared" si="1"/>
-        <v>23058734</v>
+        <v>17250000</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="AI20" s="19">
+        <v>19975000</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -62099,16 +62121,19 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
+      <c r="G21" s="1" t="s">
+        <v>357</v>
+      </c>
       <c r="H21" s="17" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>174</v>
+        <v>357</v>
       </c>
       <c r="K21" s="1">
         <v>1</v>
@@ -62126,7 +62151,7 @@
         <v>12</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="Q21" s="9">
         <v>10</v>
@@ -62172,13 +62197,13 @@
         <v>20700000</v>
       </c>
       <c r="AH21" s="1" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="AI21" s="19">
         <v>38998100</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -62186,19 +62211,19 @@
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E22" s="1">
         <v>6</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="I22" s="1">
         <v>55425</v>
@@ -62222,7 +62247,7 @@
         <v>-1</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="Q22" s="9">
         <v>9</v>
@@ -62277,7 +62302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -62285,19 +62310,19 @@
         <v>0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E23" s="1">
         <v>7</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="I23" s="1">
         <v>55423</v>
@@ -62321,7 +62346,7 @@
         <v>-1</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="Q23" s="9">
         <v>8</v>
@@ -62376,7 +62401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -62384,19 +62409,19 @@
         <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E24" s="1">
         <v>8</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="I24" s="1">
         <v>55441</v>
@@ -62420,7 +62445,7 @@
         <v>-1</v>
       </c>
       <c r="P24" s="8" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="Q24" s="9">
         <v>5</v>
@@ -62475,7 +62500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -62483,79 +62508,70 @@
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>175</v>
+        <v>51</v>
       </c>
       <c r="E25" s="1">
         <v>5</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>178</v>
+        <v>52</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>179</v>
+        <v>41</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="I25" s="1">
-        <v>77389</v>
+        <v>55404</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="K25" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M25" s="1">
-        <v>342</v>
-      </c>
-      <c r="N25" s="6">
-        <v>323522</v>
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>297650</v>
       </c>
       <c r="O25" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P25" s="8" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="Q25" s="9">
-        <v>1</v>
-      </c>
-      <c r="R25" s="10">
-        <v>43922</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="T25" s="1">
-        <v>30.091379</v>
-      </c>
-      <c r="U25" s="1">
-        <v>-95.450539000000006</v>
+        <v>8</v>
+      </c>
+      <c r="R25" s="11">
+        <v>43070</v>
       </c>
       <c r="V25" s="19">
-        <v>54150000</v>
+        <v>0</v>
       </c>
       <c r="W25" s="19">
-        <v>158333.33333333334</v>
+        <v>0</v>
       </c>
       <c r="X25" s="19">
-        <v>167.37656171759571</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="19">
         <v>0</v>
       </c>
       <c r="Z25" s="19">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="AA25" s="19">
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="AB25" s="19">
-        <v>5410000</v>
+        <v>0</v>
       </c>
       <c r="AC25" s="19">
         <v>0</v>
@@ -62567,17 +62583,17 @@
         <v>0</v>
       </c>
       <c r="AF25" s="19">
-        <v>15055000</v>
+        <v>0</v>
       </c>
       <c r="AG25" s="19">
         <f t="shared" si="1"/>
-        <v>20465000</v>
+        <v>2500000</v>
       </c>
       <c r="AI25" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -62585,25 +62601,25 @@
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>84</v>
+        <v>177</v>
       </c>
       <c r="E26" s="1">
         <v>5</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="I26" s="1">
-        <v>15212</v>
+        <v>75252</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="K26" s="1">
         <v>2</v>
@@ -62612,55 +62628,58 @@
         <v>3</v>
       </c>
       <c r="M26" s="1">
-        <v>232</v>
+        <v>494</v>
       </c>
       <c r="N26" s="6">
-        <v>185884</v>
+        <v>377550</v>
       </c>
       <c r="O26" s="7">
         <v>-1</v>
       </c>
       <c r="P26" s="8" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="Q26" s="9">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R26" s="11">
-        <v>43916</v>
+        <v>42491</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="T26" s="1">
-        <v>40.448481999999998</v>
+        <v>32.989317</v>
       </c>
       <c r="U26" s="1">
-        <v>-79.999180999999993</v>
+        <v>-96.770483999999996</v>
       </c>
       <c r="V26" s="19">
-        <v>54000000</v>
+        <v>37000000</v>
       </c>
       <c r="W26" s="19">
-        <v>232758.62068965516</v>
+        <v>74898.785425101218</v>
       </c>
       <c r="X26" s="19">
-        <v>290.50375503001874</v>
+        <v>98.000264865580718</v>
       </c>
       <c r="Y26" s="19">
-        <v>0</v>
+        <v>750000</v>
       </c>
       <c r="Z26" s="19">
-        <v>0</v>
+        <v>2700000</v>
       </c>
       <c r="AA26" s="19">
-        <v>5095000</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="19">
-        <v>14000000</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="19">
-        <v>0</v>
+        <v>3300000</v>
       </c>
       <c r="AD26" s="19">
-        <v>1005000</v>
+        <v>6750000</v>
       </c>
       <c r="AE26" s="19">
         <v>0</v>
@@ -62670,16 +62689,16 @@
       </c>
       <c r="AG26" s="19">
         <f t="shared" si="1"/>
-        <v>20100000</v>
+        <v>13500000</v>
       </c>
       <c r="AH26" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AI26" s="19">
-        <v>40500000</v>
+        <v>27580524.309999999</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -62687,25 +62706,25 @@
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>87</v>
+        <v>178</v>
       </c>
       <c r="E27" s="1">
         <v>5</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="I27" s="1">
-        <v>32606</v>
+        <v>76132</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="K27" s="1">
         <v>2</v>
@@ -62714,40 +62733,40 @@
         <v>3</v>
       </c>
       <c r="M27" s="1">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="N27" s="6">
-        <v>288960</v>
+        <v>232775</v>
       </c>
       <c r="O27" s="7">
         <v>-1</v>
       </c>
       <c r="P27" s="8" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="Q27" s="9">
         <v>1</v>
       </c>
       <c r="R27" s="11">
-        <v>43763</v>
+        <v>43529</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="T27" s="1">
-        <v>29.68797</v>
+        <v>32.989317</v>
       </c>
       <c r="U27" s="1">
-        <v>-82.427938999999995</v>
+        <v>-96.770483999999996</v>
       </c>
       <c r="V27" s="19">
-        <v>56000000</v>
+        <v>26750000</v>
       </c>
       <c r="W27" s="19">
-        <v>187919.46308724832</v>
+        <v>82817.337461300311</v>
       </c>
       <c r="X27" s="19">
-        <v>193.79844961240309</v>
+        <v>114.91783911502525</v>
       </c>
       <c r="Y27" s="19">
         <v>0</v>
@@ -62756,10 +62775,10 @@
         <v>0</v>
       </c>
       <c r="AA27" s="19">
-        <v>5700000</v>
+        <v>8550000</v>
       </c>
       <c r="AB27" s="19">
-        <v>14000000</v>
+        <v>4000000</v>
       </c>
       <c r="AC27" s="19">
         <v>0</v>
@@ -62775,16 +62794,16 @@
       </c>
       <c r="AG27" s="19">
         <f t="shared" si="1"/>
-        <v>19700000</v>
+        <v>12550000</v>
       </c>
       <c r="AH27" s="1" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="AI27" s="19">
-        <v>40000000</v>
+        <v>17387000</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -62792,25 +62811,25 @@
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E28" s="1">
         <v>5</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="I28" s="1">
-        <v>33763</v>
+        <v>77505</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="K28" s="1">
         <v>2</v>
@@ -62819,52 +62838,52 @@
         <v>3</v>
       </c>
       <c r="M28" s="1">
-        <v>350</v>
+        <v>264</v>
       </c>
       <c r="N28" s="6">
-        <v>293770</v>
+        <v>221712</v>
       </c>
       <c r="O28" s="7">
         <v>-1</v>
       </c>
       <c r="P28" s="8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="Q28" s="9">
         <v>1</v>
       </c>
       <c r="R28" s="11">
-        <v>43640</v>
+        <v>43417</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="T28" s="1">
-        <v>28.001814</v>
+        <v>29.638172999999998</v>
       </c>
       <c r="U28" s="1">
-        <v>-82.730535000000003</v>
+        <v>-95.158162000000004</v>
       </c>
       <c r="V28" s="19">
-        <v>39100000</v>
+        <v>35570000</v>
       </c>
       <c r="W28" s="19">
-        <v>111714.28571428571</v>
+        <v>134734.84848484848</v>
       </c>
       <c r="X28" s="19">
-        <v>133.09732103346155</v>
+        <v>160.43335498304106</v>
       </c>
       <c r="Y28" s="19">
         <v>0</v>
       </c>
       <c r="Z28" s="19">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="AA28" s="19">
-        <v>5000000</v>
+        <v>8150000</v>
       </c>
       <c r="AB28" s="19">
-        <v>13200000</v>
+        <v>4000000</v>
       </c>
       <c r="AC28" s="19">
         <v>0</v>
@@ -62880,16 +62899,16 @@
       </c>
       <c r="AG28" s="19">
         <f t="shared" si="1"/>
-        <v>18200000</v>
+        <v>14150000</v>
       </c>
       <c r="AH28" s="1" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="AI28" s="19">
-        <v>28312000</v>
+        <v>23120000</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -62897,25 +62916,25 @@
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>48</v>
+        <v>167</v>
       </c>
       <c r="E29" s="1">
         <v>5</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>49</v>
+        <v>176</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>259</v>
+        <v>207</v>
       </c>
       <c r="I29" s="1">
-        <v>85014</v>
+        <v>87121</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="K29" s="1">
         <v>2</v>
@@ -62924,74 +62943,74 @@
         <v>3</v>
       </c>
       <c r="M29" s="1">
-        <v>395</v>
+        <v>456</v>
       </c>
       <c r="N29" s="6">
-        <v>201298</v>
+        <v>493096</v>
       </c>
       <c r="O29" s="7">
         <v>-1</v>
       </c>
       <c r="P29" s="8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="Q29" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R29" s="11">
-        <v>43191</v>
+        <v>43964</v>
       </c>
       <c r="T29" s="1">
-        <v>33.511786999999998</v>
+        <v>35.041150000000002</v>
       </c>
       <c r="U29" s="1">
-        <v>-112.05092</v>
+        <v>-106.736149</v>
       </c>
       <c r="V29" s="19">
-        <v>29000000</v>
+        <v>73000000</v>
       </c>
       <c r="W29" s="19">
-        <v>73417.721518987339</v>
+        <v>160087.71929824562</v>
       </c>
       <c r="X29" s="19">
-        <v>144.06501803296604</v>
+        <v>148.04419423398284</v>
       </c>
       <c r="Y29" s="19">
         <v>0</v>
       </c>
       <c r="Z29" s="19">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="AA29" s="19">
-        <v>7850000</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="19">
-        <v>0</v>
+        <v>8075000</v>
       </c>
       <c r="AC29" s="19">
         <v>0</v>
       </c>
       <c r="AD29" s="19">
-        <v>6900000</v>
+        <v>2350000</v>
       </c>
       <c r="AE29" s="19">
         <v>0</v>
       </c>
       <c r="AF29" s="19">
-        <v>0</v>
+        <v>15769000</v>
       </c>
       <c r="AG29" s="19">
         <f t="shared" si="1"/>
-        <v>17250000</v>
+        <v>26194000</v>
       </c>
       <c r="AH29" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="AI29" s="19">
-        <v>19975000</v>
+        <v>43575000</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -63011,7 +63030,7 @@
         <v>8</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I30" s="1">
         <v>45246</v>
@@ -63090,7 +63109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -63098,52 +63117,67 @@
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>219</v>
+        <v>328</v>
       </c>
       <c r="E31" s="1">
+        <v>5</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="I31" s="1">
+        <v>53402</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K31" s="1">
         <v>2</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H31" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="K31" s="1">
+      <c r="L31" s="1">
+        <v>3</v>
+      </c>
+      <c r="M31" s="1">
+        <v>202</v>
+      </c>
+      <c r="N31" s="7">
+        <v>163760</v>
+      </c>
+      <c r="O31" s="7">
+        <v>-1</v>
+      </c>
+      <c r="P31" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q31" s="13">
         <v>1</v>
       </c>
-      <c r="L31" s="1">
-        <v>2</v>
-      </c>
-      <c r="M31" s="1">
-        <v>0</v>
-      </c>
-      <c r="N31" s="7">
-        <v>845622</v>
-      </c>
-      <c r="O31" s="7">
-        <v>5</v>
-      </c>
-      <c r="P31" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q31" s="9">
-        <v>10</v>
-      </c>
-      <c r="R31" s="11">
-        <v>43032</v>
+      <c r="R31" s="10">
+        <v>43874</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="T31" s="1">
+        <v>42.765991</v>
+      </c>
+      <c r="U31" s="1">
+        <v>-87.803038999999998</v>
       </c>
       <c r="V31" s="19">
-        <v>38350000</v>
+        <v>14000000</v>
       </c>
       <c r="W31" s="19">
-        <v>0</v>
+        <v>69306.930693069313</v>
       </c>
       <c r="X31" s="19">
-        <v>45.351232583825869</v>
+        <v>85.490962383976552</v>
       </c>
       <c r="Y31" s="19">
         <v>0</v>
@@ -63152,35 +63186,29 @@
         <v>0</v>
       </c>
       <c r="AA31" s="19">
-        <v>7558000</v>
+        <v>0</v>
       </c>
       <c r="AB31" s="19">
         <v>0</v>
       </c>
       <c r="AC31" s="19">
-        <v>7775000</v>
+        <v>0</v>
       </c>
       <c r="AD31" s="19">
-        <v>807000</v>
+        <v>0</v>
       </c>
       <c r="AE31" s="19">
         <v>0</v>
       </c>
       <c r="AF31" s="19">
-        <v>0</v>
+        <v>8179995.3200000003</v>
       </c>
       <c r="AG31" s="19">
         <f t="shared" si="1"/>
-        <v>16140000</v>
-      </c>
-      <c r="AH31" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="AI31" s="19">
-        <v>25879374.989999998</v>
+        <v>8179995.3200000003</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -63188,25 +63216,25 @@
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="E32" s="1">
         <v>5</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="I32" s="1">
-        <v>50266</v>
+        <v>53233</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="K32" s="1">
         <v>2</v>
@@ -63215,37 +63243,40 @@
         <v>3</v>
       </c>
       <c r="M32" s="1">
-        <v>222</v>
+        <v>100</v>
       </c>
       <c r="N32" s="6">
-        <v>332180</v>
+        <v>70473</v>
       </c>
       <c r="O32" s="7">
         <v>-1</v>
       </c>
       <c r="P32" s="8" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="Q32" s="9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R32" s="11">
-        <v>43448</v>
+        <v>43545</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="T32" s="1">
-        <v>41.553176999999998</v>
+        <v>43.045977000000001</v>
       </c>
       <c r="U32" s="1">
-        <v>-93.801728999999995</v>
+        <v>-87.922753999999998</v>
       </c>
       <c r="V32" s="19">
-        <v>40250000</v>
+        <v>16000000</v>
       </c>
       <c r="W32" s="19">
-        <v>181306.3063063063</v>
+        <v>160000</v>
       </c>
       <c r="X32" s="19">
-        <v>121.1692455897405</v>
+        <v>227.03730506718884</v>
       </c>
       <c r="Y32" s="19">
         <v>0</v>
@@ -63254,16 +63285,16 @@
         <v>0</v>
       </c>
       <c r="AA32" s="19">
-        <v>7616471</v>
+        <v>6087942</v>
       </c>
       <c r="AB32" s="19">
-        <v>4000000</v>
+        <v>0</v>
       </c>
       <c r="AC32" s="19">
         <v>0</v>
       </c>
       <c r="AD32" s="19">
-        <v>3872157</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="19">
         <v>0</v>
@@ -63273,16 +63304,16 @@
       </c>
       <c r="AG32" s="19">
         <f t="shared" si="1"/>
-        <v>15488628</v>
+        <v>6087942</v>
       </c>
       <c r="AH32" s="1" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="AI32" s="19">
-        <v>28175000</v>
+        <v>6250000</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -63302,7 +63333,7 @@
         <v>67</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="I33" s="1">
         <v>75126</v>
@@ -63326,7 +63357,7 @@
         <v>-1</v>
       </c>
       <c r="P33" s="8" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="Q33" s="9">
         <v>1</v>
@@ -63335,7 +63366,7 @@
         <v>43006</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="T33" s="1">
         <v>32.753647999999998</v>
@@ -63381,13 +63412,13 @@
         <v>15000000</v>
       </c>
       <c r="AH33" s="1" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="AI33" s="19">
         <v>25350000</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -63395,25 +63426,25 @@
         <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="E34" s="1">
         <v>5</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>106</v>
+        <v>315</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H34" s="17" t="s">
-        <v>218</v>
+        <v>67</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>211</v>
       </c>
       <c r="I34" s="1">
-        <v>53188</v>
+        <v>75126</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="K34" s="1">
         <v>2</v>
@@ -63422,55 +63453,55 @@
         <v>3</v>
       </c>
       <c r="M34" s="1">
-        <v>478</v>
+        <v>337</v>
       </c>
       <c r="N34" s="6">
-        <v>483034</v>
-      </c>
-      <c r="O34" s="7">
+        <v>272856</v>
+      </c>
+      <c r="O34" s="6">
         <v>-1</v>
       </c>
       <c r="P34" s="8" t="s">
-        <v>276</v>
+        <v>316</v>
       </c>
       <c r="Q34" s="9">
         <v>1</v>
       </c>
-      <c r="R34" s="11">
-        <v>42765</v>
+      <c r="R34" s="10">
+        <v>43908</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>226</v>
+        <v>317</v>
       </c>
       <c r="T34" s="1">
-        <v>43.000940999999997</v>
+        <v>32.750933000000003</v>
       </c>
       <c r="U34" s="1">
-        <v>-88.260959</v>
+        <v>-96.432614999999998</v>
       </c>
       <c r="V34" s="19">
-        <v>36500000</v>
+        <v>46700000</v>
       </c>
       <c r="W34" s="19">
-        <v>76359.832635983257</v>
+        <v>138575.66765578635</v>
       </c>
       <c r="X34" s="19">
-        <v>75.564038970341628</v>
+        <v>171.15254933004954</v>
       </c>
       <c r="Y34" s="19">
         <v>0</v>
       </c>
       <c r="Z34" s="19">
-        <v>2200000</v>
+        <v>0</v>
       </c>
       <c r="AA34" s="19">
-        <v>6950000</v>
+        <v>0</v>
       </c>
       <c r="AB34" s="19">
         <v>0</v>
       </c>
       <c r="AC34" s="19">
-        <v>5500000</v>
+        <v>0</v>
       </c>
       <c r="AD34" s="19">
         <v>0</v>
@@ -63479,14 +63510,14 @@
         <v>0</v>
       </c>
       <c r="AF34" s="19">
-        <v>0</v>
+        <v>23058734</v>
       </c>
       <c r="AG34" s="19">
         <f t="shared" si="1"/>
-        <v>14650000</v>
+        <v>23058734</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -63494,19 +63525,19 @@
         <v>0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E35" s="1">
         <v>2</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="I35" s="1">
         <v>55337</v>
@@ -63530,7 +63561,7 @@
         <v>-1</v>
       </c>
       <c r="P35" s="8" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="Q35" s="9">
         <v>10</v>
@@ -63585,7 +63616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -63605,7 +63636,7 @@
         <v>3</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I36" s="1">
         <v>43217</v>
@@ -63684,7 +63715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -63692,25 +63723,25 @@
         <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E37" s="1">
         <v>5</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="I37" s="1">
-        <v>75051</v>
+        <v>30087</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="K37" s="1">
         <v>2</v>
@@ -63719,40 +63750,37 @@
         <v>3</v>
       </c>
       <c r="M37" s="1">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="N37" s="6">
-        <v>228160</v>
+        <v>232140</v>
       </c>
       <c r="O37" s="7">
         <v>-1</v>
       </c>
       <c r="P37" s="8" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="Q37" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R37" s="11">
-        <v>43221</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>233</v>
+        <v>43553</v>
       </c>
       <c r="T37" s="1">
-        <v>32.733854000000001</v>
+        <v>33.828491999999997</v>
       </c>
       <c r="U37" s="1">
-        <v>-97.017032999999998</v>
+        <v>-84.112199000000004</v>
       </c>
       <c r="V37" s="19">
-        <v>30800000</v>
+        <v>31250000</v>
       </c>
       <c r="W37" s="19">
-        <v>109608.54092526691</v>
+        <v>116604.4776119403</v>
       </c>
       <c r="X37" s="19">
-        <v>134.99298737727909</v>
+        <v>134.61704144051004</v>
       </c>
       <c r="Y37" s="19">
         <v>0</v>
@@ -63761,16 +63789,16 @@
         <v>0</v>
       </c>
       <c r="AA37" s="19">
-        <v>7300000</v>
+        <v>3867500</v>
       </c>
       <c r="AB37" s="19">
-        <v>0</v>
+        <v>3867500</v>
       </c>
       <c r="AC37" s="19">
         <v>0</v>
       </c>
       <c r="AD37" s="19">
-        <v>7300000</v>
+        <v>3315000</v>
       </c>
       <c r="AE37" s="19">
         <v>0</v>
@@ -63780,16 +63808,16 @@
       </c>
       <c r="AG37" s="19">
         <f t="shared" si="1"/>
-        <v>14600000</v>
+        <v>11050000</v>
       </c>
       <c r="AH37" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="AI37" s="19">
-        <v>18995000</v>
+        <v>24950000</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -63797,79 +63825,76 @@
         <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>185</v>
+        <v>354</v>
       </c>
       <c r="E38" s="1">
+        <v>9</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="I38" s="1">
+        <v>53130</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K38" s="1">
+        <v>1</v>
+      </c>
+      <c r="L38" s="1">
         <v>5</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H38" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="I38" s="1">
-        <v>77505</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K38" s="1">
-        <v>2</v>
-      </c>
-      <c r="L38" s="1">
-        <v>3</v>
-      </c>
       <c r="M38" s="1">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="N38" s="6">
-        <v>221712</v>
+        <v>94412</v>
       </c>
       <c r="O38" s="7">
         <v>-1</v>
       </c>
       <c r="P38" s="8" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="Q38" s="9">
         <v>1</v>
       </c>
       <c r="R38" s="11">
-        <v>43417</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>232</v>
+        <v>1</v>
       </c>
       <c r="T38" s="1">
-        <v>29.638172999999998</v>
+        <v>42.947819000000003</v>
       </c>
       <c r="U38" s="1">
-        <v>-95.158162000000004</v>
+        <v>-88.049143000000001</v>
       </c>
       <c r="V38" s="19">
-        <v>35570000</v>
+        <v>4000000</v>
       </c>
       <c r="W38" s="19">
-        <v>134734.84848484848</v>
+        <v>0</v>
       </c>
       <c r="X38" s="19">
-        <v>160.43335498304106</v>
+        <v>42.367495657331695</v>
       </c>
       <c r="Y38" s="19">
         <v>0</v>
       </c>
       <c r="Z38" s="19">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="AA38" s="19">
-        <v>8150000</v>
+        <v>0</v>
       </c>
       <c r="AB38" s="19">
-        <v>4000000</v>
+        <v>0</v>
       </c>
       <c r="AC38" s="19">
         <v>0</v>
@@ -63878,23 +63903,17 @@
         <v>0</v>
       </c>
       <c r="AE38" s="19">
-        <v>0</v>
+        <v>2200001</v>
       </c>
       <c r="AF38" s="19">
         <v>0</v>
       </c>
       <c r="AG38" s="19">
         <f t="shared" si="1"/>
-        <v>14150000</v>
-      </c>
-      <c r="AH38" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="AI38" s="19">
-        <v>23120000</v>
+        <v>2200001</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -63902,25 +63921,25 @@
         <v>1</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>183</v>
+        <v>325</v>
       </c>
       <c r="E39" s="1">
         <v>5</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>53</v>
+        <v>329</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H39" s="17" t="s">
-        <v>217</v>
+        <v>326</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>212</v>
       </c>
       <c r="I39" s="1">
-        <v>75252</v>
+        <v>53213</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="K39" s="1">
         <v>2</v>
@@ -63929,46 +63948,46 @@
         <v>3</v>
       </c>
       <c r="M39" s="1">
-        <v>494</v>
-      </c>
-      <c r="N39" s="6">
-        <v>377550</v>
+        <v>100</v>
+      </c>
+      <c r="N39" s="7">
+        <v>92375</v>
       </c>
       <c r="O39" s="7">
         <v>-1</v>
       </c>
-      <c r="P39" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q39" s="9">
+      <c r="P39" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q39" s="13">
         <v>1</v>
       </c>
-      <c r="R39" s="11">
-        <v>42491</v>
+      <c r="R39" s="10">
+        <v>43556</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>225</v>
+        <v>349</v>
       </c>
       <c r="T39" s="1">
-        <v>32.989317</v>
+        <v>43.041727999999999</v>
       </c>
       <c r="U39" s="1">
-        <v>-96.770483999999996</v>
+        <v>-88.008301000000003</v>
       </c>
       <c r="V39" s="19">
-        <v>37000000</v>
+        <v>10000000</v>
       </c>
       <c r="W39" s="19">
-        <v>74898.785425101218</v>
+        <v>100000</v>
       </c>
       <c r="X39" s="19">
-        <v>98.000264865580718</v>
+        <v>108.25439783491204</v>
       </c>
       <c r="Y39" s="19">
-        <v>750000</v>
+        <v>0</v>
       </c>
       <c r="Z39" s="19">
-        <v>2700000</v>
+        <v>0</v>
       </c>
       <c r="AA39" s="19">
         <v>0</v>
@@ -63977,29 +63996,23 @@
         <v>0</v>
       </c>
       <c r="AC39" s="19">
-        <v>3300000</v>
+        <v>0</v>
       </c>
       <c r="AD39" s="19">
-        <v>6750000</v>
+        <v>0</v>
       </c>
       <c r="AE39" s="19">
         <v>0</v>
       </c>
       <c r="AF39" s="19">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="AG39" s="19">
         <f t="shared" si="1"/>
-        <v>13500000</v>
-      </c>
-      <c r="AH39" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="AI39" s="19">
-        <v>27580524.309999999</v>
+        <v>10000000</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -64007,25 +64020,25 @@
         <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E40" s="1">
         <v>5</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="H40" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I40" s="1">
-        <v>64083</v>
+        <v>75214</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="K40" s="1">
         <v>2</v>
@@ -64034,55 +64047,55 @@
         <v>3</v>
       </c>
       <c r="M40" s="1">
-        <v>269</v>
+        <v>435</v>
       </c>
       <c r="N40" s="6">
-        <v>231011</v>
+        <v>338649</v>
       </c>
       <c r="O40" s="7">
         <v>-1</v>
       </c>
       <c r="P40" s="8" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="Q40" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R40" s="11">
-        <v>43312</v>
+        <v>42598</v>
       </c>
       <c r="T40" s="1">
-        <v>38.809646999999998</v>
+        <v>32.807751000000003</v>
       </c>
       <c r="U40" s="1">
-        <v>-94.476020000000005</v>
+        <v>-96.731745000000004</v>
       </c>
       <c r="V40" s="19">
-        <v>35025000</v>
+        <v>68750000</v>
       </c>
       <c r="W40" s="19">
-        <v>130204.46096654276</v>
+        <v>158045.97701149425</v>
       </c>
       <c r="X40" s="19">
-        <v>151.61615680638585</v>
+        <v>203.01255872599654</v>
       </c>
       <c r="Y40" s="19">
         <v>0</v>
       </c>
       <c r="Z40" s="19">
-        <v>0</v>
+        <v>3277933.0900000003</v>
       </c>
       <c r="AA40" s="19">
-        <v>8188000</v>
+        <v>0</v>
       </c>
       <c r="AB40" s="19">
         <v>0</v>
       </c>
       <c r="AC40" s="19">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="AD40" s="19">
-        <v>2672000</v>
+        <v>29501397.789999999</v>
       </c>
       <c r="AE40" s="19">
         <v>0</v>
@@ -64092,16 +64105,16 @@
       </c>
       <c r="AG40" s="19">
         <f t="shared" si="1"/>
-        <v>13360000</v>
+        <v>32779330.879999999</v>
       </c>
       <c r="AH40" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AI40" s="19">
-        <v>24518000</v>
+        <v>37800000</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -64109,25 +64122,25 @@
         <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>187</v>
+        <v>74</v>
       </c>
       <c r="E41" s="1">
         <v>5</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="I41" s="1">
-        <v>19468</v>
+        <v>75051</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="K41" s="1">
         <v>2</v>
@@ -64136,37 +64149,40 @@
         <v>3</v>
       </c>
       <c r="M41" s="1">
-        <v>198</v>
+        <v>281</v>
       </c>
       <c r="N41" s="6">
-        <v>216254</v>
+        <v>228160</v>
       </c>
       <c r="O41" s="7">
         <v>-1</v>
       </c>
       <c r="P41" s="8" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q41" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R41" s="11">
-        <v>43553</v>
+        <v>43221</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="T41" s="1">
-        <v>40.234037999999998</v>
+        <v>32.733854000000001</v>
       </c>
       <c r="U41" s="1">
-        <v>-75.534552000000005</v>
+        <v>-97.017032999999998</v>
       </c>
       <c r="V41" s="19">
-        <v>38250000</v>
+        <v>30800000</v>
       </c>
       <c r="W41" s="19">
-        <v>193181.81818181818</v>
+        <v>109608.54092526691</v>
       </c>
       <c r="X41" s="19">
-        <v>176.87534103415427</v>
+        <v>134.99298737727909</v>
       </c>
       <c r="Y41" s="19">
         <v>0</v>
@@ -64175,16 +64191,16 @@
         <v>0</v>
       </c>
       <c r="AA41" s="19">
-        <v>4045714</v>
+        <v>7300000</v>
       </c>
       <c r="AB41" s="19">
-        <v>6432686</v>
+        <v>0</v>
       </c>
       <c r="AC41" s="19">
         <v>0</v>
       </c>
       <c r="AD41" s="19">
-        <v>2619600</v>
+        <v>7300000</v>
       </c>
       <c r="AE41" s="19">
         <v>0</v>
@@ -64194,16 +64210,16 @@
       </c>
       <c r="AG41" s="19">
         <f t="shared" si="1"/>
-        <v>13098000</v>
+        <v>14600000</v>
       </c>
       <c r="AH41" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="AI41" s="19">
-        <v>29002000</v>
+        <v>18995000</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -64211,25 +64227,25 @@
         <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>90</v>
+        <v>318</v>
       </c>
       <c r="E42" s="1">
         <v>5</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>91</v>
+        <v>319</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H42" s="17" t="s">
-        <v>207</v>
+        <v>104</v>
+      </c>
+      <c r="H42" s="20" t="s">
+        <v>212</v>
       </c>
       <c r="I42" s="1">
-        <v>30047</v>
+        <v>53186</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="K42" s="1">
         <v>2</v>
@@ -64238,37 +64254,40 @@
         <v>3</v>
       </c>
       <c r="M42" s="1">
-        <v>280</v>
-      </c>
-      <c r="N42" s="6">
-        <v>285412</v>
+        <v>78</v>
+      </c>
+      <c r="N42" s="7">
+        <v>45820</v>
       </c>
       <c r="O42" s="7">
         <v>-1</v>
       </c>
-      <c r="P42" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q42" s="9">
-        <v>2</v>
-      </c>
-      <c r="R42" s="11">
-        <v>43605</v>
+      <c r="P42" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q42" s="13">
+        <v>1</v>
+      </c>
+      <c r="R42" s="10">
+        <v>43908</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="T42" s="1">
-        <v>33.899116999999997</v>
+        <v>43.012256999999998</v>
       </c>
       <c r="U42" s="1">
-        <v>-84.162585000000007</v>
+        <v>-88.230245999999994</v>
       </c>
       <c r="V42" s="19">
-        <v>31050000</v>
+        <v>6735000</v>
       </c>
       <c r="W42" s="19">
-        <v>110892.85714285714</v>
+        <v>86346.153846153844</v>
       </c>
       <c r="X42" s="19">
-        <v>108.79009992572141</v>
+        <v>146.98821475338281</v>
       </c>
       <c r="Y42" s="19">
         <v>0</v>
@@ -64280,32 +64299,26 @@
         <v>0</v>
       </c>
       <c r="AB42" s="19">
-        <v>11516400</v>
+        <v>0</v>
       </c>
       <c r="AC42" s="19">
         <v>0</v>
       </c>
       <c r="AD42" s="19">
-        <v>1279600</v>
+        <v>0</v>
       </c>
       <c r="AE42" s="19">
         <v>0</v>
       </c>
       <c r="AF42" s="19">
-        <v>0</v>
+        <v>3056134.61</v>
       </c>
       <c r="AG42" s="19">
         <f t="shared" si="1"/>
-        <v>12796000</v>
-      </c>
-      <c r="AH42" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="AI42" s="19">
-        <v>21657000</v>
+        <v>3056134.61</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -64313,25 +64326,25 @@
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="E43" s="1">
         <v>5</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="I43" s="1">
-        <v>76132</v>
+        <v>64083</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="K43" s="1">
         <v>2</v>
@@ -64340,40 +64353,37 @@
         <v>3</v>
       </c>
       <c r="M43" s="1">
-        <v>323</v>
+        <v>269</v>
       </c>
       <c r="N43" s="6">
-        <v>232775</v>
+        <v>231011</v>
       </c>
       <c r="O43" s="7">
         <v>-1</v>
       </c>
       <c r="P43" s="8" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Q43" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R43" s="11">
-        <v>43529</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>234</v>
+        <v>43312</v>
       </c>
       <c r="T43" s="1">
-        <v>32.989317</v>
+        <v>38.809646999999998</v>
       </c>
       <c r="U43" s="1">
-        <v>-96.770483999999996</v>
+        <v>-94.476020000000005</v>
       </c>
       <c r="V43" s="19">
-        <v>26750000</v>
+        <v>35025000</v>
       </c>
       <c r="W43" s="19">
-        <v>82817.337461300311</v>
+        <v>130204.46096654276</v>
       </c>
       <c r="X43" s="19">
-        <v>114.91783911502525</v>
+        <v>151.61615680638585</v>
       </c>
       <c r="Y43" s="19">
         <v>0</v>
@@ -64382,16 +64392,16 @@
         <v>0</v>
       </c>
       <c r="AA43" s="19">
-        <v>8550000</v>
+        <v>8188000</v>
       </c>
       <c r="AB43" s="19">
-        <v>4000000</v>
+        <v>0</v>
       </c>
       <c r="AC43" s="19">
-        <v>0</v>
+        <v>2500000</v>
       </c>
       <c r="AD43" s="19">
-        <v>0</v>
+        <v>2672000</v>
       </c>
       <c r="AE43" s="19">
         <v>0</v>
@@ -64401,16 +64411,16 @@
       </c>
       <c r="AG43" s="19">
         <f t="shared" si="1"/>
-        <v>12550000</v>
+        <v>13360000</v>
       </c>
       <c r="AH43" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="AI43" s="19">
-        <v>17387000</v>
+        <v>24518000</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -64418,101 +64428,98 @@
         <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>45</v>
+        <v>336</v>
       </c>
       <c r="E44" s="1">
         <v>5</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>46</v>
+        <v>338</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H44" s="17" t="s">
-        <v>206</v>
+        <v>337</v>
+      </c>
+      <c r="H44" s="20" t="s">
+        <v>211</v>
       </c>
       <c r="I44" s="1">
-        <v>33610</v>
+        <v>76051</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>47</v>
+        <v>339</v>
       </c>
       <c r="K44" s="1">
+        <v>2</v>
+      </c>
+      <c r="L44" s="1">
+        <v>3</v>
+      </c>
+      <c r="M44" s="7">
+        <v>226</v>
+      </c>
+      <c r="N44" s="1">
+        <v>171529</v>
+      </c>
+      <c r="O44" s="7">
+        <v>-1</v>
+      </c>
+      <c r="P44" s="12">
+        <v>1974</v>
+      </c>
+      <c r="Q44" s="13">
         <v>1</v>
       </c>
-      <c r="L44" s="1">
-        <v>1</v>
-      </c>
-      <c r="M44" s="1">
-        <v>0</v>
-      </c>
-      <c r="N44" s="6">
-        <v>334279</v>
-      </c>
-      <c r="O44" s="7">
-        <v>15</v>
-      </c>
-      <c r="P44" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q44" s="9">
-        <v>1</v>
-      </c>
-      <c r="R44" s="11">
-        <v>42985</v>
+      <c r="R44" s="10">
+        <v>36972</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="T44" s="1">
-        <v>28.001159000000001</v>
+        <v>32.957152000000001</v>
       </c>
       <c r="U44" s="1">
-        <v>-82.359121999999999</v>
+        <v>-97.091216000000003</v>
       </c>
       <c r="V44" s="19">
-        <v>22500000</v>
+        <v>6900000</v>
       </c>
       <c r="W44" s="19">
-        <v>0</v>
+        <v>110973.45132743364</v>
       </c>
       <c r="X44" s="19">
-        <v>67.309044241486902</v>
+        <v>146.21434276419731</v>
       </c>
       <c r="Y44" s="19">
         <v>0</v>
       </c>
       <c r="Z44" s="19">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="AA44" s="19">
-        <v>5900000</v>
+        <v>0</v>
       </c>
       <c r="AB44" s="19">
         <v>0</v>
       </c>
       <c r="AC44" s="19">
-        <v>4000000</v>
+        <v>0</v>
       </c>
       <c r="AD44" s="19">
         <v>0</v>
       </c>
       <c r="AE44" s="19">
-        <v>0</v>
+        <v>2850000</v>
       </c>
       <c r="AF44" s="19">
         <v>0</v>
       </c>
       <c r="AG44" s="19">
         <f t="shared" si="1"/>
-        <v>11900000</v>
-      </c>
-      <c r="AH44" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="AI44" s="19">
-        <v>21300000</v>
+        <v>2850000</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -64520,25 +64527,25 @@
         <v>1</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="E45" s="1">
         <v>5</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="I45" s="1">
-        <v>30087</v>
+        <v>75234</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="K45" s="1">
         <v>2</v>
@@ -64547,55 +64554,58 @@
         <v>3</v>
       </c>
       <c r="M45" s="1">
-        <v>268</v>
+        <v>509</v>
       </c>
       <c r="N45" s="6">
-        <v>232140</v>
+        <v>476792</v>
       </c>
       <c r="O45" s="7">
         <v>-1</v>
       </c>
       <c r="P45" s="8" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="Q45" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R45" s="11">
-        <v>43553</v>
+        <v>42915</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="T45" s="1">
-        <v>33.828491999999997</v>
+        <v>32.902931000000002</v>
       </c>
       <c r="U45" s="1">
-        <v>-84.112199000000004</v>
+        <v>-96.916843999999998</v>
       </c>
       <c r="V45" s="19">
-        <v>31250000</v>
+        <v>85698000</v>
       </c>
       <c r="W45" s="19">
-        <v>116604.4776119403</v>
+        <v>168365.42239685659</v>
       </c>
       <c r="X45" s="19">
-        <v>134.61704144051004</v>
+        <v>179.73875400593971</v>
       </c>
       <c r="Y45" s="19">
         <v>0</v>
       </c>
       <c r="Z45" s="19">
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="AA45" s="19">
-        <v>3867500</v>
+        <v>8925000</v>
       </c>
       <c r="AB45" s="19">
-        <v>3867500</v>
+        <v>0</v>
       </c>
       <c r="AC45" s="19">
-        <v>0</v>
+        <v>5775000</v>
       </c>
       <c r="AD45" s="19">
-        <v>3315000</v>
+        <v>16200000</v>
       </c>
       <c r="AE45" s="19">
         <v>0</v>
@@ -64605,16 +64615,16 @@
       </c>
       <c r="AG45" s="19">
         <f t="shared" si="1"/>
-        <v>11050000</v>
+        <v>32400000</v>
       </c>
       <c r="AH45" s="1" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="AI45" s="19">
-        <v>24950000</v>
+        <v>55200000</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -64622,73 +64632,64 @@
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="E46" s="1">
-        <v>5</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>337</v>
+        <v>3</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H46" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="I46" s="1">
-        <v>53213</v>
+        <v>64</v>
+      </c>
+      <c r="H46" s="17" t="s">
+        <v>212</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K46" s="1">
+        <v>1</v>
+      </c>
+      <c r="L46" s="1">
         <v>2</v>
       </c>
-      <c r="L46" s="1">
+      <c r="M46" s="1">
+        <v>0</v>
+      </c>
+      <c r="N46" s="6">
+        <v>340615</v>
+      </c>
+      <c r="O46" s="7">
         <v>3</v>
       </c>
-      <c r="M46" s="1">
-        <v>100</v>
-      </c>
-      <c r="N46" s="7">
-        <v>92375</v>
-      </c>
-      <c r="O46" s="7">
-        <v>-1</v>
-      </c>
-      <c r="P46" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q46" s="13">
+      <c r="P46" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q46" s="9">
         <v>1</v>
       </c>
-      <c r="R46" s="10">
-        <v>43556</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>359</v>
+      <c r="R46" s="11">
+        <v>42528</v>
       </c>
       <c r="T46" s="1">
-        <v>43.041727999999999</v>
+        <v>42.953695000000003</v>
       </c>
       <c r="U46" s="1">
-        <v>-88.008301000000003</v>
+        <v>-87.915238000000002</v>
       </c>
       <c r="V46" s="19">
-        <v>10000000</v>
+        <v>9250000</v>
       </c>
       <c r="W46" s="19">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="X46" s="19">
-        <v>108.25439783491204</v>
+        <v>27.156760565447794</v>
       </c>
       <c r="Y46" s="19">
         <v>0</v>
       </c>
       <c r="Z46" s="19">
-        <v>0</v>
+        <v>4720000</v>
       </c>
       <c r="AA46" s="19">
         <v>0</v>
@@ -64706,14 +64707,20 @@
         <v>0</v>
       </c>
       <c r="AF46" s="19">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="AG46" s="19">
         <f t="shared" ref="AG46:AG77" si="2">+SUM(Y46:AF46)</f>
-        <v>10000000</v>
+        <v>4720000</v>
+      </c>
+      <c r="AH46" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="AI46" s="19">
+        <v>3709430</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -64721,19 +64728,19 @@
         <v>0</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E47" s="1">
         <v>8</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="I47" s="1">
         <v>55441</v>
@@ -64757,7 +64764,7 @@
         <v>-1</v>
       </c>
       <c r="P47" s="8" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="Q47" s="9">
         <v>5</v>
@@ -64812,7 +64819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -64820,25 +64827,25 @@
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="E48" s="1">
         <v>5</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>340</v>
+        <v>84</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="H48" s="20" t="s">
-        <v>218</v>
+        <v>85</v>
+      </c>
+      <c r="H48" s="17" t="s">
+        <v>210</v>
       </c>
       <c r="I48" s="1">
-        <v>53402</v>
+        <v>15212</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="K48" s="1">
         <v>2</v>
@@ -64847,71 +64854,74 @@
         <v>3</v>
       </c>
       <c r="M48" s="1">
-        <v>202</v>
-      </c>
-      <c r="N48" s="7">
-        <v>163760</v>
+        <v>232</v>
+      </c>
+      <c r="N48" s="6">
+        <v>185884</v>
       </c>
       <c r="O48" s="7">
         <v>-1</v>
       </c>
-      <c r="P48" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q48" s="13">
-        <v>1</v>
-      </c>
-      <c r="R48" s="10">
-        <v>43874</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>358</v>
+      <c r="P48" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q48" s="9">
+        <v>11</v>
+      </c>
+      <c r="R48" s="11">
+        <v>43916</v>
       </c>
       <c r="T48" s="1">
-        <v>42.765991</v>
+        <v>40.448481999999998</v>
       </c>
       <c r="U48" s="1">
-        <v>-87.803038999999998</v>
+        <v>-79.999180999999993</v>
       </c>
       <c r="V48" s="19">
+        <v>54000000</v>
+      </c>
+      <c r="W48" s="19">
+        <v>232758.62068965516</v>
+      </c>
+      <c r="X48" s="19">
+        <v>290.50375503001874</v>
+      </c>
+      <c r="Y48" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="19">
+        <v>5095000</v>
+      </c>
+      <c r="AB48" s="19">
         <v>14000000</v>
       </c>
-      <c r="W48" s="19">
-        <v>69306.930693069313</v>
-      </c>
-      <c r="X48" s="19">
-        <v>85.490962383976552</v>
-      </c>
-      <c r="Y48" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="19">
-        <v>0</v>
-      </c>
       <c r="AC48" s="19">
         <v>0</v>
       </c>
       <c r="AD48" s="19">
-        <v>0</v>
+        <v>1005000</v>
       </c>
       <c r="AE48" s="19">
         <v>0</v>
       </c>
       <c r="AF48" s="19">
-        <v>8179995.3200000003</v>
+        <v>0</v>
       </c>
       <c r="AG48" s="19">
         <f t="shared" si="2"/>
-        <v>8179995.3200000003</v>
+        <v>20100000</v>
+      </c>
+      <c r="AH48" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="AI48" s="19">
+        <v>40500000</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
@@ -64919,7 +64929,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E49" s="1">
         <v>7</v>
@@ -64928,7 +64938,7 @@
         <v>41</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>41</v>
@@ -64949,7 +64959,7 @@
         <v>7</v>
       </c>
       <c r="P49" s="8" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="Q49" s="9">
         <v>8</v>
@@ -64995,13 +65005,13 @@
         <v>7720000</v>
       </c>
       <c r="AH49" s="1" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="AI49" s="19">
         <v>7578250</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -65009,67 +65019,52 @@
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>220</v>
+        <v>355</v>
       </c>
       <c r="E50" s="1">
+        <v>2</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H50" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K50" s="1">
+        <v>1</v>
+      </c>
+      <c r="L50" s="1">
+        <v>2</v>
+      </c>
+      <c r="M50" s="1">
+        <v>0</v>
+      </c>
+      <c r="N50" s="7">
+        <v>845622</v>
+      </c>
+      <c r="O50" s="7">
         <v>5</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="H50" s="17">
-        <v>55</v>
-      </c>
-      <c r="I50" s="1">
-        <v>53151</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K50" s="1">
-        <v>2</v>
-      </c>
-      <c r="L50" s="1">
-        <v>3</v>
-      </c>
-      <c r="M50" s="1">
-        <v>80</v>
-      </c>
-      <c r="N50" s="6">
-        <v>76960</v>
-      </c>
-      <c r="O50" s="7">
-        <v>-1</v>
-      </c>
-      <c r="P50" s="8">
-        <v>1986</v>
+      <c r="P50" s="8" t="s">
+        <v>279</v>
       </c>
       <c r="Q50" s="9">
-        <v>1</v>
-      </c>
-      <c r="R50" s="10">
-        <v>43556</v>
-      </c>
-      <c r="S50" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="T50" s="1">
-        <v>42.988776000000001</v>
-      </c>
-      <c r="U50" s="1">
-        <v>-88.071715999999995</v>
+        <v>10</v>
+      </c>
+      <c r="R50" s="11">
+        <v>43032</v>
       </c>
       <c r="V50" s="19">
-        <v>7500000</v>
+        <v>38350000</v>
       </c>
       <c r="W50" s="19">
-        <v>93750</v>
+        <v>0</v>
       </c>
       <c r="X50" s="19">
-        <v>97.453222453222452</v>
+        <v>45.351232583825869</v>
       </c>
       <c r="Y50" s="19">
         <v>0</v>
@@ -65078,32 +65073,35 @@
         <v>0</v>
       </c>
       <c r="AA50" s="19">
-        <v>0</v>
+        <v>7558000</v>
       </c>
       <c r="AB50" s="19">
         <v>0</v>
       </c>
       <c r="AC50" s="19">
-        <v>0</v>
+        <v>7775000</v>
       </c>
       <c r="AD50" s="19">
-        <v>0</v>
+        <v>807000</v>
       </c>
       <c r="AE50" s="19">
         <v>0</v>
       </c>
       <c r="AF50" s="19">
-        <v>7500000</v>
+        <v>0</v>
       </c>
       <c r="AG50" s="19">
         <f t="shared" si="2"/>
-        <v>7500000</v>
+        <v>16140000</v>
+      </c>
+      <c r="AH50" s="1" t="s">
+        <v>312</v>
       </c>
       <c r="AI50" s="19">
-        <v>0</v>
+        <v>25879374.989999998</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -65111,19 +65109,19 @@
         <v>0</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E51" s="1">
         <v>2</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="I51" s="1">
         <v>55344</v>
@@ -65147,7 +65145,7 @@
         <v>-1</v>
       </c>
       <c r="P51" s="8" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="Q51" s="9">
         <v>10</v>
@@ -65202,7 +65200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -65210,7 +65208,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E52" s="1">
         <v>6</v>
@@ -65219,7 +65217,7 @@
         <v>41</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>41</v>
@@ -65240,7 +65238,7 @@
         <v>3</v>
       </c>
       <c r="P52" s="8" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="Q52" s="9">
         <v>9</v>
@@ -65286,13 +65284,13 @@
         <v>6555945.9800000004</v>
       </c>
       <c r="AH52" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AI52" s="19">
         <v>5094679</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -65300,19 +65298,19 @@
         <v>0</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E53" s="1">
         <v>2</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="I53" s="1">
         <v>55344</v>
@@ -65336,7 +65334,7 @@
         <v>-1</v>
       </c>
       <c r="P53" s="8" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="Q53" s="9">
         <v>10</v>
@@ -65391,7 +65389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -65399,25 +65397,25 @@
         <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>61</v>
+        <v>367</v>
       </c>
       <c r="E54" s="1">
         <v>5</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="I54" s="1">
-        <v>53233</v>
+        <v>32606</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="K54" s="1">
         <v>2</v>
@@ -65426,40 +65424,40 @@
         <v>3</v>
       </c>
       <c r="M54" s="1">
-        <v>100</v>
+        <v>298</v>
       </c>
       <c r="N54" s="6">
-        <v>70473</v>
+        <v>288960</v>
       </c>
       <c r="O54" s="7">
         <v>-1</v>
       </c>
       <c r="P54" s="8" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="Q54" s="9">
         <v>1</v>
       </c>
       <c r="R54" s="11">
-        <v>43545</v>
+        <v>43763</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="T54" s="1">
-        <v>43.045977000000001</v>
+        <v>29.68797</v>
       </c>
       <c r="U54" s="1">
-        <v>-87.922753999999998</v>
+        <v>-82.427938999999995</v>
       </c>
       <c r="V54" s="19">
-        <v>16000000</v>
+        <v>56000000</v>
       </c>
       <c r="W54" s="19">
-        <v>160000</v>
+        <v>187919.46308724832</v>
       </c>
       <c r="X54" s="19">
-        <v>227.03730506718884</v>
+        <v>193.79844961240309</v>
       </c>
       <c r="Y54" s="19">
         <v>0</v>
@@ -65468,10 +65466,10 @@
         <v>0</v>
       </c>
       <c r="AA54" s="19">
-        <v>6087942</v>
+        <v>5700000</v>
       </c>
       <c r="AB54" s="19">
-        <v>0</v>
+        <v>14000000</v>
       </c>
       <c r="AC54" s="19">
         <v>0</v>
@@ -65487,16 +65485,16 @@
       </c>
       <c r="AG54" s="19">
         <f t="shared" si="2"/>
-        <v>6087942</v>
+        <v>19700000</v>
       </c>
       <c r="AH54" s="1" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="AI54" s="19">
-        <v>6250000</v>
+        <v>40000000</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -65504,76 +65502,85 @@
         <v>1</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>109</v>
+        <v>364</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>363</v>
       </c>
       <c r="E55" s="1">
+        <v>5</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H55" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="I55" s="1">
+        <v>30047</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K55" s="1">
+        <v>2</v>
+      </c>
+      <c r="L55" s="1">
         <v>3</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H55" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K55" s="1">
-        <v>1</v>
-      </c>
-      <c r="L55" s="1">
+      <c r="M55" s="1">
+        <v>280</v>
+      </c>
+      <c r="N55" s="6">
+        <v>285412</v>
+      </c>
+      <c r="O55" s="7">
+        <v>-1</v>
+      </c>
+      <c r="P55" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q55" s="9">
         <v>2</v>
       </c>
-      <c r="M55" s="1">
-        <v>0</v>
-      </c>
-      <c r="N55" s="6">
-        <v>340615</v>
-      </c>
-      <c r="O55" s="7">
-        <v>3</v>
-      </c>
-      <c r="P55" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q55" s="9">
-        <v>1</v>
-      </c>
       <c r="R55" s="11">
-        <v>42528</v>
+        <v>43605</v>
       </c>
       <c r="T55" s="1">
-        <v>42.953695000000003</v>
+        <v>33.899116999999997</v>
       </c>
       <c r="U55" s="1">
-        <v>-87.915238000000002</v>
+        <v>-84.162585000000007</v>
       </c>
       <c r="V55" s="19">
-        <v>9250000</v>
+        <v>31050000</v>
       </c>
       <c r="W55" s="19">
-        <v>0</v>
+        <v>110892.85714285714</v>
       </c>
       <c r="X55" s="19">
-        <v>27.156760565447794</v>
+        <v>108.79009992572141</v>
       </c>
       <c r="Y55" s="19">
         <v>0</v>
       </c>
       <c r="Z55" s="19">
-        <v>4720000</v>
+        <v>0</v>
       </c>
       <c r="AA55" s="19">
         <v>0</v>
       </c>
       <c r="AB55" s="19">
-        <v>0</v>
+        <v>11516400</v>
       </c>
       <c r="AC55" s="19">
         <v>0</v>
       </c>
       <c r="AD55" s="19">
-        <v>0</v>
+        <v>1279600</v>
       </c>
       <c r="AE55" s="19">
         <v>0</v>
@@ -65583,16 +65590,16 @@
       </c>
       <c r="AG55" s="19">
         <f t="shared" si="2"/>
-        <v>4720000</v>
+        <v>12796000</v>
       </c>
       <c r="AH55" s="1" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="AI55" s="19">
-        <v>3709430</v>
+        <v>21657000</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
@@ -65600,7 +65607,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E56" s="1">
         <v>8</v>
@@ -65609,7 +65616,7 @@
         <v>41</v>
       </c>
       <c r="H56" s="17" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>41</v>
@@ -65630,7 +65637,7 @@
         <v>7</v>
       </c>
       <c r="P56" s="8" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="Q56" s="9">
         <v>5</v>
@@ -65682,13 +65689,13 @@
         <v>3950000</v>
       </c>
       <c r="AH56" s="1" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="AI56" s="19">
         <v>6115285</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -65696,22 +65703,22 @@
         <v>0</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E57" s="1">
         <v>4</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>60</v>
       </c>
       <c r="H57" s="17" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="I57" s="1">
         <v>77090</v>
@@ -65735,7 +65742,7 @@
         <v>-1</v>
       </c>
       <c r="P57" s="8" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="Q57" s="9">
         <v>1</v>
@@ -65744,7 +65751,7 @@
         <v>43817</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="T57" s="1">
         <v>30.027327</v>
@@ -65790,13 +65797,13 @@
         <v>9705882.3529411759</v>
       </c>
       <c r="AH57" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="AI57" s="19">
         <v>24336000</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
@@ -65804,22 +65811,22 @@
         <v>0</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E58" s="1">
         <v>4</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>60</v>
       </c>
       <c r="H58" s="17" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="I58" s="1">
         <v>77066</v>
@@ -65843,7 +65850,7 @@
         <v>-1</v>
       </c>
       <c r="P58" s="8" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="Q58" s="9">
         <v>1</v>
@@ -65852,7 +65859,7 @@
         <v>43817</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="T58" s="1">
         <v>29.981292</v>
@@ -65898,13 +65905,13 @@
         <v>7683823.5294117648</v>
       </c>
       <c r="AH58" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="AI58" s="19">
         <v>18000000</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
@@ -65912,28 +65919,28 @@
         <v>0</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E59" s="1">
         <v>4</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="I59" s="1">
         <v>74136</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K59" s="1">
         <v>2</v>
@@ -65951,7 +65958,7 @@
         <v>-1</v>
       </c>
       <c r="P59" s="8" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="Q59" s="9">
         <v>1</v>
@@ -65960,7 +65967,7 @@
         <v>43817</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="T59" s="1">
         <v>36.065963000000004</v>
@@ -66006,13 +66013,13 @@
         <v>2992647.0588235292</v>
       </c>
       <c r="AH59" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="AI59" s="19">
         <v>6162000</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
@@ -66020,28 +66027,28 @@
         <v>0</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E60" s="1">
         <v>4</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H60" s="17" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="I60" s="1">
         <v>73120</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K60" s="1">
         <v>2</v>
@@ -66059,7 +66066,7 @@
         <v>-1</v>
       </c>
       <c r="P60" s="8" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="Q60" s="9">
         <v>1</v>
@@ -66068,7 +66075,7 @@
         <v>43817</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="T60" s="1">
         <v>35.597188000000003</v>
@@ -66114,13 +66121,13 @@
         <v>10838235.294117648</v>
       </c>
       <c r="AH60" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="AI60" s="19">
         <v>24535000</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
@@ -66128,28 +66135,28 @@
         <v>0</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E61" s="1">
         <v>4</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H61" s="17" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="I61" s="1">
         <v>74132</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K61" s="1">
         <v>2</v>
@@ -66167,7 +66174,7 @@
         <v>-1</v>
       </c>
       <c r="P61" s="8" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="Q61" s="9">
         <v>1</v>
@@ -66176,7 +66183,7 @@
         <v>43817</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="T61" s="1">
         <v>36.071460999999999</v>
@@ -66222,13 +66229,13 @@
         <v>5985294.1176470583</v>
       </c>
       <c r="AH61" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="AI61" s="19">
         <v>13486000</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
@@ -66236,28 +66243,28 @@
         <v>0</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E62" s="1">
         <v>4</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H62" s="17" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="I62" s="1">
         <v>73114</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K62" s="1">
         <v>2</v>
@@ -66275,7 +66282,7 @@
         <v>-1</v>
       </c>
       <c r="P62" s="8" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="Q62" s="9">
         <v>1</v>
@@ -66284,7 +66291,7 @@
         <v>43817</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="T62" s="1">
         <v>35.581014000000003</v>
@@ -66330,13 +66337,13 @@
         <v>3720588.2352941176</v>
       </c>
       <c r="AH62" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="AI62" s="19">
         <v>8408000</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
@@ -66344,22 +66351,22 @@
         <v>0</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E63" s="1">
         <v>4</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>60</v>
       </c>
       <c r="H63" s="17" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="I63" s="1">
         <v>77079</v>
@@ -66383,7 +66390,7 @@
         <v>-1</v>
       </c>
       <c r="P63" s="8" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="Q63" s="9">
         <v>1</v>
@@ -66392,7 +66399,7 @@
         <v>43817</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="T63" s="1">
         <v>29.777594000000001</v>
@@ -66438,13 +66445,13 @@
         <v>4852941.176470588</v>
       </c>
       <c r="AH63" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="AI63" s="19">
         <v>11330000</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -66452,28 +66459,28 @@
         <v>0</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E64" s="1">
         <v>4</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H64" s="17" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="I64" s="1">
         <v>73142</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K64" s="1">
         <v>2</v>
@@ -66491,7 +66498,7 @@
         <v>-1</v>
       </c>
       <c r="P64" s="8" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="Q64" s="9">
         <v>1</v>
@@ -66500,7 +66507,7 @@
         <v>43817</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="T64" s="1">
         <v>35.595573000000002</v>
@@ -66546,13 +66553,13 @@
         <v>2102941.1764705884</v>
       </c>
       <c r="AH64" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="AI64" s="19">
         <v>4859000</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>0</v>
       </c>
@@ -66560,22 +66567,22 @@
         <v>0</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E65" s="1">
         <v>4</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>60</v>
       </c>
       <c r="H65" s="17" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="I65" s="1">
         <v>77077</v>
@@ -66599,7 +66606,7 @@
         <v>-1</v>
       </c>
       <c r="P65" s="8" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="Q65" s="9">
         <v>1</v>
@@ -66608,7 +66615,7 @@
         <v>43817</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="T65" s="1">
         <v>29.738977999999999</v>
@@ -66654,13 +66661,13 @@
         <v>10352941.176470589</v>
       </c>
       <c r="AH65" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="AI65" s="19">
         <v>22470000</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
@@ -66668,19 +66675,19 @@
         <v>0</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E66" s="1">
         <v>7</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H66" s="17" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="I66" s="1">
         <v>55369</v>
@@ -66704,7 +66711,7 @@
         <v>-1</v>
       </c>
       <c r="P66" s="8" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="Q66" s="9">
         <v>8</v>
@@ -66759,7 +66766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
@@ -66767,58 +66774,67 @@
         <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>38</v>
+        <v>365</v>
       </c>
       <c r="E67" s="1">
         <v>5</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>39</v>
+        <v>342</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H67" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="H67" s="20" t="s">
         <v>211</v>
       </c>
       <c r="I67" s="1">
-        <v>55427</v>
+        <v>75087</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>41</v>
+        <v>339</v>
       </c>
       <c r="K67" s="1">
+        <v>2</v>
+      </c>
+      <c r="L67" s="1">
+        <v>3</v>
+      </c>
+      <c r="M67" s="7">
+        <v>240</v>
+      </c>
+      <c r="N67" s="1">
+        <v>194672</v>
+      </c>
+      <c r="O67" s="7">
+        <v>-1</v>
+      </c>
+      <c r="P67" s="12">
+        <v>1980</v>
+      </c>
+      <c r="Q67" s="13">
         <v>1</v>
       </c>
-      <c r="L67" s="1">
-        <v>2</v>
-      </c>
-      <c r="M67" s="1">
-        <v>0</v>
-      </c>
-      <c r="N67" s="6">
-        <v>124068</v>
-      </c>
-      <c r="O67" s="7">
-        <v>1</v>
-      </c>
-      <c r="P67" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q67" s="9">
-        <v>12</v>
-      </c>
-      <c r="R67" s="11">
-        <v>43281</v>
+      <c r="R67" s="10">
+        <v>33938</v>
+      </c>
+      <c r="S67" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="T67" s="1">
+        <v>32.913938000000002</v>
+      </c>
+      <c r="U67" s="1">
+        <v>-96.454729999999998</v>
       </c>
       <c r="V67" s="19">
-        <v>8500000</v>
+        <v>3595635</v>
       </c>
       <c r="W67" s="19">
-        <v>0</v>
+        <v>136583.33333333334</v>
       </c>
       <c r="X67" s="19">
-        <v>68.510816648934451</v>
+        <v>168.38579764937947</v>
       </c>
       <c r="Y67" s="19">
         <v>0</v>
@@ -66827,7 +66843,7 @@
         <v>0</v>
       </c>
       <c r="AA67" s="19">
-        <v>3314700</v>
+        <v>0</v>
       </c>
       <c r="AB67" s="19">
         <v>0</v>
@@ -66836,26 +66852,20 @@
         <v>0</v>
       </c>
       <c r="AD67" s="19">
-        <v>368300</v>
+        <v>0</v>
       </c>
       <c r="AE67" s="19">
-        <v>0</v>
+        <v>825000</v>
       </c>
       <c r="AF67" s="19">
         <v>0</v>
       </c>
       <c r="AG67" s="19">
         <f t="shared" si="2"/>
-        <v>3683000</v>
-      </c>
-      <c r="AH67" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="AI67" s="19">
-        <v>5309009</v>
+        <v>825000</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
@@ -66863,28 +66873,28 @@
         <v>0</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E68" s="1">
         <v>4</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H68" s="17" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="I68" s="1">
         <v>73112</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K68" s="1">
         <v>2</v>
@@ -66902,7 +66912,7 @@
         <v>-1</v>
       </c>
       <c r="P68" s="8" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="Q68" s="9">
         <v>1</v>
@@ -66911,7 +66921,7 @@
         <v>43817</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="T68" s="1">
         <v>35.527355</v>
@@ -66957,13 +66967,13 @@
         <v>13264705.882352943</v>
       </c>
       <c r="AH68" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="AI68" s="19">
         <v>30157000</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
@@ -66971,64 +66981,64 @@
         <v>1</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>172</v>
+        <v>358</v>
       </c>
       <c r="E69" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>173</v>
+        <v>360</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H69" s="17" t="s">
-        <v>211</v>
+        <v>359</v>
+      </c>
+      <c r="H69" s="20" t="s">
+        <v>212</v>
       </c>
       <c r="I69" s="1">
-        <v>55431</v>
+        <v>53702</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="K69" s="1">
         <v>1</v>
       </c>
       <c r="L69" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M69" s="1">
         <v>0</v>
       </c>
-      <c r="N69" s="6">
-        <v>114631</v>
+      <c r="N69" s="7">
+        <v>69530</v>
       </c>
       <c r="O69" s="7">
         <v>1</v>
       </c>
-      <c r="P69" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q69" s="9">
-        <v>9</v>
-      </c>
-      <c r="R69" s="11">
-        <v>44012</v>
+      <c r="P69" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q69" s="13">
+        <v>1</v>
+      </c>
+      <c r="R69" s="10">
+        <v>43349</v>
       </c>
       <c r="T69" s="1">
-        <v>44.831158000000002</v>
+        <v>43.081878000000003</v>
       </c>
       <c r="U69" s="1">
-        <v>-93.300449999999998</v>
+        <v>-88.236626999999999</v>
       </c>
       <c r="V69" s="19">
-        <v>6000000</v>
+        <v>1750000</v>
       </c>
       <c r="W69" s="19">
         <v>0</v>
       </c>
       <c r="X69" s="19">
-        <v>52.341862148982386</v>
+        <v>25.168991802099814</v>
       </c>
       <c r="Y69" s="19">
         <v>0</v>
@@ -67037,10 +67047,10 @@
         <v>0</v>
       </c>
       <c r="AA69" s="19">
-        <v>0</v>
+        <v>1975000</v>
       </c>
       <c r="AB69" s="19">
-        <v>3250000</v>
+        <v>0</v>
       </c>
       <c r="AC69" s="19">
         <v>0</v>
@@ -67056,16 +67066,10 @@
       </c>
       <c r="AG69" s="19">
         <f t="shared" si="2"/>
-        <v>3250000</v>
-      </c>
-      <c r="AH69" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="AI69" s="19">
-        <v>3900000</v>
+        <v>1975000</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
@@ -67073,67 +67077,64 @@
         <v>1</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>326</v>
+        <v>172</v>
       </c>
       <c r="E70" s="1">
         <v>5</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>327</v>
+        <v>32</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H70" s="20" t="s">
-        <v>218</v>
+        <v>33</v>
+      </c>
+      <c r="H70" s="17" t="s">
+        <v>203</v>
       </c>
       <c r="I70" s="1">
-        <v>53186</v>
+        <v>60173</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="K70" s="1">
+        <v>1</v>
+      </c>
+      <c r="L70" s="1">
         <v>2</v>
       </c>
-      <c r="L70" s="1">
-        <v>3</v>
-      </c>
       <c r="M70" s="1">
-        <v>78</v>
-      </c>
-      <c r="N70" s="7">
-        <v>45820</v>
+        <v>0</v>
+      </c>
+      <c r="N70" s="6">
+        <v>72461</v>
       </c>
       <c r="O70" s="7">
-        <v>-1</v>
-      </c>
-      <c r="P70" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q70" s="13">
         <v>1</v>
       </c>
-      <c r="R70" s="10">
-        <v>43908</v>
-      </c>
-      <c r="S70" s="1" t="s">
-        <v>360</v>
+      <c r="P70" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q70" s="9">
+        <v>1</v>
+      </c>
+      <c r="R70" s="11">
+        <v>43616</v>
       </c>
       <c r="T70" s="1">
-        <v>43.012256999999998</v>
+        <v>42.053448000000003</v>
       </c>
       <c r="U70" s="1">
-        <v>-88.230245999999994</v>
+        <v>-88.060700999999995</v>
       </c>
       <c r="V70" s="19">
-        <v>6735000</v>
+        <v>3200000</v>
       </c>
       <c r="W70" s="19">
-        <v>86346.153846153844</v>
+        <v>0</v>
       </c>
       <c r="X70" s="19">
-        <v>146.98821475338281</v>
+        <v>44.161686976442503</v>
       </c>
       <c r="Y70" s="19">
         <v>0</v>
@@ -67145,7 +67146,7 @@
         <v>0</v>
       </c>
       <c r="AB70" s="19">
-        <v>0</v>
+        <v>1900000</v>
       </c>
       <c r="AC70" s="19">
         <v>0</v>
@@ -67157,14 +67158,20 @@
         <v>0</v>
       </c>
       <c r="AF70" s="19">
-        <v>3056134.61</v>
+        <v>0</v>
       </c>
       <c r="AG70" s="19">
         <f t="shared" si="2"/>
-        <v>3056134.61</v>
+        <v>1900000</v>
+      </c>
+      <c r="AH70" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AI70" s="19">
+        <v>2179345</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
@@ -67172,70 +67179,67 @@
         <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>346</v>
+        <v>90</v>
       </c>
       <c r="E71" s="1">
         <v>5</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>348</v>
+        <v>91</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="H71" s="20" t="s">
-        <v>217</v>
+        <v>92</v>
+      </c>
+      <c r="H71" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="I71" s="1">
-        <v>76051</v>
+        <v>55112</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>349</v>
+        <v>41</v>
       </c>
       <c r="K71" s="1">
+        <v>1</v>
+      </c>
+      <c r="L71" s="1">
+        <v>1</v>
+      </c>
+      <c r="M71" s="1">
+        <v>0</v>
+      </c>
+      <c r="N71" s="6">
+        <v>79028</v>
+      </c>
+      <c r="O71" s="7">
         <v>2</v>
       </c>
-      <c r="L71" s="1">
-        <v>3</v>
-      </c>
-      <c r="M71" s="7">
-        <v>226</v>
-      </c>
-      <c r="N71" s="1">
-        <v>171529</v>
-      </c>
-      <c r="O71" s="7">
-        <v>-1</v>
-      </c>
-      <c r="P71" s="12">
-        <v>1974</v>
-      </c>
-      <c r="Q71" s="13">
-        <v>1</v>
-      </c>
-      <c r="R71" s="10">
-        <v>36972</v>
-      </c>
-      <c r="S71" s="1" t="s">
-        <v>357</v>
+      <c r="P71" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q71" s="9">
+        <v>5</v>
+      </c>
+      <c r="R71" s="11">
+        <v>42143</v>
       </c>
       <c r="T71" s="1">
-        <v>32.957152000000001</v>
+        <v>45.076424000000003</v>
       </c>
       <c r="U71" s="1">
-        <v>-97.091216000000003</v>
+        <v>-93.187161000000003</v>
       </c>
       <c r="V71" s="19">
-        <v>6900000</v>
+        <v>4450000</v>
       </c>
       <c r="W71" s="19">
-        <v>110973.45132743364</v>
+        <v>0</v>
       </c>
       <c r="X71" s="19">
-        <v>146.21434276419731</v>
+        <v>56.309156248418283</v>
       </c>
       <c r="Y71" s="19">
-        <v>0</v>
+        <v>1374829</v>
       </c>
       <c r="Z71" s="19">
         <v>0</v>
@@ -67250,20 +67254,26 @@
         <v>0</v>
       </c>
       <c r="AD71" s="19">
-        <v>0</v>
+        <v>780075</v>
       </c>
       <c r="AE71" s="19">
-        <v>2850000</v>
+        <v>0</v>
       </c>
       <c r="AF71" s="19">
         <v>0</v>
       </c>
       <c r="AG71" s="19">
         <f t="shared" si="2"/>
-        <v>2850000</v>
+        <v>2154904</v>
+      </c>
+      <c r="AH71" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="AI71" s="19">
+        <v>3487500</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
@@ -67271,19 +67281,19 @@
         <v>0</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E72" s="1">
         <v>2</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H72" s="17" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="I72" s="1">
         <v>55379</v>
@@ -67307,7 +67317,7 @@
         <v>-1</v>
       </c>
       <c r="P72" s="8" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="Q72" s="9">
         <v>10</v>
@@ -67362,7 +67372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -67370,19 +67380,19 @@
         <v>0</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E73" s="1">
         <v>6</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H73" s="17" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="I73" s="1">
         <v>55437</v>
@@ -67406,7 +67416,7 @@
         <v>-1</v>
       </c>
       <c r="P73" s="8" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="Q73" s="9">
         <v>9</v>
@@ -67461,7 +67471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
@@ -67469,19 +67479,19 @@
         <v>0</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E74" s="1">
         <v>3</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H74" s="17" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="I74" s="1">
         <v>53207</v>
@@ -67505,7 +67515,7 @@
         <v>-1</v>
       </c>
       <c r="P74" s="8" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="Q74" s="9">
         <v>1</v>
@@ -67560,7 +67570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>0</v>
       </c>
@@ -67568,67 +67578,76 @@
         <v>1</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>51</v>
+        <v>366</v>
       </c>
       <c r="E75" s="1">
         <v>5</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>52</v>
+        <v>340</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H75" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="H75" s="20" t="s">
         <v>211</v>
       </c>
       <c r="I75" s="1">
-        <v>55404</v>
+        <v>75043</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>41</v>
+        <v>339</v>
       </c>
       <c r="K75" s="1">
+        <v>2</v>
+      </c>
+      <c r="L75" s="1">
         <v>3</v>
       </c>
-      <c r="L75" s="1">
-        <v>4</v>
-      </c>
-      <c r="M75" s="1">
-        <v>0</v>
-      </c>
-      <c r="N75" s="7">
-        <v>297650</v>
+      <c r="M75" s="7">
+        <v>224</v>
+      </c>
+      <c r="N75" s="1">
+        <v>181936</v>
       </c>
       <c r="O75" s="7">
+        <v>-1</v>
+      </c>
+      <c r="P75" s="12">
+        <v>1982</v>
+      </c>
+      <c r="Q75" s="13">
         <v>1</v>
       </c>
-      <c r="P75" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q75" s="9">
-        <v>8</v>
-      </c>
-      <c r="R75" s="11">
-        <v>43070</v>
+      <c r="R75" s="10">
+        <v>33324</v>
+      </c>
+      <c r="S75" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="T75" s="1">
+        <v>32.848539000000002</v>
+      </c>
+      <c r="U75" s="1">
+        <v>-96.604044999999999</v>
       </c>
       <c r="V75" s="19">
-        <v>0</v>
+        <v>2954368</v>
       </c>
       <c r="W75" s="19">
-        <v>0</v>
+        <v>108482.14285714286</v>
       </c>
       <c r="X75" s="19">
-        <v>0</v>
+        <v>133.56345088382727</v>
       </c>
       <c r="Y75" s="19">
         <v>0</v>
       </c>
       <c r="Z75" s="19">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="AA75" s="19">
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="AB75" s="19">
         <v>0</v>
@@ -67640,20 +67659,17 @@
         <v>0</v>
       </c>
       <c r="AE75" s="19">
-        <v>0</v>
+        <v>731616</v>
       </c>
       <c r="AF75" s="19">
         <v>0</v>
       </c>
       <c r="AG75" s="19">
         <f t="shared" si="2"/>
-        <v>2500000</v>
-      </c>
-      <c r="AI75" s="19">
-        <v>0</v>
+        <v>731616</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
@@ -67673,7 +67689,7 @@
         <v>3</v>
       </c>
       <c r="H76" s="17" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I76" s="1">
         <v>43228</v>
@@ -67752,7 +67768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
@@ -67760,10 +67776,10 @@
         <v>1</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="E77" s="1">
         <v>5</v>
@@ -67772,10 +67788,10 @@
         <v>55</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="H77" s="17" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="I77" s="1">
         <v>55430</v>
@@ -67799,7 +67815,7 @@
         <v>1</v>
       </c>
       <c r="P77" s="8" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="Q77" s="9">
         <v>8</v>
@@ -67851,13 +67867,13 @@
         <v>2418931</v>
       </c>
       <c r="AH77" s="1" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="AI77" s="19">
         <v>5282430</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
@@ -67865,64 +67881,64 @@
         <v>1</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="E78" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H78" s="17" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="I78" s="1">
-        <v>53130</v>
+        <v>55431</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="K78" s="1">
         <v>1</v>
       </c>
       <c r="L78" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M78" s="1">
         <v>0</v>
       </c>
       <c r="N78" s="6">
-        <v>94412</v>
+        <v>114631</v>
       </c>
       <c r="O78" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P78" s="8" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="Q78" s="9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="R78" s="11">
-        <v>1</v>
+        <v>44012</v>
       </c>
       <c r="T78" s="1">
-        <v>42.947819000000003</v>
+        <v>44.831158000000002</v>
       </c>
       <c r="U78" s="1">
-        <v>-88.049143000000001</v>
+        <v>-93.300449999999998</v>
       </c>
       <c r="V78" s="19">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="W78" s="19">
         <v>0</v>
       </c>
       <c r="X78" s="19">
-        <v>42.367495657331695</v>
+        <v>52.341862148982386</v>
       </c>
       <c r="Y78" s="19">
         <v>0</v>
@@ -67934,7 +67950,7 @@
         <v>0</v>
       </c>
       <c r="AB78" s="19">
-        <v>0</v>
+        <v>3250000</v>
       </c>
       <c r="AC78" s="19">
         <v>0</v>
@@ -67943,17 +67959,23 @@
         <v>0</v>
       </c>
       <c r="AE78" s="19">
-        <v>2200001</v>
+        <v>0</v>
       </c>
       <c r="AF78" s="19">
         <v>0</v>
       </c>
       <c r="AG78" s="19">
-        <f t="shared" ref="AG78:AG85" si="3">+SUM(Y78:AF78)</f>
-        <v>2200001</v>
+        <f t="shared" ref="AG78:AG109" si="3">+SUM(Y78:AF78)</f>
+        <v>3250000</v>
+      </c>
+      <c r="AH78" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AI78" s="19">
+        <v>3900000</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>0</v>
       </c>
@@ -67973,70 +67995,70 @@
         <v>95</v>
       </c>
       <c r="H79" s="17" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="I79" s="1">
-        <v>55112</v>
+        <v>85281</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="K79" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L79" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M79" s="1">
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="N79" s="6">
-        <v>79028</v>
+        <v>265021</v>
       </c>
       <c r="O79" s="7">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="P79" s="8" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q79" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R79" s="11">
-        <v>42143</v>
+        <v>43403</v>
       </c>
       <c r="T79" s="1">
-        <v>45.076424000000003</v>
+        <v>33.413958999999998</v>
       </c>
       <c r="U79" s="1">
-        <v>-93.187161000000003</v>
+        <v>-111.90848099999999</v>
       </c>
       <c r="V79" s="19">
-        <v>4450000</v>
+        <v>53500000</v>
       </c>
       <c r="W79" s="19">
-        <v>0</v>
+        <v>131127.45098039217</v>
       </c>
       <c r="X79" s="19">
-        <v>56.309156248418283</v>
+        <v>201.87079514453572</v>
       </c>
       <c r="Y79" s="19">
-        <v>1374829</v>
+        <v>0</v>
       </c>
       <c r="Z79" s="19">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="AA79" s="19">
-        <v>0</v>
+        <v>9800000</v>
       </c>
       <c r="AB79" s="19">
-        <v>0</v>
+        <v>5542500</v>
       </c>
       <c r="AC79" s="19">
         <v>0</v>
       </c>
       <c r="AD79" s="19">
-        <v>780075</v>
+        <v>5407500</v>
       </c>
       <c r="AE79" s="19">
         <v>0</v>
@@ -68046,16 +68068,16 @@
       </c>
       <c r="AG79" s="19">
         <f t="shared" si="3"/>
-        <v>2154904</v>
+        <v>25750000</v>
       </c>
       <c r="AH79" s="1" t="s">
-        <v>361</v>
+        <v>298</v>
       </c>
       <c r="AI79" s="19">
-        <v>3487500</v>
+        <v>33329000</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>0</v>
       </c>
@@ -68063,64 +68085,67 @@
         <v>1</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>177</v>
+        <v>334</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="E80" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>32</v>
+        <v>335</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H80" s="17" t="s">
-        <v>209</v>
+        <v>214</v>
+      </c>
+      <c r="H80" s="20" t="s">
+        <v>212</v>
       </c>
       <c r="I80" s="1">
-        <v>60173</v>
+        <v>53151</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="K80" s="1">
         <v>1</v>
       </c>
       <c r="L80" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M80" s="1">
         <v>0</v>
       </c>
-      <c r="N80" s="6">
-        <v>72461</v>
+      <c r="N80" s="7">
+        <v>114990</v>
       </c>
       <c r="O80" s="7">
+        <v>-1</v>
+      </c>
+      <c r="P80" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q80" s="13">
         <v>1</v>
       </c>
-      <c r="P80" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q80" s="9">
-        <v>1</v>
-      </c>
-      <c r="R80" s="11">
-        <v>43616</v>
+      <c r="R80" s="10">
+        <v>41957</v>
       </c>
       <c r="T80" s="1">
-        <v>42.053448000000003</v>
+        <v>42.997757</v>
       </c>
       <c r="U80" s="1">
-        <v>-88.060700999999995</v>
+        <v>-88.112814999999998</v>
       </c>
       <c r="V80" s="19">
-        <v>3200000</v>
+        <v>3620000</v>
       </c>
       <c r="W80" s="19">
-        <v>0</v>
+        <v>43.482041916688409</v>
       </c>
       <c r="X80" s="19">
-        <v>44.161686976442503</v>
+        <v>0</v>
       </c>
       <c r="Y80" s="19">
         <v>0</v>
@@ -68132,7 +68157,7 @@
         <v>0</v>
       </c>
       <c r="AB80" s="19">
-        <v>1900000</v>
+        <v>0</v>
       </c>
       <c r="AC80" s="19">
         <v>0</v>
@@ -68144,20 +68169,14 @@
         <v>0</v>
       </c>
       <c r="AF80" s="19">
-        <v>0</v>
+        <v>1693242.59</v>
       </c>
       <c r="AG80" s="19">
         <f t="shared" si="3"/>
-        <v>1900000</v>
-      </c>
-      <c r="AH80" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="AI80" s="19">
-        <v>2179345</v>
+        <v>1693242.59</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>0</v>
       </c>
@@ -68165,67 +68184,67 @@
         <v>1</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>341</v>
+        <v>171</v>
       </c>
       <c r="E81" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>343</v>
+        <v>98</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="H81" s="20" t="s">
-        <v>218</v>
+        <v>99</v>
+      </c>
+      <c r="H81" s="17" t="s">
+        <v>200</v>
       </c>
       <c r="I81" s="1">
-        <v>53151</v>
+        <v>33763</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="K81" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L81" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M81" s="1">
-        <v>0</v>
-      </c>
-      <c r="N81" s="7">
-        <v>114990</v>
+        <v>350</v>
+      </c>
+      <c r="N81" s="6">
+        <v>293770</v>
       </c>
       <c r="O81" s="7">
         <v>-1</v>
       </c>
-      <c r="P81" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q81" s="13">
+      <c r="P81" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q81" s="9">
         <v>1</v>
       </c>
-      <c r="R81" s="10">
-        <v>41957</v>
+      <c r="R81" s="11">
+        <v>43640</v>
+      </c>
+      <c r="S81" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="T81" s="1">
-        <v>42.997757</v>
+        <v>28.001814</v>
       </c>
       <c r="U81" s="1">
-        <v>-88.112814999999998</v>
+        <v>-82.730535000000003</v>
       </c>
       <c r="V81" s="19">
-        <v>3620000</v>
+        <v>39100000</v>
       </c>
       <c r="W81" s="19">
-        <v>43.482041916688409</v>
+        <v>111714.28571428571</v>
       </c>
       <c r="X81" s="19">
-        <v>0</v>
+        <v>133.09732103346155</v>
       </c>
       <c r="Y81" s="19">
         <v>0</v>
@@ -68234,10 +68253,10 @@
         <v>0</v>
       </c>
       <c r="AA81" s="19">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="AB81" s="19">
-        <v>0</v>
+        <v>13200000</v>
       </c>
       <c r="AC81" s="19">
         <v>0</v>
@@ -68249,14 +68268,20 @@
         <v>0</v>
       </c>
       <c r="AF81" s="19">
-        <v>1693242.59</v>
+        <v>0</v>
       </c>
       <c r="AG81" s="19">
         <f t="shared" si="3"/>
-        <v>1693242.59</v>
+        <v>18200000</v>
+      </c>
+      <c r="AH81" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI81" s="19">
+        <v>28312000</v>
       </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>0</v>
       </c>
@@ -68264,64 +68289,52 @@
         <v>1</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="E82" s="1">
-        <v>5</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>105</v>
+        <v>356</v>
       </c>
       <c r="H82" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="I82" s="1">
-        <v>53029</v>
+        <v>211</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>64</v>
+        <v>356</v>
       </c>
       <c r="K82" s="1">
         <v>2</v>
       </c>
       <c r="L82" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M82" s="1">
-        <v>0</v>
+        <v>2761</v>
       </c>
       <c r="N82" s="6">
-        <v>-1</v>
+        <v>2347605</v>
       </c>
       <c r="O82" s="7">
         <v>-1</v>
       </c>
       <c r="P82" s="8" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="Q82" s="9">
         <v>1</v>
       </c>
-      <c r="R82" s="11">
-        <v>43344</v>
-      </c>
-      <c r="T82" s="1">
-        <v>43.174731999999999</v>
-      </c>
-      <c r="U82" s="1">
-        <v>-88.29607</v>
+      <c r="R82" s="10">
+        <v>43817</v>
       </c>
       <c r="V82" s="19">
-        <v>0</v>
+        <v>221000000</v>
       </c>
       <c r="W82" s="19">
-        <v>0</v>
+        <v>80043.462513582039</v>
       </c>
       <c r="X82" s="19">
-        <v>0</v>
+        <v>94.138494337846438</v>
       </c>
       <c r="Y82" s="19">
         <v>0</v>
@@ -68330,16 +68343,17 @@
         <v>0</v>
       </c>
       <c r="AA82" s="19">
-        <v>870699</v>
+        <v>2000000</v>
       </c>
       <c r="AB82" s="19">
-        <v>0</v>
+        <v>38890000</v>
       </c>
       <c r="AC82" s="19">
-        <v>0</v>
+        <v>30610000.000000004</v>
       </c>
       <c r="AD82" s="19">
-        <v>0</v>
+        <f>+AD81+AD78+AD77+AD76+AD75+AD74+AD73+AD72+AD71+AD70</f>
+        <v>1384808</v>
       </c>
       <c r="AE82" s="19">
         <v>0</v>
@@ -68349,13 +68363,16 @@
       </c>
       <c r="AG82" s="19">
         <f t="shared" si="3"/>
-        <v>870699</v>
+        <v>72884808</v>
+      </c>
+      <c r="AH82" s="1" t="s">
+        <v>298</v>
       </c>
       <c r="AI82" s="19">
-        <v>0</v>
+        <v>163743000</v>
       </c>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>0</v>
       </c>
@@ -68363,25 +68380,25 @@
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>344</v>
+        <v>96</v>
       </c>
       <c r="E83" s="1">
         <v>5</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>352</v>
+        <v>248</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="H83" s="20" t="s">
-        <v>217</v>
+        <v>97</v>
+      </c>
+      <c r="H83" s="17" t="s">
+        <v>211</v>
       </c>
       <c r="I83" s="1">
-        <v>75087</v>
+        <v>75013</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>349</v>
+        <v>54</v>
       </c>
       <c r="K83" s="1">
         <v>2</v>
@@ -68389,72 +68406,78 @@
       <c r="L83" s="1">
         <v>3</v>
       </c>
-      <c r="M83" s="7">
-        <v>240</v>
-      </c>
-      <c r="N83" s="1">
-        <v>194672</v>
+      <c r="M83" s="1">
+        <v>444</v>
+      </c>
+      <c r="N83" s="6">
+        <v>419822</v>
       </c>
       <c r="O83" s="7">
         <v>-1</v>
       </c>
-      <c r="P83" s="12">
-        <v>1980</v>
-      </c>
-      <c r="Q83" s="13">
+      <c r="P83" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q83" s="9">
         <v>1</v>
       </c>
-      <c r="R83" s="10">
-        <v>33938</v>
+      <c r="R83" s="11">
+        <v>43348</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>356</v>
+        <v>249</v>
       </c>
       <c r="T83" s="1">
-        <v>32.913938000000002</v>
+        <v>33.118155999999999</v>
       </c>
       <c r="U83" s="1">
-        <v>-96.454729999999998</v>
+        <v>-96.732322999999994</v>
       </c>
       <c r="V83" s="19">
-        <v>3595635</v>
+        <v>73500000</v>
       </c>
       <c r="W83" s="19">
-        <v>136583.33333333334</v>
+        <v>165540.54054054053</v>
       </c>
       <c r="X83" s="19">
-        <v>168.38579764937947</v>
+        <v>175.0741981125334</v>
       </c>
       <c r="Y83" s="19">
         <v>0</v>
       </c>
       <c r="Z83" s="19">
-        <v>0</v>
+        <v>6340000</v>
       </c>
       <c r="AA83" s="19">
-        <v>0</v>
+        <v>9000000</v>
       </c>
       <c r="AB83" s="19">
         <v>0</v>
       </c>
       <c r="AC83" s="19">
-        <v>0</v>
+        <v>13860000</v>
       </c>
       <c r="AD83" s="19">
         <v>0</v>
       </c>
       <c r="AE83" s="19">
-        <v>825000</v>
+        <v>0</v>
       </c>
       <c r="AF83" s="19">
         <v>0</v>
       </c>
       <c r="AG83" s="19">
         <f t="shared" si="3"/>
-        <v>825000</v>
+        <v>29200000</v>
+      </c>
+      <c r="AH83" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AI83" s="19">
+        <v>47000000</v>
       </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
@@ -68462,67 +68485,64 @@
         <v>1</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>345</v>
+        <v>100</v>
       </c>
       <c r="E84" s="1">
         <v>5</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>350</v>
+        <v>101</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="H84" s="20" t="s">
-        <v>217</v>
+        <v>102</v>
+      </c>
+      <c r="H84" s="17" t="s">
+        <v>212</v>
       </c>
       <c r="I84" s="1">
-        <v>75043</v>
+        <v>53029</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>349</v>
+        <v>64</v>
       </c>
       <c r="K84" s="1">
         <v>2</v>
       </c>
       <c r="L84" s="1">
-        <v>3</v>
-      </c>
-      <c r="M84" s="7">
-        <v>224</v>
-      </c>
-      <c r="N84" s="1">
-        <v>181936</v>
+        <v>7</v>
+      </c>
+      <c r="M84" s="1">
+        <v>0</v>
+      </c>
+      <c r="N84" s="6">
+        <v>-1</v>
       </c>
       <c r="O84" s="7">
         <v>-1</v>
       </c>
-      <c r="P84" s="12">
-        <v>1982</v>
-      </c>
-      <c r="Q84" s="13">
+      <c r="P84" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q84" s="9">
         <v>1</v>
       </c>
-      <c r="R84" s="10">
-        <v>33324</v>
-      </c>
-      <c r="S84" s="1" t="s">
-        <v>355</v>
+      <c r="R84" s="11">
+        <v>43344</v>
       </c>
       <c r="T84" s="1">
-        <v>32.848539000000002</v>
+        <v>43.174731999999999</v>
       </c>
       <c r="U84" s="1">
-        <v>-96.604044999999999</v>
+        <v>-88.29607</v>
       </c>
       <c r="V84" s="19">
-        <v>2954368</v>
+        <v>0</v>
       </c>
       <c r="W84" s="19">
-        <v>108482.14285714286</v>
+        <v>0</v>
       </c>
       <c r="X84" s="19">
-        <v>133.56345088382727</v>
+        <v>0</v>
       </c>
       <c r="Y84" s="19">
         <v>0</v>
@@ -68531,7 +68551,7 @@
         <v>0</v>
       </c>
       <c r="AA84" s="19">
-        <v>0</v>
+        <v>870699</v>
       </c>
       <c r="AB84" s="19">
         <v>0</v>
@@ -68543,34 +68563,37 @@
         <v>0</v>
       </c>
       <c r="AE84" s="19">
-        <v>731616</v>
+        <v>0</v>
       </c>
       <c r="AF84" s="19">
         <v>0</v>
       </c>
       <c r="AG84" s="19">
         <f t="shared" si="3"/>
-        <v>731616</v>
+        <v>870699</v>
+      </c>
+      <c r="AI84" s="19">
+        <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B85" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="E85" s="1">
         <v>5</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="H85" s="20" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="M85" s="1">
         <v>0</v>
@@ -68579,7 +68602,7 @@
         <v>0</v>
       </c>
       <c r="P85" s="12" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="R85" s="10">
         <v>41791</v>
@@ -68622,27 +68645,117 @@
         <v>600000</v>
       </c>
     </row>
+    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="16">
+        <v>1</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E86" s="1">
+        <v>5</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H86" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="I86" s="1">
+        <v>53188</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K86" s="1">
+        <v>2</v>
+      </c>
+      <c r="L86" s="1">
+        <v>3</v>
+      </c>
+      <c r="M86" s="1">
+        <v>478</v>
+      </c>
+      <c r="N86" s="6">
+        <v>483034</v>
+      </c>
+      <c r="O86" s="7">
+        <v>-1</v>
+      </c>
+      <c r="P86" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q86" s="9">
+        <v>1</v>
+      </c>
+      <c r="R86" s="11">
+        <v>42765</v>
+      </c>
+      <c r="S86" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="T86" s="1">
+        <v>43.000940999999997</v>
+      </c>
+      <c r="U86" s="1">
+        <v>-88.260959</v>
+      </c>
+      <c r="V86" s="19">
+        <v>36500000</v>
+      </c>
+      <c r="W86" s="19">
+        <v>76359.832635983257</v>
+      </c>
+      <c r="X86" s="19">
+        <v>75.564038970341628</v>
+      </c>
+      <c r="Y86" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="19">
+        <v>2200000</v>
+      </c>
+      <c r="AA86" s="19">
+        <v>6950000</v>
+      </c>
+      <c r="AB86" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="19">
+        <v>5500000</v>
+      </c>
+      <c r="AD86" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF86" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG86" s="19">
+        <f t="shared" si="3"/>
+        <v>14650000</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AI85" xr:uid="{05793611-39F0-4396-94D0-88965B9A9A92}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:AI85">
-      <sortCondition descending="1" ref="AG1:AG85"/>
+  <autoFilter ref="A1:AI86" xr:uid="{05793611-39F0-4396-94D0-88965B9A9A92}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:AI86">
+      <sortCondition ref="C1:C86"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2236DD-6C8B-43A9-984B-EC658DA9399D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/db/properties.xlsx
+++ b/data/db/properties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nburmeister\Documents\_Development\AssetManagementPortal\data\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA34DD06-ECEE-4530-ACFC-986F4F9D86ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A944F1A0-9D40-4C70-B5E0-9E0E101BA368}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{65CCAB74-0CA2-4D5F-9FC7-1AACCFC26E43}"/>
   </bookViews>
@@ -3523,7 +3523,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="373">
   <si>
     <t>ACTIVE</t>
   </si>
@@ -3754,9 +3754,6 @@
   </si>
   <si>
     <t>Grand Prairie</t>
-  </si>
-  <si>
-    <t>Manor Homes at Eagle Glen</t>
   </si>
   <si>
     <t>339 N Fox Ridge Dr</t>
@@ -4308,9 +4305,6 @@
     <t>2014/16</t>
   </si>
   <si>
-    <t>1970-94</t>
-  </si>
-  <si>
     <t>1970/72</t>
   </si>
   <si>
@@ -4369,9 +4363,6 @@
   </si>
   <si>
     <t>Brooklyn Park</t>
-  </si>
-  <si>
-    <t>1981</t>
   </si>
   <si>
     <t>1987</t>
@@ -4596,9 +4587,6 @@
     <t>Oklahoma City &amp; Tulsa, OK; Houston, TX</t>
   </si>
   <si>
-    <t>Cincinatti &amp; Columbus, OH, Chicago, IL</t>
-  </si>
-  <si>
     <t>Pewaukee Plaza</t>
   </si>
   <si>
@@ -4633,6 +4621,27 @@
   </si>
   <si>
     <t>Morgan at North Shore</t>
+  </si>
+  <si>
+    <t>Manor Homes of Eagle Glen</t>
+  </si>
+  <si>
+    <t>Cincinatti &amp; Columbus, OH; Chicago, IL</t>
+  </si>
+  <si>
+    <t>1961</t>
+  </si>
+  <si>
+    <t>1970/99</t>
+  </si>
+  <si>
+    <t>1973</t>
+  </si>
+  <si>
+    <t>1975/86</t>
+  </si>
+  <si>
+    <t>57</t>
   </si>
 </sst>
 </file>
@@ -60085,14 +60094,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7710D90B-EE59-4300-997E-0C7673234710}">
-  <sheetPr codeName="Sheet1" filterMode="1"/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AI86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C49" sqref="C49"/>
+      <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60136,112 +60145,112 @@
   <sheetData>
     <row r="1" spans="1:35" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="R1" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="S1" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="V1" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="W1" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="V1" s="19" t="s">
+      <c r="X1" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y1" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="Z1" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="AA1" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="AB1" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="Z1" s="19" t="s">
+      <c r="AC1" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="AA1" s="19" t="s">
+      <c r="AD1" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="AB1" s="19" t="s">
+      <c r="AE1" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="AF1" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="AG1" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="AC1" s="19" t="s">
+      <c r="AH1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AD1" s="19" t="s">
+      <c r="AI1" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="AE1" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="AF1" s="19" t="s">
-        <v>353</v>
-      </c>
-      <c r="AG1" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="AI1" s="19" t="s">
-        <v>297</v>
-      </c>
     </row>
-    <row r="2" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -60261,7 +60270,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I2" s="1">
         <v>43228</v>
@@ -60340,7 +60349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -60360,7 +60369,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I3" s="1">
         <v>43228</v>
@@ -60439,7 +60448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -60459,7 +60468,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I4" s="1">
         <v>45246</v>
@@ -60538,7 +60547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -60558,7 +60567,7 @@
         <v>8</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I5" s="1">
         <v>45246</v>
@@ -60637,7 +60646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -60657,7 +60666,7 @@
         <v>8</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I6" s="1">
         <v>45246</v>
@@ -60736,7 +60745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -60756,7 +60765,7 @@
         <v>8</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I7" s="1">
         <v>45246</v>
@@ -60835,7 +60844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -60843,19 +60852,19 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="H8" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I8" s="1">
         <v>55318</v>
@@ -60879,7 +60888,7 @@
         <v>-1</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q8" s="9">
         <v>10</v>
@@ -60934,7 +60943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -60942,19 +60951,19 @@
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I9" s="1">
         <v>53207</v>
@@ -60978,7 +60987,7 @@
         <v>-1</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q9" s="9">
         <v>1</v>
@@ -61027,7 +61036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -61035,19 +61044,19 @@
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E10" s="1">
         <v>3</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I10" s="1">
         <v>53221</v>
@@ -61071,7 +61080,7 @@
         <v>-1</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q10" s="9">
         <v>1</v>
@@ -61120,7 +61129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -61140,7 +61149,7 @@
         <v>19</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I11" s="1">
         <v>60803</v>
@@ -61219,7 +61228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -61239,7 +61248,7 @@
         <v>23</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I12" s="1">
         <v>41042</v>
@@ -61312,7 +61321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -61332,7 +61341,7 @@
         <v>23</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I13" s="1">
         <v>41042</v>
@@ -61413,16 +61422,16 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E14" s="1">
         <v>5</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H14" s="17">
         <v>55</v>
@@ -61458,7 +61467,7 @@
         <v>43556</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="T14" s="1">
         <v>42.988776000000001</v>
@@ -61527,7 +61536,7 @@
         <v>37</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I15" s="1">
         <v>50266</v>
@@ -61551,7 +61560,7 @@
         <v>-1</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q15" s="9">
         <v>7</v>
@@ -61603,7 +61612,7 @@
         <v>15488628</v>
       </c>
       <c r="AH15" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AI15" s="19">
         <v>28175000</v>
@@ -61617,19 +61626,19 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E16" s="1">
         <v>5</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="H16" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I16" s="1">
         <v>77389</v>
@@ -61653,7 +61662,7 @@
         <v>-1</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q16" s="9">
         <v>1</v>
@@ -61662,7 +61671,7 @@
         <v>43922</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T16" s="1">
         <v>30.091379</v>
@@ -61731,7 +61740,7 @@
         <v>40</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I17" s="1">
         <v>55427</v>
@@ -61755,7 +61764,7 @@
         <v>1</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Q17" s="9">
         <v>12</v>
@@ -61801,7 +61810,7 @@
         <v>3683000</v>
       </c>
       <c r="AH17" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AI17" s="19">
         <v>5309009</v>
@@ -61815,7 +61824,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E18" s="1">
         <v>5</v>
@@ -61827,7 +61836,7 @@
         <v>43</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I18" s="1">
         <v>19468</v>
@@ -61851,7 +61860,7 @@
         <v>-1</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q18" s="9">
         <v>3</v>
@@ -61903,7 +61912,7 @@
         <v>13098000</v>
       </c>
       <c r="AH18" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AI18" s="19">
         <v>29002000</v>
@@ -61929,7 +61938,7 @@
         <v>47</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I19" s="1">
         <v>33610</v>
@@ -61953,7 +61962,7 @@
         <v>15</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q19" s="9">
         <v>1</v>
@@ -62005,7 +62014,7 @@
         <v>11900000</v>
       </c>
       <c r="AH19" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AI19" s="19">
         <v>21300000</v>
@@ -62031,7 +62040,7 @@
         <v>50</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I20" s="1">
         <v>85014</v>
@@ -62055,7 +62064,7 @@
         <v>-1</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q20" s="9">
         <v>4</v>
@@ -62107,7 +62116,7 @@
         <v>17250000</v>
       </c>
       <c r="AH20" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AI20" s="19">
         <v>19975000</v>
@@ -62121,19 +62130,19 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>208</v>
+        <v>372</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="K21" s="1">
         <v>1</v>
@@ -62151,7 +62160,7 @@
         <v>12</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>261</v>
+        <v>369</v>
       </c>
       <c r="Q21" s="9">
         <v>10</v>
@@ -62197,13 +62206,13 @@
         <v>20700000</v>
       </c>
       <c r="AH21" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AI21" s="19">
         <v>38998100</v>
       </c>
     </row>
-    <row r="22" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -62211,19 +62220,19 @@
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E22" s="1">
         <v>6</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="H22" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I22" s="1">
         <v>55425</v>
@@ -62247,7 +62256,7 @@
         <v>-1</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q22" s="9">
         <v>9</v>
@@ -62302,7 +62311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -62310,19 +62319,19 @@
         <v>0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E23" s="1">
         <v>7</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="H23" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I23" s="1">
         <v>55423</v>
@@ -62346,7 +62355,7 @@
         <v>-1</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q23" s="9">
         <v>8</v>
@@ -62401,7 +62410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -62409,19 +62418,19 @@
         <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E24" s="1">
         <v>8</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="H24" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I24" s="1">
         <v>55441</v>
@@ -62445,7 +62454,7 @@
         <v>-1</v>
       </c>
       <c r="P24" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q24" s="9">
         <v>5</v>
@@ -62520,7 +62529,7 @@
         <v>41</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I25" s="1">
         <v>55404</v>
@@ -62544,7 +62553,7 @@
         <v>1</v>
       </c>
       <c r="P25" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q25" s="9">
         <v>8</v>
@@ -62601,7 +62610,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E26" s="1">
         <v>5</v>
@@ -62613,7 +62622,7 @@
         <v>54</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I26" s="1">
         <v>75252</v>
@@ -62637,7 +62646,7 @@
         <v>-1</v>
       </c>
       <c r="P26" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q26" s="9">
         <v>1</v>
@@ -62646,7 +62655,7 @@
         <v>42491</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T26" s="1">
         <v>32.989317</v>
@@ -62692,7 +62701,7 @@
         <v>13500000</v>
       </c>
       <c r="AH26" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AI26" s="19">
         <v>27580524.309999999</v>
@@ -62706,7 +62715,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E27" s="1">
         <v>5</v>
@@ -62718,7 +62727,7 @@
         <v>57</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I27" s="1">
         <v>76132</v>
@@ -62742,7 +62751,7 @@
         <v>-1</v>
       </c>
       <c r="P27" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="Q27" s="9">
         <v>1</v>
@@ -62751,7 +62760,7 @@
         <v>43529</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="T27" s="1">
         <v>32.989317</v>
@@ -62797,7 +62806,7 @@
         <v>12550000</v>
       </c>
       <c r="AH27" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AI27" s="19">
         <v>17387000</v>
@@ -62811,7 +62820,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E28" s="1">
         <v>5</v>
@@ -62823,7 +62832,7 @@
         <v>59</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I28" s="1">
         <v>77505</v>
@@ -62847,7 +62856,7 @@
         <v>-1</v>
       </c>
       <c r="P28" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q28" s="9">
         <v>1</v>
@@ -62856,7 +62865,7 @@
         <v>43417</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T28" s="1">
         <v>29.638172999999998</v>
@@ -62902,7 +62911,7 @@
         <v>14150000</v>
       </c>
       <c r="AH28" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AI28" s="19">
         <v>23120000</v>
@@ -62916,25 +62925,25 @@
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E29" s="1">
         <v>5</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I29" s="1">
         <v>87121</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K29" s="1">
         <v>2</v>
@@ -62952,10 +62961,10 @@
         <v>-1</v>
       </c>
       <c r="P29" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q29" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R29" s="11">
         <v>43964</v>
@@ -63004,13 +63013,13 @@
         <v>26194000</v>
       </c>
       <c r="AH29" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AI29" s="19">
         <v>43575000</v>
       </c>
     </row>
-    <row r="30" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -63030,7 +63039,7 @@
         <v>8</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I30" s="1">
         <v>45246</v>
@@ -63117,19 +63126,19 @@
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E31" s="1">
         <v>5</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I31" s="1">
         <v>53402</v>
@@ -63153,7 +63162,7 @@
         <v>-1</v>
       </c>
       <c r="P31" s="12" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="Q31" s="13">
         <v>1</v>
@@ -63162,7 +63171,7 @@
         <v>43874</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="T31" s="1">
         <v>42.765991</v>
@@ -63228,7 +63237,7 @@
         <v>63</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I32" s="1">
         <v>53233</v>
@@ -63252,7 +63261,7 @@
         <v>-1</v>
       </c>
       <c r="P32" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q32" s="9">
         <v>1</v>
@@ -63261,7 +63270,7 @@
         <v>43545</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T32" s="1">
         <v>43.045977000000001</v>
@@ -63307,7 +63316,7 @@
         <v>6087942</v>
       </c>
       <c r="AH32" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AI32" s="19">
         <v>6250000</v>
@@ -63333,7 +63342,7 @@
         <v>67</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I33" s="1">
         <v>75126</v>
@@ -63357,7 +63366,7 @@
         <v>-1</v>
       </c>
       <c r="P33" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Q33" s="9">
         <v>1</v>
@@ -63366,7 +63375,7 @@
         <v>43006</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="T33" s="1">
         <v>32.753647999999998</v>
@@ -63412,7 +63421,7 @@
         <v>15000000</v>
       </c>
       <c r="AH33" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AI33" s="19">
         <v>25350000</v>
@@ -63426,19 +63435,19 @@
         <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E34" s="1">
         <v>5</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H34" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I34" s="1">
         <v>75126</v>
@@ -63462,7 +63471,7 @@
         <v>-1</v>
       </c>
       <c r="P34" s="8" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="Q34" s="9">
         <v>1</v>
@@ -63471,7 +63480,7 @@
         <v>43908</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="T34" s="1">
         <v>32.750933000000003</v>
@@ -63517,7 +63526,7 @@
         <v>23058734</v>
       </c>
     </row>
-    <row r="35" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -63525,19 +63534,19 @@
         <v>0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E35" s="1">
         <v>2</v>
       </c>
       <c r="F35" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="H35" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I35" s="1">
         <v>55337</v>
@@ -63561,7 +63570,7 @@
         <v>-1</v>
       </c>
       <c r="P35" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q35" s="9">
         <v>10</v>
@@ -63616,7 +63625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -63636,7 +63645,7 @@
         <v>3</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I36" s="1">
         <v>43217</v>
@@ -63735,7 +63744,7 @@
         <v>70</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I37" s="1">
         <v>30087</v>
@@ -63759,7 +63768,7 @@
         <v>-1</v>
       </c>
       <c r="P37" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Q37" s="9">
         <v>3</v>
@@ -63811,7 +63820,7 @@
         <v>11050000</v>
       </c>
       <c r="AH37" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AI37" s="19">
         <v>24950000</v>
@@ -63825,19 +63834,19 @@
         <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E38" s="1">
         <v>9</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I38" s="1">
         <v>53130</v>
@@ -63855,19 +63864,19 @@
         <v>0</v>
       </c>
       <c r="N38" s="6">
-        <v>94412</v>
+        <v>95173</v>
       </c>
       <c r="O38" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P38" s="8" t="s">
-        <v>246</v>
+        <v>368</v>
       </c>
       <c r="Q38" s="9">
         <v>1</v>
       </c>
       <c r="R38" s="11">
-        <v>1</v>
+        <v>40550</v>
       </c>
       <c r="T38" s="1">
         <v>42.947819000000003</v>
@@ -63882,7 +63891,7 @@
         <v>0</v>
       </c>
       <c r="X38" s="19">
-        <v>42.367495657331695</v>
+        <v>42.028726634654788</v>
       </c>
       <c r="Y38" s="19">
         <v>0</v>
@@ -63921,19 +63930,19 @@
         <v>1</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E39" s="1">
         <v>5</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H39" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I39" s="1">
         <v>53213</v>
@@ -63957,7 +63966,7 @@
         <v>-1</v>
       </c>
       <c r="P39" s="12" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="Q39" s="13">
         <v>1</v>
@@ -63966,7 +63975,7 @@
         <v>43556</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="T39" s="1">
         <v>43.041727999999999</v>
@@ -64032,7 +64041,7 @@
         <v>54</v>
       </c>
       <c r="H40" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I40" s="1">
         <v>75214</v>
@@ -64056,7 +64065,7 @@
         <v>-1</v>
       </c>
       <c r="P40" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q40" s="9">
         <v>1</v>
@@ -64108,7 +64117,7 @@
         <v>32779330.879999999</v>
       </c>
       <c r="AH40" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AI40" s="19">
         <v>37800000</v>
@@ -64134,7 +64143,7 @@
         <v>76</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I41" s="1">
         <v>75051</v>
@@ -64158,7 +64167,7 @@
         <v>-1</v>
       </c>
       <c r="P41" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q41" s="9">
         <v>1</v>
@@ -64167,7 +64176,7 @@
         <v>43221</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="T41" s="1">
         <v>32.733854000000001</v>
@@ -64213,7 +64222,7 @@
         <v>14600000</v>
       </c>
       <c r="AH41" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AI41" s="19">
         <v>18995000</v>
@@ -64227,19 +64236,19 @@
         <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E42" s="1">
         <v>5</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H42" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I42" s="1">
         <v>53186</v>
@@ -64263,7 +64272,7 @@
         <v>-1</v>
       </c>
       <c r="P42" s="12" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="Q42" s="13">
         <v>1</v>
@@ -64272,7 +64281,7 @@
         <v>43908</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="T42" s="1">
         <v>43.012256999999998</v>
@@ -64326,25 +64335,25 @@
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>77</v>
+        <v>366</v>
       </c>
       <c r="E43" s="1">
         <v>5</v>
       </c>
       <c r="F43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="H43" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I43" s="1">
         <v>64083</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K43" s="1">
         <v>2</v>
@@ -64362,7 +64371,7 @@
         <v>-1</v>
       </c>
       <c r="P43" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Q43" s="9">
         <v>6</v>
@@ -64414,7 +64423,7 @@
         <v>13360000</v>
       </c>
       <c r="AH43" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AI43" s="19">
         <v>24518000</v>
@@ -64428,25 +64437,25 @@
         <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E44" s="1">
         <v>5</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H44" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I44" s="1">
         <v>76051</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K44" s="1">
         <v>2</v>
@@ -64473,7 +64482,7 @@
         <v>36972</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="T44" s="1">
         <v>32.957152000000001</v>
@@ -64485,10 +64494,10 @@
         <v>6900000</v>
       </c>
       <c r="W44" s="19">
-        <v>110973.45132743364</v>
+        <v>30530.973451327434</v>
       </c>
       <c r="X44" s="19">
-        <v>146.21434276419731</v>
+        <v>40.226434014073419</v>
       </c>
       <c r="Y44" s="19">
         <v>0</v>
@@ -64527,19 +64536,19 @@
         <v>1</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E45" s="1">
         <v>5</v>
       </c>
       <c r="F45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="H45" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I45" s="1">
         <v>75234</v>
@@ -64563,7 +64572,7 @@
         <v>-1</v>
       </c>
       <c r="P45" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q45" s="9">
         <v>1</v>
@@ -64572,7 +64581,7 @@
         <v>42915</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="T45" s="1">
         <v>32.902931000000002</v>
@@ -64618,7 +64627,7 @@
         <v>32400000</v>
       </c>
       <c r="AH45" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AI45" s="19">
         <v>55200000</v>
@@ -64632,7 +64641,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E46" s="1">
         <v>3</v>
@@ -64641,7 +64650,7 @@
         <v>64</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>64</v>
@@ -64656,13 +64665,13 @@
         <v>0</v>
       </c>
       <c r="N46" s="6">
-        <v>340615</v>
+        <v>370972</v>
       </c>
       <c r="O46" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P46" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Q46" s="9">
         <v>1</v>
@@ -64683,7 +64692,7 @@
         <v>0</v>
       </c>
       <c r="X46" s="19">
-        <v>27.156760565447794</v>
+        <v>24.934496404041276</v>
       </c>
       <c r="Y46" s="19">
         <v>0</v>
@@ -64714,13 +64723,13 @@
         <v>4720000</v>
       </c>
       <c r="AH46" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AI46" s="19">
         <v>3709430</v>
       </c>
     </row>
-    <row r="47" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -64728,19 +64737,19 @@
         <v>0</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E47" s="1">
         <v>8</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I47" s="1">
         <v>55441</v>
@@ -64764,7 +64773,7 @@
         <v>-1</v>
       </c>
       <c r="P47" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q47" s="9">
         <v>5</v>
@@ -64827,25 +64836,25 @@
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E48" s="1">
         <v>5</v>
       </c>
       <c r="F48" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="H48" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I48" s="1">
         <v>15212</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K48" s="1">
         <v>2</v>
@@ -64863,7 +64872,7 @@
         <v>-1</v>
       </c>
       <c r="P48" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Q48" s="9">
         <v>11</v>
@@ -64915,7 +64924,7 @@
         <v>20100000</v>
       </c>
       <c r="AH48" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AI48" s="19">
         <v>40500000</v>
@@ -64929,7 +64938,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E49" s="1">
         <v>7</v>
@@ -64938,7 +64947,7 @@
         <v>41</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>41</v>
@@ -64953,13 +64962,13 @@
         <v>0</v>
       </c>
       <c r="N49" s="6">
-        <v>77585</v>
+        <v>94009</v>
       </c>
       <c r="O49" s="7">
         <v>7</v>
       </c>
       <c r="P49" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="Q49" s="9">
         <v>8</v>
@@ -64974,7 +64983,7 @@
         <v>0</v>
       </c>
       <c r="X49" s="19">
-        <v>229.32267835277437</v>
+        <v>189.25847525236946</v>
       </c>
       <c r="Y49" s="19">
         <v>0</v>
@@ -65005,7 +65014,7 @@
         <v>7720000</v>
       </c>
       <c r="AH49" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AI49" s="19">
         <v>7578250</v>
@@ -65019,7 +65028,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E50" s="1">
         <v>2</v>
@@ -65028,10 +65037,10 @@
         <v>41</v>
       </c>
       <c r="H50" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K50" s="1">
         <v>1</v>
@@ -65049,7 +65058,7 @@
         <v>5</v>
       </c>
       <c r="P50" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="Q50" s="9">
         <v>10</v>
@@ -65095,13 +65104,13 @@
         <v>16140000</v>
       </c>
       <c r="AH50" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AI50" s="19">
         <v>25879374.989999998</v>
       </c>
     </row>
-    <row r="51" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -65109,19 +65118,19 @@
         <v>0</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E51" s="1">
         <v>2</v>
       </c>
       <c r="F51" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="H51" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I51" s="1">
         <v>55344</v>
@@ -65145,7 +65154,7 @@
         <v>-1</v>
       </c>
       <c r="P51" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q51" s="9">
         <v>10</v>
@@ -65208,7 +65217,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E52" s="1">
         <v>6</v>
@@ -65217,7 +65226,7 @@
         <v>41</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>41</v>
@@ -65238,7 +65247,7 @@
         <v>3</v>
       </c>
       <c r="P52" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="Q52" s="9">
         <v>9</v>
@@ -65284,13 +65293,13 @@
         <v>6555945.9800000004</v>
       </c>
       <c r="AH52" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AI52" s="19">
         <v>5094679</v>
       </c>
     </row>
-    <row r="53" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -65298,19 +65307,19 @@
         <v>0</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E53" s="1">
         <v>2</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I53" s="1">
         <v>55344</v>
@@ -65334,7 +65343,7 @@
         <v>-1</v>
       </c>
       <c r="P53" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q53" s="9">
         <v>10</v>
@@ -65397,25 +65406,25 @@
         <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E54" s="1">
         <v>5</v>
       </c>
       <c r="F54" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="H54" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I54" s="1">
         <v>32606</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K54" s="1">
         <v>2</v>
@@ -65433,7 +65442,7 @@
         <v>-1</v>
       </c>
       <c r="P54" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Q54" s="9">
         <v>1</v>
@@ -65442,7 +65451,7 @@
         <v>43763</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="T54" s="1">
         <v>29.68797</v>
@@ -65488,7 +65497,7 @@
         <v>19700000</v>
       </c>
       <c r="AH54" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AI54" s="19">
         <v>40000000</v>
@@ -65502,22 +65511,22 @@
         <v>1</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E55" s="1">
         <v>5</v>
       </c>
       <c r="F55" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="H55" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I55" s="1">
         <v>30047</v>
@@ -65541,7 +65550,7 @@
         <v>-1</v>
       </c>
       <c r="P55" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="Q55" s="9">
         <v>2</v>
@@ -65593,7 +65602,7 @@
         <v>12796000</v>
       </c>
       <c r="AH55" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AI55" s="19">
         <v>21657000</v>
@@ -65607,7 +65616,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E56" s="1">
         <v>8</v>
@@ -65616,7 +65625,7 @@
         <v>41</v>
       </c>
       <c r="H56" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>41</v>
@@ -65637,7 +65646,7 @@
         <v>7</v>
       </c>
       <c r="P56" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q56" s="9">
         <v>5</v>
@@ -65689,13 +65698,13 @@
         <v>3950000</v>
       </c>
       <c r="AH56" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AI56" s="19">
         <v>6115285</v>
       </c>
     </row>
-    <row r="57" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -65703,22 +65712,22 @@
         <v>0</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E57" s="1">
         <v>4</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>60</v>
       </c>
       <c r="H57" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I57" s="1">
         <v>77090</v>
@@ -65742,7 +65751,7 @@
         <v>-1</v>
       </c>
       <c r="P57" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q57" s="9">
         <v>1</v>
@@ -65751,7 +65760,7 @@
         <v>43817</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="T57" s="1">
         <v>30.027327</v>
@@ -65797,13 +65806,13 @@
         <v>9705882.3529411759</v>
       </c>
       <c r="AH57" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AI57" s="19">
         <v>24336000</v>
       </c>
     </row>
-    <row r="58" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
@@ -65811,22 +65820,22 @@
         <v>0</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E58" s="1">
         <v>4</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>60</v>
       </c>
       <c r="H58" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I58" s="1">
         <v>77066</v>
@@ -65850,7 +65859,7 @@
         <v>-1</v>
       </c>
       <c r="P58" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q58" s="9">
         <v>1</v>
@@ -65859,7 +65868,7 @@
         <v>43817</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="T58" s="1">
         <v>29.981292</v>
@@ -65905,13 +65914,13 @@
         <v>7683823.5294117648</v>
       </c>
       <c r="AH58" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AI58" s="19">
         <v>18000000</v>
       </c>
     </row>
-    <row r="59" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
@@ -65919,28 +65928,28 @@
         <v>0</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E59" s="1">
         <v>4</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I59" s="1">
         <v>74136</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K59" s="1">
         <v>2</v>
@@ -65958,7 +65967,7 @@
         <v>-1</v>
       </c>
       <c r="P59" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q59" s="9">
         <v>1</v>
@@ -65967,7 +65976,7 @@
         <v>43817</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="T59" s="1">
         <v>36.065963000000004</v>
@@ -66013,13 +66022,13 @@
         <v>2992647.0588235292</v>
       </c>
       <c r="AH59" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AI59" s="19">
         <v>6162000</v>
       </c>
     </row>
-    <row r="60" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
@@ -66027,28 +66036,28 @@
         <v>0</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E60" s="1">
         <v>4</v>
       </c>
       <c r="F60" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="H60" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I60" s="1">
         <v>73120</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K60" s="1">
         <v>2</v>
@@ -66066,7 +66075,7 @@
         <v>-1</v>
       </c>
       <c r="P60" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q60" s="9">
         <v>1</v>
@@ -66075,7 +66084,7 @@
         <v>43817</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="T60" s="1">
         <v>35.597188000000003</v>
@@ -66121,13 +66130,13 @@
         <v>10838235.294117648</v>
       </c>
       <c r="AH60" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AI60" s="19">
         <v>24535000</v>
       </c>
     </row>
-    <row r="61" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
@@ -66135,28 +66144,28 @@
         <v>0</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E61" s="1">
         <v>4</v>
       </c>
       <c r="F61" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="H61" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I61" s="1">
         <v>74132</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K61" s="1">
         <v>2</v>
@@ -66174,7 +66183,7 @@
         <v>-1</v>
       </c>
       <c r="P61" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q61" s="9">
         <v>1</v>
@@ -66183,7 +66192,7 @@
         <v>43817</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T61" s="1">
         <v>36.071460999999999</v>
@@ -66229,13 +66238,13 @@
         <v>5985294.1176470583</v>
       </c>
       <c r="AH61" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AI61" s="19">
         <v>13486000</v>
       </c>
     </row>
-    <row r="62" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
@@ -66243,28 +66252,28 @@
         <v>0</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E62" s="1">
         <v>4</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H62" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I62" s="1">
         <v>73114</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K62" s="1">
         <v>2</v>
@@ -66282,7 +66291,7 @@
         <v>-1</v>
       </c>
       <c r="P62" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q62" s="9">
         <v>1</v>
@@ -66291,7 +66300,7 @@
         <v>43817</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="T62" s="1">
         <v>35.581014000000003</v>
@@ -66337,13 +66346,13 @@
         <v>3720588.2352941176</v>
       </c>
       <c r="AH62" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AI62" s="19">
         <v>8408000</v>
       </c>
     </row>
-    <row r="63" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
@@ -66351,22 +66360,22 @@
         <v>0</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E63" s="1">
         <v>4</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>60</v>
       </c>
       <c r="H63" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I63" s="1">
         <v>77079</v>
@@ -66390,7 +66399,7 @@
         <v>-1</v>
       </c>
       <c r="P63" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q63" s="9">
         <v>1</v>
@@ -66399,7 +66408,7 @@
         <v>43817</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="T63" s="1">
         <v>29.777594000000001</v>
@@ -66445,13 +66454,13 @@
         <v>4852941.176470588</v>
       </c>
       <c r="AH63" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AI63" s="19">
         <v>11330000</v>
       </c>
     </row>
-    <row r="64" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -66459,28 +66468,28 @@
         <v>0</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E64" s="1">
         <v>4</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H64" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I64" s="1">
         <v>73142</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K64" s="1">
         <v>2</v>
@@ -66498,7 +66507,7 @@
         <v>-1</v>
       </c>
       <c r="P64" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q64" s="9">
         <v>1</v>
@@ -66507,7 +66516,7 @@
         <v>43817</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="T64" s="1">
         <v>35.595573000000002</v>
@@ -66553,13 +66562,13 @@
         <v>2102941.1764705884</v>
       </c>
       <c r="AH64" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AI64" s="19">
         <v>4859000</v>
       </c>
     </row>
-    <row r="65" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>0</v>
       </c>
@@ -66567,22 +66576,22 @@
         <v>0</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E65" s="1">
         <v>4</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>60</v>
       </c>
       <c r="H65" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I65" s="1">
         <v>77077</v>
@@ -66606,7 +66615,7 @@
         <v>-1</v>
       </c>
       <c r="P65" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q65" s="9">
         <v>1</v>
@@ -66615,7 +66624,7 @@
         <v>43817</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="T65" s="1">
         <v>29.738977999999999</v>
@@ -66661,13 +66670,13 @@
         <v>10352941.176470589</v>
       </c>
       <c r="AH65" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AI65" s="19">
         <v>22470000</v>
       </c>
     </row>
-    <row r="66" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
@@ -66675,19 +66684,19 @@
         <v>0</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E66" s="1">
         <v>7</v>
       </c>
       <c r="F66" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="H66" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I66" s="1">
         <v>55369</v>
@@ -66711,7 +66720,7 @@
         <v>-1</v>
       </c>
       <c r="P66" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q66" s="9">
         <v>8</v>
@@ -66774,25 +66783,25 @@
         <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E67" s="1">
         <v>5</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H67" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I67" s="1">
         <v>75087</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K67" s="1">
         <v>2</v>
@@ -66803,7 +66812,7 @@
       <c r="M67" s="7">
         <v>240</v>
       </c>
-      <c r="N67" s="1">
+      <c r="N67" s="7">
         <v>194672</v>
       </c>
       <c r="O67" s="7">
@@ -66819,7 +66828,7 @@
         <v>33938</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="T67" s="1">
         <v>32.913938000000002</v>
@@ -66831,10 +66840,10 @@
         <v>3595635</v>
       </c>
       <c r="W67" s="19">
-        <v>136583.33333333334</v>
+        <v>14981.8125</v>
       </c>
       <c r="X67" s="19">
-        <v>168.38579764937947</v>
+        <v>18.470221706254623</v>
       </c>
       <c r="Y67" s="19">
         <v>0</v>
@@ -66865,7 +66874,7 @@
         <v>825000</v>
       </c>
     </row>
-    <row r="68" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
@@ -66873,28 +66882,28 @@
         <v>0</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E68" s="1">
         <v>4</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H68" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I68" s="1">
         <v>73112</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K68" s="1">
         <v>2</v>
@@ -66912,7 +66921,7 @@
         <v>-1</v>
       </c>
       <c r="P68" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q68" s="9">
         <v>1</v>
@@ -66921,7 +66930,7 @@
         <v>43817</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="T68" s="1">
         <v>35.527355</v>
@@ -66967,7 +66976,7 @@
         <v>13264705.882352943</v>
       </c>
       <c r="AH68" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AI68" s="19">
         <v>30157000</v>
@@ -66981,19 +66990,19 @@
         <v>1</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E69" s="1">
         <v>9</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H69" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I69" s="1">
         <v>53702</v>
@@ -67017,13 +67026,13 @@
         <v>1</v>
       </c>
       <c r="P69" s="12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="Q69" s="13">
         <v>1</v>
       </c>
       <c r="R69" s="10">
-        <v>43349</v>
+        <v>42759</v>
       </c>
       <c r="T69" s="1">
         <v>43.081878000000003</v>
@@ -67032,13 +67041,13 @@
         <v>-88.236626999999999</v>
       </c>
       <c r="V69" s="19">
-        <v>1750000</v>
+        <v>5500000</v>
       </c>
       <c r="W69" s="19">
         <v>0</v>
       </c>
       <c r="X69" s="19">
-        <v>25.168991802099814</v>
+        <v>79.102545663742276</v>
       </c>
       <c r="Y69" s="19">
         <v>0</v>
@@ -67077,7 +67086,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E70" s="1">
         <v>5</v>
@@ -67089,7 +67098,7 @@
         <v>33</v>
       </c>
       <c r="H70" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I70" s="1">
         <v>60173</v>
@@ -67113,7 +67122,7 @@
         <v>1</v>
       </c>
       <c r="P70" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Q70" s="9">
         <v>1</v>
@@ -67165,7 +67174,7 @@
         <v>1900000</v>
       </c>
       <c r="AH70" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AI70" s="19">
         <v>2179345</v>
@@ -67179,19 +67188,19 @@
         <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E71" s="1">
         <v>5</v>
       </c>
       <c r="F71" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G71" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="H71" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I71" s="1">
         <v>55112</v>
@@ -67215,7 +67224,7 @@
         <v>2</v>
       </c>
       <c r="P71" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q71" s="9">
         <v>5</v>
@@ -67267,13 +67276,13 @@
         <v>2154904</v>
       </c>
       <c r="AH71" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AI71" s="19">
         <v>3487500</v>
       </c>
     </row>
-    <row r="72" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
@@ -67281,19 +67290,19 @@
         <v>0</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E72" s="1">
         <v>2</v>
       </c>
       <c r="F72" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G72" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G72" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="H72" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I72" s="1">
         <v>55379</v>
@@ -67317,7 +67326,7 @@
         <v>-1</v>
       </c>
       <c r="P72" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q72" s="9">
         <v>10</v>
@@ -67372,7 +67381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -67380,19 +67389,19 @@
         <v>0</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E73" s="1">
         <v>6</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H73" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I73" s="1">
         <v>55437</v>
@@ -67416,7 +67425,7 @@
         <v>-1</v>
       </c>
       <c r="P73" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q73" s="9">
         <v>9</v>
@@ -67471,7 +67480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
@@ -67479,19 +67488,19 @@
         <v>0</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E74" s="1">
         <v>3</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H74" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I74" s="1">
         <v>53207</v>
@@ -67515,7 +67524,7 @@
         <v>-1</v>
       </c>
       <c r="P74" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q74" s="9">
         <v>1</v>
@@ -67578,25 +67587,25 @@
         <v>1</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E75" s="1">
         <v>5</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H75" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I75" s="1">
         <v>75043</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K75" s="1">
         <v>2</v>
@@ -67623,7 +67632,7 @@
         <v>33324</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="T75" s="1">
         <v>32.848539000000002</v>
@@ -67635,10 +67644,10 @@
         <v>2954368</v>
       </c>
       <c r="W75" s="19">
-        <v>108482.14285714286</v>
+        <v>13189.142857142857</v>
       </c>
       <c r="X75" s="19">
-        <v>133.56345088382727</v>
+        <v>16.238501451059712</v>
       </c>
       <c r="Y75" s="19">
         <v>0</v>
@@ -67669,7 +67678,7 @@
         <v>731616</v>
       </c>
     </row>
-    <row r="76" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
@@ -67689,7 +67698,7 @@
         <v>3</v>
       </c>
       <c r="H76" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I76" s="1">
         <v>43228</v>
@@ -67776,10 +67785,10 @@
         <v>1</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E77" s="1">
         <v>5</v>
@@ -67788,10 +67797,10 @@
         <v>55</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H77" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I77" s="1">
         <v>55430</v>
@@ -67815,7 +67824,7 @@
         <v>1</v>
       </c>
       <c r="P77" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q77" s="9">
         <v>8</v>
@@ -67867,7 +67876,7 @@
         <v>2418931</v>
       </c>
       <c r="AH77" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AI77" s="19">
         <v>5282430</v>
@@ -67881,19 +67890,19 @@
         <v>1</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E78" s="1">
         <v>5</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H78" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I78" s="1">
         <v>55431</v>
@@ -67917,7 +67926,7 @@
         <v>1</v>
       </c>
       <c r="P78" s="8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Q78" s="9">
         <v>9</v>
@@ -67965,11 +67974,11 @@
         <v>0</v>
       </c>
       <c r="AG78" s="19">
-        <f t="shared" ref="AG78:AG109" si="3">+SUM(Y78:AF78)</f>
+        <f t="shared" ref="AG78:AG86" si="3">+SUM(Y78:AF78)</f>
         <v>3250000</v>
       </c>
       <c r="AH78" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AI78" s="19">
         <v>3900000</v>
@@ -67983,19 +67992,19 @@
         <v>1</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E79" s="1">
         <v>5</v>
       </c>
       <c r="F79" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G79" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="H79" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I79" s="1">
         <v>85281</v>
@@ -68019,7 +68028,7 @@
         <v>-1</v>
       </c>
       <c r="P79" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Q79" s="9">
         <v>6</v>
@@ -68071,7 +68080,7 @@
         <v>25750000</v>
       </c>
       <c r="AH79" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AI79" s="19">
         <v>33329000</v>
@@ -68085,22 +68094,22 @@
         <v>1</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E80" s="1">
         <v>9</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H80" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I80" s="1">
         <v>53151</v>
@@ -68121,10 +68130,10 @@
         <v>114990</v>
       </c>
       <c r="O80" s="7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="P80" s="12" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="Q80" s="13">
         <v>1</v>
@@ -68142,10 +68151,10 @@
         <v>3620000</v>
       </c>
       <c r="W80" s="19">
-        <v>43.482041916688409</v>
+        <v>0</v>
       </c>
       <c r="X80" s="19">
-        <v>0</v>
+        <v>31.480998347682409</v>
       </c>
       <c r="Y80" s="19">
         <v>0</v>
@@ -68184,19 +68193,19 @@
         <v>1</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E81" s="1">
         <v>5</v>
       </c>
       <c r="F81" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G81" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="H81" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I81" s="1">
         <v>33763</v>
@@ -68220,7 +68229,7 @@
         <v>-1</v>
       </c>
       <c r="P81" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q81" s="9">
         <v>1</v>
@@ -68229,7 +68238,7 @@
         <v>43640</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="T81" s="1">
         <v>28.001814</v>
@@ -68275,7 +68284,7 @@
         <v>18200000</v>
       </c>
       <c r="AH81" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AI81" s="19">
         <v>28312000</v>
@@ -68289,19 +68298,19 @@
         <v>1</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E82" s="1">
         <v>4</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H82" s="17" t="s">
-        <v>211</v>
+        <v>372</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="K82" s="1">
         <v>2</v>
@@ -68319,7 +68328,7 @@
         <v>-1</v>
       </c>
       <c r="P82" s="8" t="s">
-        <v>282</v>
+        <v>371</v>
       </c>
       <c r="Q82" s="9">
         <v>1</v>
@@ -68366,7 +68375,7 @@
         <v>72884808</v>
       </c>
       <c r="AH82" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AI82" s="19">
         <v>163743000</v>
@@ -68380,19 +68389,19 @@
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E83" s="1">
         <v>5</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H83" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I83" s="1">
         <v>75013</v>
@@ -68416,7 +68425,7 @@
         <v>-1</v>
       </c>
       <c r="P83" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q83" s="9">
         <v>1</v>
@@ -68425,7 +68434,7 @@
         <v>43348</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T83" s="1">
         <v>33.118155999999999</v>
@@ -68471,7 +68480,7 @@
         <v>29200000</v>
       </c>
       <c r="AH83" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AI83" s="19">
         <v>47000000</v>
@@ -68485,19 +68494,19 @@
         <v>1</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E84" s="1">
         <v>5</v>
       </c>
       <c r="F84" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G84" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G84" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="H84" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I84" s="1">
         <v>53029</v>
@@ -68521,7 +68530,7 @@
         <v>-1</v>
       </c>
       <c r="P84" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q84" s="9">
         <v>1</v>
@@ -68576,24 +68585,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B85" s="16">
         <v>0</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E85" s="1">
         <v>5</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H85" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M85" s="1">
         <v>0</v>
@@ -68602,7 +68611,7 @@
         <v>0</v>
       </c>
       <c r="P85" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="R85" s="10">
         <v>41791</v>
@@ -68653,19 +68662,19 @@
         <v>1</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E86" s="1">
         <v>5</v>
       </c>
       <c r="F86" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G86" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="H86" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I86" s="1">
         <v>53188</v>
@@ -68680,7 +68689,7 @@
         <v>3</v>
       </c>
       <c r="M86" s="1">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="N86" s="6">
         <v>483034</v>
@@ -68689,7 +68698,7 @@
         <v>-1</v>
       </c>
       <c r="P86" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Q86" s="9">
         <v>1</v>
@@ -68698,7 +68707,7 @@
         <v>42765</v>
       </c>
       <c r="S86" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T86" s="1">
         <v>43.000940999999997</v>
@@ -68710,7 +68719,7 @@
         <v>36500000</v>
       </c>
       <c r="W86" s="19">
-        <v>76359.832635983257</v>
+        <v>76680.672268907569</v>
       </c>
       <c r="X86" s="19">
         <v>75.564038970341628</v>
@@ -68746,11 +68755,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AI86" xr:uid="{05793611-39F0-4396-94D0-88965B9A9A92}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:AI86">
       <sortCondition ref="C1:C86"/>
     </sortState>
